--- a/gesture_survey.xlsx
+++ b/gesture_survey.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="250" documentId="6_{2D6A7385-186A-4253-B6B3-82E9D76F35F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9D5B2EA8-BCCF-44F5-847E-B086F71F9043}"/>
+  <xr:revisionPtr revIDLastSave="335" documentId="6_{2D6A7385-186A-4253-B6B3-82E9D76F35F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C5E1B67-4605-4131-B49E-F431A2E2DA1D}"/>
   <bookViews>
     <workbookView xWindow="14760" yWindow="-16380" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="165">
   <si>
     <t>Year</t>
   </si>
@@ -555,6 +555,9 @@
   <si>
     <t>Ahmad2015</t>
   </si>
+  <si>
+    <t>Zhou2016</t>
+  </si>
 </sst>
 </file>
 
@@ -659,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -766,11 +769,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -778,32 +787,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -814,20 +799,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -841,8 +820,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C137EE7-01F7-404B-8A91-DA4E4206FC3E}">
-  <dimension ref="A1:IV113"/>
+  <dimension ref="A1:IV114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,53 +1171,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
       <c r="AL1" s="8"/>
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
@@ -2277,22 +2289,22 @@
       <c r="IV4" s="8"/>
     </row>
     <row r="5" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="53">
         <v>2000</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="53" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -2561,12 +2573,12 @@
       <c r="IV5" s="8"/>
     </row>
     <row r="6" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
@@ -4537,22 +4549,22 @@
       <c r="IV12" s="12"/>
     </row>
     <row r="13" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="40">
+      <c r="B13" s="53">
         <v>2004</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="53" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="21" t="s">
@@ -4821,12 +4833,12 @@
       <c r="IV13" s="8"/>
     </row>
     <row r="14" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="50"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="23" t="s">
         <v>30</v>
       </c>
@@ -5661,22 +5673,22 @@
       <c r="IV16" s="8"/>
     </row>
     <row r="17" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="53">
         <v>2006</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="53" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="21" t="s">
@@ -5945,12 +5957,12 @@
       <c r="IV17" s="8"/>
     </row>
     <row r="18" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="23" t="s">
         <v>116</v>
       </c>
@@ -7353,22 +7365,22 @@
       <c r="IV22" s="8"/>
     </row>
     <row r="23" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="40">
         <v>2009</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="40" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="21" t="s">
@@ -7637,12 +7649,12 @@
       <c r="IV23" s="8"/>
     </row>
     <row r="24" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="28" t="s">
         <v>30</v>
       </c>
@@ -7909,22 +7921,22 @@
       <c r="IV24" s="10"/>
     </row>
     <row r="25" spans="1:256" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="40">
         <v>2009</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="E25" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="40" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="21" t="s">
@@ -8193,12 +8205,12 @@
       <c r="IV25" s="7"/>
     </row>
     <row r="26" spans="1:256" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="50"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="28" t="s">
         <v>30</v>
       </c>
@@ -9317,22 +9329,22 @@
       <c r="IV29" s="15"/>
     </row>
     <row r="30" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="40">
         <v>2011</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="40" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="35" t="s">
@@ -9601,12 +9613,12 @@
       <c r="IV30" s="15"/>
     </row>
     <row r="31" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="57"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="35" t="s">
         <v>30</v>
       </c>
@@ -10725,22 +10737,22 @@
       <c r="IV34" s="8"/>
     </row>
     <row r="35" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="59">
+      <c r="B35" s="51">
         <v>2012</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="51" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="33" t="s">
@@ -11009,12 +11021,12 @@
       <c r="IV35" s="15"/>
     </row>
     <row r="36" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="57"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="34" t="s">
         <v>116</v>
       </c>
@@ -12417,19 +12429,19 @@
       <c r="IV40" s="8"/>
     </row>
     <row r="41" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="40">
         <v>2014</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E41" s="40" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="22" t="s">
@@ -12701,11 +12713,11 @@
       <c r="IV41" s="8"/>
     </row>
     <row r="42" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="52"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
       <c r="F42" s="29" t="s">
         <v>8</v>
       </c>
@@ -12732,11 +12744,11 @@
       </c>
     </row>
     <row r="43" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="50"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
       <c r="F43" s="24" t="s">
         <v>2</v>
       </c>
@@ -13006,22 +13018,22 @@
       <c r="IV43" s="8"/>
     </row>
     <row r="44" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="40">
         <v>2014</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="38" t="s">
+      <c r="E44" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F44" s="40" t="s">
         <v>1</v>
       </c>
       <c r="G44" s="21" t="s">
@@ -13290,12 +13302,12 @@
       <c r="IV44" s="8"/>
     </row>
     <row r="45" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="50"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
       <c r="G45" s="23" t="s">
         <v>30</v>
       </c>
@@ -16443,22 +16455,22 @@
       </c>
     </row>
     <row r="57" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="51">
+      <c r="B57" s="45">
         <v>2015</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="45" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="28" t="s">
@@ -16484,12 +16496,12 @@
       </c>
     </row>
     <row r="58" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="54"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="28" t="s">
         <v>30</v>
       </c>
@@ -16513,12 +16525,12 @@
       </c>
     </row>
     <row r="59" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="50"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
       <c r="G59" s="28" t="s">
         <v>30</v>
       </c>
@@ -17353,43 +17365,43 @@
       <c r="IV61" s="8"/>
     </row>
     <row r="62" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="38">
+      <c r="B62" s="40">
         <v>2015</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="38" t="s">
+      <c r="F62" s="40" t="s">
         <v>1</v>
       </c>
       <c r="G62" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="H62" s="38" t="s">
+      <c r="H62" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="38" t="s">
+      <c r="I62" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="38" t="s">
+      <c r="J62" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="K62" s="38" t="s">
+      <c r="K62" s="40" t="s">
         <v>20</v>
       </c>
       <c r="L62" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="M62" s="38" t="s">
+      <c r="M62" s="40" t="s">
         <v>17</v>
       </c>
       <c r="N62" s="15"/>
@@ -17637,21 +17649,21 @@
       <c r="IV62" s="15"/>
     </row>
     <row r="63" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="50"/>
-      <c r="B63" s="39"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="41"/>
       <c r="C63" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
       <c r="P63" s="15"/>
@@ -18199,7 +18211,7 @@
       <c r="F65" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="61" t="s">
+      <c r="G65" s="39" t="s">
         <v>116</v>
       </c>
       <c r="H65" s="16" t="s">
@@ -18749,22 +18761,22 @@
       <c r="IV66" s="8"/>
     </row>
     <row r="67" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="38">
+      <c r="B67" s="40">
         <v>2016</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="38" t="s">
+      <c r="F67" s="40" t="s">
         <v>8</v>
       </c>
       <c r="G67" s="28" t="s">
@@ -19033,12 +19045,12 @@
       <c r="IV67" s="8"/>
     </row>
     <row r="68" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="50"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
       <c r="G68" s="28" t="s">
         <v>30</v>
       </c>
@@ -19304,23 +19316,23 @@
       <c r="IU68" s="8"/>
       <c r="IV68" s="8"/>
     </row>
-    <row r="69" spans="1:256" s="5" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="49" t="s">
+    <row r="69" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="38">
+      <c r="B69" s="40">
         <v>2016</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="38" t="s">
+      <c r="E69" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="38" t="s">
+      <c r="F69" s="40" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="21" t="s">
@@ -19588,13 +19600,13 @@
       <c r="IU69" s="8"/>
       <c r="IV69" s="8"/>
     </row>
-    <row r="70" spans="1:256" s="8" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="50"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
+    <row r="70" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A70" s="44"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
       <c r="G70" s="28" t="s">
         <v>30</v>
       </c>
@@ -19658,23 +19670,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:256" s="8" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="49" t="s">
+    <row r="72" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="40">
         <v>2016</v>
       </c>
-      <c r="C72" s="38" t="s">
+      <c r="C72" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="38" t="s">
+      <c r="E72" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="38" t="s">
+      <c r="F72" s="40" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="28" t="s">
@@ -19699,13 +19711,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:256" s="8" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="50"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
+    <row r="73" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="44"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
       <c r="G73" s="23" t="s">
         <v>30</v>
       </c>
@@ -20297,22 +20309,22 @@
       <c r="IV75" s="8"/>
     </row>
     <row r="76" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="38">
+      <c r="B76" s="40">
         <v>2016</v>
       </c>
-      <c r="C76" s="38" t="s">
+      <c r="C76" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="38" t="s">
+      <c r="D76" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="38" t="s">
+      <c r="E76" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="38" t="s">
+      <c r="F76" s="40" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="21" t="s">
@@ -20581,12 +20593,12 @@
       <c r="IV76" s="8"/>
     </row>
     <row r="77" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="50"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
       <c r="G77" s="23" t="s">
         <v>116</v>
       </c>
@@ -20875,7 +20887,7 @@
         <v>30</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I78" s="19">
         <v>25</v>
@@ -21137,323 +21149,335 @@
       <c r="IV78" s="8"/>
     </row>
     <row r="79" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A79" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="B79" s="38">
-        <v>2017</v>
-      </c>
-      <c r="C79" s="38" t="s">
+      <c r="A79" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="37">
+        <v>2016</v>
+      </c>
+      <c r="C79" s="37" t="s">
         <v>74</v>
       </c>
       <c r="D79" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="38" t="s">
+      <c r="E79" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" s="29" t="s">
+      <c r="F79" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I79" s="29">
-        <v>6</v>
-      </c>
-      <c r="J79" s="29" t="s">
+      <c r="I79" s="19">
+        <v>14</v>
+      </c>
+      <c r="J79" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K79" s="29" t="s">
+      <c r="K79" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L79" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="M79" s="29" t="s">
+      <c r="L79" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M79" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
-      <c r="S79" s="8"/>
-      <c r="T79" s="8"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="8"/>
-      <c r="AA79" s="8"/>
-      <c r="AB79" s="8"/>
-      <c r="AC79" s="8"/>
-      <c r="AD79" s="8"/>
-      <c r="AE79" s="8"/>
-      <c r="AF79" s="8"/>
-      <c r="AG79" s="8"/>
-      <c r="AH79" s="8"/>
-      <c r="AI79" s="8"/>
-      <c r="AJ79" s="8"/>
-      <c r="AK79" s="8"/>
-      <c r="AL79" s="8"/>
-      <c r="AM79" s="8"/>
-      <c r="AN79" s="8"/>
-      <c r="AO79" s="8"/>
-      <c r="AP79" s="8"/>
-      <c r="AQ79" s="8"/>
-      <c r="AR79" s="8"/>
-      <c r="AS79" s="8"/>
-      <c r="AT79" s="8"/>
-      <c r="AU79" s="8"/>
-      <c r="AV79" s="8"/>
-      <c r="AW79" s="8"/>
-      <c r="AX79" s="8"/>
-      <c r="AY79" s="8"/>
-      <c r="AZ79" s="8"/>
-      <c r="BA79" s="8"/>
-      <c r="BB79" s="8"/>
-      <c r="BC79" s="8"/>
-      <c r="BD79" s="8"/>
-      <c r="BE79" s="8"/>
-      <c r="BF79" s="8"/>
-      <c r="BG79" s="8"/>
-      <c r="BH79" s="8"/>
-      <c r="BI79" s="8"/>
-      <c r="BJ79" s="8"/>
-      <c r="BK79" s="8"/>
-      <c r="BL79" s="8"/>
-      <c r="BM79" s="8"/>
-      <c r="BN79" s="8"/>
-      <c r="BO79" s="8"/>
-      <c r="BP79" s="8"/>
-      <c r="BQ79" s="8"/>
-      <c r="BR79" s="8"/>
-      <c r="BS79" s="8"/>
-      <c r="BT79" s="8"/>
-      <c r="BU79" s="8"/>
-      <c r="BV79" s="8"/>
-      <c r="BW79" s="8"/>
-      <c r="BX79" s="8"/>
-      <c r="BY79" s="8"/>
-      <c r="BZ79" s="8"/>
-      <c r="CA79" s="8"/>
-      <c r="CB79" s="8"/>
-      <c r="CC79" s="8"/>
-      <c r="CD79" s="8"/>
-      <c r="CE79" s="8"/>
-      <c r="CF79" s="8"/>
-      <c r="CG79" s="8"/>
-      <c r="CH79" s="8"/>
-      <c r="CI79" s="8"/>
-      <c r="CJ79" s="8"/>
-      <c r="CK79" s="8"/>
-      <c r="CL79" s="8"/>
-      <c r="CM79" s="8"/>
-      <c r="CN79" s="8"/>
-      <c r="CO79" s="8"/>
-      <c r="CP79" s="8"/>
-      <c r="CQ79" s="8"/>
-      <c r="CR79" s="8"/>
-      <c r="CS79" s="8"/>
-      <c r="CT79" s="8"/>
-      <c r="CU79" s="8"/>
-      <c r="CV79" s="8"/>
-      <c r="CW79" s="8"/>
-      <c r="CX79" s="8"/>
-      <c r="CY79" s="8"/>
-      <c r="CZ79" s="8"/>
-      <c r="DA79" s="8"/>
-      <c r="DB79" s="8"/>
-      <c r="DC79" s="8"/>
-      <c r="DD79" s="8"/>
-      <c r="DE79" s="8"/>
-      <c r="DF79" s="8"/>
-      <c r="DG79" s="8"/>
-      <c r="DH79" s="8"/>
-      <c r="DI79" s="8"/>
-      <c r="DJ79" s="8"/>
-      <c r="DK79" s="8"/>
-      <c r="DL79" s="8"/>
-      <c r="DM79" s="8"/>
-      <c r="DN79" s="8"/>
-      <c r="DO79" s="8"/>
-      <c r="DP79" s="8"/>
-      <c r="DQ79" s="8"/>
-      <c r="DR79" s="8"/>
-      <c r="DS79" s="8"/>
-      <c r="DT79" s="8"/>
-      <c r="DU79" s="8"/>
-      <c r="DV79" s="8"/>
-      <c r="DW79" s="8"/>
-      <c r="DX79" s="8"/>
-      <c r="DY79" s="8"/>
-      <c r="DZ79" s="8"/>
-      <c r="EA79" s="8"/>
-      <c r="EB79" s="8"/>
-      <c r="EC79" s="8"/>
-      <c r="ED79" s="8"/>
-      <c r="EE79" s="8"/>
-      <c r="EF79" s="8"/>
-      <c r="EG79" s="8"/>
-      <c r="EH79" s="8"/>
-      <c r="EI79" s="8"/>
-      <c r="EJ79" s="8"/>
-      <c r="EK79" s="8"/>
-      <c r="EL79" s="8"/>
-      <c r="EM79" s="8"/>
-      <c r="EN79" s="8"/>
-      <c r="EO79" s="8"/>
-      <c r="EP79" s="8"/>
-      <c r="EQ79" s="8"/>
-      <c r="ER79" s="8"/>
-      <c r="ES79" s="8"/>
-      <c r="ET79" s="8"/>
-      <c r="EU79" s="8"/>
-      <c r="EV79" s="8"/>
-      <c r="EW79" s="8"/>
-      <c r="EX79" s="8"/>
-      <c r="EY79" s="8"/>
-      <c r="EZ79" s="8"/>
-      <c r="FA79" s="8"/>
-      <c r="FB79" s="8"/>
-      <c r="FC79" s="8"/>
-      <c r="FD79" s="8"/>
-      <c r="FE79" s="8"/>
-      <c r="FF79" s="8"/>
-      <c r="FG79" s="8"/>
-      <c r="FH79" s="8"/>
-      <c r="FI79" s="8"/>
-      <c r="FJ79" s="8"/>
-      <c r="FK79" s="8"/>
-      <c r="FL79" s="8"/>
-      <c r="FM79" s="8"/>
-      <c r="FN79" s="8"/>
-      <c r="FO79" s="8"/>
-      <c r="FP79" s="8"/>
-      <c r="FQ79" s="8"/>
-      <c r="FR79" s="8"/>
-      <c r="FS79" s="8"/>
-      <c r="FT79" s="8"/>
-      <c r="FU79" s="8"/>
-      <c r="FV79" s="8"/>
-      <c r="FW79" s="8"/>
-      <c r="FX79" s="8"/>
-      <c r="FY79" s="8"/>
-      <c r="FZ79" s="8"/>
-      <c r="GA79" s="8"/>
-      <c r="GB79" s="8"/>
-      <c r="GC79" s="8"/>
-      <c r="GD79" s="8"/>
-      <c r="GE79" s="8"/>
-      <c r="GF79" s="8"/>
-      <c r="GG79" s="8"/>
-      <c r="GH79" s="8"/>
-      <c r="GI79" s="8"/>
-      <c r="GJ79" s="8"/>
-      <c r="GK79" s="8"/>
-      <c r="GL79" s="8"/>
-      <c r="GM79" s="8"/>
-      <c r="GN79" s="8"/>
-      <c r="GO79" s="8"/>
-      <c r="GP79" s="8"/>
-      <c r="GQ79" s="8"/>
-      <c r="GR79" s="8"/>
-      <c r="GS79" s="8"/>
-      <c r="GT79" s="8"/>
-      <c r="GU79" s="8"/>
-      <c r="GV79" s="8"/>
-      <c r="GW79" s="8"/>
-      <c r="GX79" s="8"/>
-      <c r="GY79" s="8"/>
-      <c r="GZ79" s="8"/>
-      <c r="HA79" s="8"/>
-      <c r="HB79" s="8"/>
-      <c r="HC79" s="8"/>
-      <c r="HD79" s="8"/>
-      <c r="HE79" s="8"/>
-      <c r="HF79" s="8"/>
-      <c r="HG79" s="8"/>
-      <c r="HH79" s="8"/>
-      <c r="HI79" s="8"/>
-      <c r="HJ79" s="8"/>
-      <c r="HK79" s="8"/>
-      <c r="HL79" s="8"/>
-      <c r="HM79" s="8"/>
-      <c r="HN79" s="8"/>
-      <c r="HO79" s="8"/>
-      <c r="HP79" s="8"/>
-      <c r="HQ79" s="8"/>
-      <c r="HR79" s="8"/>
-      <c r="HS79" s="8"/>
-      <c r="HT79" s="8"/>
-      <c r="HU79" s="8"/>
-      <c r="HV79" s="8"/>
-      <c r="HW79" s="8"/>
-      <c r="HX79" s="8"/>
-      <c r="HY79" s="8"/>
-      <c r="HZ79" s="8"/>
-      <c r="IA79" s="8"/>
-      <c r="IB79" s="8"/>
-      <c r="IC79" s="8"/>
-      <c r="ID79" s="8"/>
-      <c r="IE79" s="8"/>
-      <c r="IF79" s="8"/>
-      <c r="IG79" s="8"/>
-      <c r="IH79" s="8"/>
-      <c r="II79" s="8"/>
-      <c r="IJ79" s="8"/>
-      <c r="IK79" s="8"/>
-      <c r="IL79" s="8"/>
-      <c r="IM79" s="8"/>
-      <c r="IN79" s="8"/>
-      <c r="IO79" s="8"/>
-      <c r="IP79" s="8"/>
-      <c r="IQ79" s="8"/>
-      <c r="IR79" s="8"/>
-      <c r="IS79" s="8"/>
-      <c r="IT79" s="8"/>
-      <c r="IU79" s="8"/>
-      <c r="IV79" s="8"/>
+      <c r="N79" s="36"/>
+      <c r="O79" s="36"/>
+      <c r="P79" s="36"/>
+      <c r="Q79" s="36"/>
+      <c r="R79" s="36"/>
+      <c r="S79" s="36"/>
+      <c r="T79" s="36"/>
+      <c r="U79" s="36"/>
+      <c r="V79" s="36"/>
+      <c r="W79" s="36"/>
+      <c r="X79" s="36"/>
+      <c r="Y79" s="36"/>
+      <c r="Z79" s="36"/>
+      <c r="AA79" s="36"/>
+      <c r="AB79" s="36"/>
+      <c r="AC79" s="36"/>
+      <c r="AD79" s="36"/>
+      <c r="AE79" s="36"/>
+      <c r="AF79" s="36"/>
+      <c r="AG79" s="36"/>
+      <c r="AH79" s="36"/>
+      <c r="AI79" s="36"/>
+      <c r="AJ79" s="36"/>
+      <c r="AK79" s="36"/>
+      <c r="AL79" s="36"/>
+      <c r="AM79" s="36"/>
+      <c r="AN79" s="36"/>
+      <c r="AO79" s="36"/>
+      <c r="AP79" s="36"/>
+      <c r="AQ79" s="36"/>
+      <c r="AR79" s="36"/>
+      <c r="AS79" s="36"/>
+      <c r="AT79" s="36"/>
+      <c r="AU79" s="36"/>
+      <c r="AV79" s="36"/>
+      <c r="AW79" s="36"/>
+      <c r="AX79" s="36"/>
+      <c r="AY79" s="36"/>
+      <c r="AZ79" s="36"/>
+      <c r="BA79" s="36"/>
+      <c r="BB79" s="36"/>
+      <c r="BC79" s="36"/>
+      <c r="BD79" s="36"/>
+      <c r="BE79" s="36"/>
+      <c r="BF79" s="36"/>
+      <c r="BG79" s="36"/>
+      <c r="BH79" s="36"/>
+      <c r="BI79" s="36"/>
+      <c r="BJ79" s="36"/>
+      <c r="BK79" s="36"/>
+      <c r="BL79" s="36"/>
+      <c r="BM79" s="36"/>
+      <c r="BN79" s="36"/>
+      <c r="BO79" s="36"/>
+      <c r="BP79" s="36"/>
+      <c r="BQ79" s="36"/>
+      <c r="BR79" s="36"/>
+      <c r="BS79" s="36"/>
+      <c r="BT79" s="36"/>
+      <c r="BU79" s="36"/>
+      <c r="BV79" s="36"/>
+      <c r="BW79" s="36"/>
+      <c r="BX79" s="36"/>
+      <c r="BY79" s="36"/>
+      <c r="BZ79" s="36"/>
+      <c r="CA79" s="36"/>
+      <c r="CB79" s="36"/>
+      <c r="CC79" s="36"/>
+      <c r="CD79" s="36"/>
+      <c r="CE79" s="36"/>
+      <c r="CF79" s="36"/>
+      <c r="CG79" s="36"/>
+      <c r="CH79" s="36"/>
+      <c r="CI79" s="36"/>
+      <c r="CJ79" s="36"/>
+      <c r="CK79" s="36"/>
+      <c r="CL79" s="36"/>
+      <c r="CM79" s="36"/>
+      <c r="CN79" s="36"/>
+      <c r="CO79" s="36"/>
+      <c r="CP79" s="36"/>
+      <c r="CQ79" s="36"/>
+      <c r="CR79" s="36"/>
+      <c r="CS79" s="36"/>
+      <c r="CT79" s="36"/>
+      <c r="CU79" s="36"/>
+      <c r="CV79" s="36"/>
+      <c r="CW79" s="36"/>
+      <c r="CX79" s="36"/>
+      <c r="CY79" s="36"/>
+      <c r="CZ79" s="36"/>
+      <c r="DA79" s="36"/>
+      <c r="DB79" s="36"/>
+      <c r="DC79" s="36"/>
+      <c r="DD79" s="36"/>
+      <c r="DE79" s="36"/>
+      <c r="DF79" s="36"/>
+      <c r="DG79" s="36"/>
+      <c r="DH79" s="36"/>
+      <c r="DI79" s="36"/>
+      <c r="DJ79" s="36"/>
+      <c r="DK79" s="36"/>
+      <c r="DL79" s="36"/>
+      <c r="DM79" s="36"/>
+      <c r="DN79" s="36"/>
+      <c r="DO79" s="36"/>
+      <c r="DP79" s="36"/>
+      <c r="DQ79" s="36"/>
+      <c r="DR79" s="36"/>
+      <c r="DS79" s="36"/>
+      <c r="DT79" s="36"/>
+      <c r="DU79" s="36"/>
+      <c r="DV79" s="36"/>
+      <c r="DW79" s="36"/>
+      <c r="DX79" s="36"/>
+      <c r="DY79" s="36"/>
+      <c r="DZ79" s="36"/>
+      <c r="EA79" s="36"/>
+      <c r="EB79" s="36"/>
+      <c r="EC79" s="36"/>
+      <c r="ED79" s="36"/>
+      <c r="EE79" s="36"/>
+      <c r="EF79" s="36"/>
+      <c r="EG79" s="36"/>
+      <c r="EH79" s="36"/>
+      <c r="EI79" s="36"/>
+      <c r="EJ79" s="36"/>
+      <c r="EK79" s="36"/>
+      <c r="EL79" s="36"/>
+      <c r="EM79" s="36"/>
+      <c r="EN79" s="36"/>
+      <c r="EO79" s="36"/>
+      <c r="EP79" s="36"/>
+      <c r="EQ79" s="36"/>
+      <c r="ER79" s="36"/>
+      <c r="ES79" s="36"/>
+      <c r="ET79" s="36"/>
+      <c r="EU79" s="36"/>
+      <c r="EV79" s="36"/>
+      <c r="EW79" s="36"/>
+      <c r="EX79" s="36"/>
+      <c r="EY79" s="36"/>
+      <c r="EZ79" s="36"/>
+      <c r="FA79" s="36"/>
+      <c r="FB79" s="36"/>
+      <c r="FC79" s="36"/>
+      <c r="FD79" s="36"/>
+      <c r="FE79" s="36"/>
+      <c r="FF79" s="36"/>
+      <c r="FG79" s="36"/>
+      <c r="FH79" s="36"/>
+      <c r="FI79" s="36"/>
+      <c r="FJ79" s="36"/>
+      <c r="FK79" s="36"/>
+      <c r="FL79" s="36"/>
+      <c r="FM79" s="36"/>
+      <c r="FN79" s="36"/>
+      <c r="FO79" s="36"/>
+      <c r="FP79" s="36"/>
+      <c r="FQ79" s="36"/>
+      <c r="FR79" s="36"/>
+      <c r="FS79" s="36"/>
+      <c r="FT79" s="36"/>
+      <c r="FU79" s="36"/>
+      <c r="FV79" s="36"/>
+      <c r="FW79" s="36"/>
+      <c r="FX79" s="36"/>
+      <c r="FY79" s="36"/>
+      <c r="FZ79" s="36"/>
+      <c r="GA79" s="36"/>
+      <c r="GB79" s="36"/>
+      <c r="GC79" s="36"/>
+      <c r="GD79" s="36"/>
+      <c r="GE79" s="36"/>
+      <c r="GF79" s="36"/>
+      <c r="GG79" s="36"/>
+      <c r="GH79" s="36"/>
+      <c r="GI79" s="36"/>
+      <c r="GJ79" s="36"/>
+      <c r="GK79" s="36"/>
+      <c r="GL79" s="36"/>
+      <c r="GM79" s="36"/>
+      <c r="GN79" s="36"/>
+      <c r="GO79" s="36"/>
+      <c r="GP79" s="36"/>
+      <c r="GQ79" s="36"/>
+      <c r="GR79" s="36"/>
+      <c r="GS79" s="36"/>
+      <c r="GT79" s="36"/>
+      <c r="GU79" s="36"/>
+      <c r="GV79" s="36"/>
+      <c r="GW79" s="36"/>
+      <c r="GX79" s="36"/>
+      <c r="GY79" s="36"/>
+      <c r="GZ79" s="36"/>
+      <c r="HA79" s="36"/>
+      <c r="HB79" s="36"/>
+      <c r="HC79" s="36"/>
+      <c r="HD79" s="36"/>
+      <c r="HE79" s="36"/>
+      <c r="HF79" s="36"/>
+      <c r="HG79" s="36"/>
+      <c r="HH79" s="36"/>
+      <c r="HI79" s="36"/>
+      <c r="HJ79" s="36"/>
+      <c r="HK79" s="36"/>
+      <c r="HL79" s="36"/>
+      <c r="HM79" s="36"/>
+      <c r="HN79" s="36"/>
+      <c r="HO79" s="36"/>
+      <c r="HP79" s="36"/>
+      <c r="HQ79" s="36"/>
+      <c r="HR79" s="36"/>
+      <c r="HS79" s="36"/>
+      <c r="HT79" s="36"/>
+      <c r="HU79" s="36"/>
+      <c r="HV79" s="36"/>
+      <c r="HW79" s="36"/>
+      <c r="HX79" s="36"/>
+      <c r="HY79" s="36"/>
+      <c r="HZ79" s="36"/>
+      <c r="IA79" s="36"/>
+      <c r="IB79" s="36"/>
+      <c r="IC79" s="36"/>
+      <c r="ID79" s="36"/>
+      <c r="IE79" s="36"/>
+      <c r="IF79" s="36"/>
+      <c r="IG79" s="36"/>
+      <c r="IH79" s="36"/>
+      <c r="II79" s="36"/>
+      <c r="IJ79" s="36"/>
+      <c r="IK79" s="36"/>
+      <c r="IL79" s="36"/>
+      <c r="IM79" s="36"/>
+      <c r="IN79" s="36"/>
+      <c r="IO79" s="36"/>
+      <c r="IP79" s="36"/>
+      <c r="IQ79" s="36"/>
+      <c r="IR79" s="36"/>
+      <c r="IS79" s="36"/>
+      <c r="IT79" s="36"/>
+      <c r="IU79" s="36"/>
+      <c r="IV79" s="36"/>
     </row>
     <row r="80" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="50"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="23" t="s">
+      <c r="A80" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="40">
+        <v>2017</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="21" t="s">
         <v>30</v>
       </c>
       <c r="H80" s="29" t="s">
         <v>16</v>
       </c>
       <c r="I80" s="29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J80" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="K80" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L80" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M80" s="24" t="s">
+      <c r="K80" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L80" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M80" s="29" t="s">
         <v>16</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
-      <c r="Q80" s="9"/>
+      <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="9"/>
+      <c r="S80" s="8"/>
       <c r="T80" s="8"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
@@ -21693,51 +21717,39 @@
       <c r="IV80" s="8"/>
     </row>
     <row r="81" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" s="19">
-        <v>2017</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G81" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H81" s="19" t="s">
+      <c r="A81" s="44"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="19">
+      <c r="I81" s="29">
         <v>1</v>
       </c>
-      <c r="J81" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="K81" s="19" t="s">
+      <c r="J81" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K81" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="L81" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M81" s="19" t="s">
+      <c r="L81" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M81" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
+      <c r="Q81" s="9"/>
       <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
+      <c r="S81" s="9"/>
       <c r="T81" s="8"/>
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
@@ -21978,13 +21990,13 @@
     </row>
     <row r="82" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="19">
         <v>2017</v>
       </c>
-      <c r="C82" s="20" t="s">
-        <v>125</v>
+      <c r="C82" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>8</v>
@@ -21993,25 +22005,25 @@
         <v>8</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G82" s="20" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="H82" s="19" t="s">
         <v>16</v>
       </c>
       <c r="I82" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J82" s="19" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K82" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L82" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="L82" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="M82" s="19" t="s">
         <v>16</v>
@@ -22261,43 +22273,43 @@
       <c r="IV82" s="8"/>
     </row>
     <row r="83" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A83" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B83" s="38">
+      <c r="A83" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="19">
         <v>2017</v>
       </c>
-      <c r="C83" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="38" t="s">
+      <c r="C83" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="38" t="s">
+      <c r="E83" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="G83" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" s="29" t="s">
+      <c r="F83" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="29">
-        <v>12</v>
-      </c>
-      <c r="J83" s="29" t="s">
+      <c r="I83" s="19">
+        <v>5</v>
+      </c>
+      <c r="J83" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K83" s="29" t="s">
+      <c r="K83" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L83" s="28" t="s">
+      <c r="L83" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M83" s="29" t="s">
+      <c r="M83" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N83" s="8"/>
@@ -22545,12 +22557,24 @@
       <c r="IV83" s="8"/>
     </row>
     <row r="84" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="50"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
+      <c r="A84" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="40">
+        <v>2017</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="40" t="s">
+        <v>2</v>
+      </c>
       <c r="G84" s="28" t="s">
         <v>30</v>
       </c>
@@ -22558,18 +22582,18 @@
         <v>16</v>
       </c>
       <c r="I84" s="29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J84" s="29" t="s">
         <v>126</v>
       </c>
       <c r="K84" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M84" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L84" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M84" s="29" t="s">
         <v>16</v>
       </c>
       <c r="N84" s="8"/>
@@ -22817,43 +22841,31 @@
       <c r="IV84" s="8"/>
     </row>
     <row r="85" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B85" s="19">
-        <v>2017</v>
-      </c>
-      <c r="C85" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="20" t="s">
+      <c r="A85" s="44"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H85" s="19" t="s">
+      <c r="H85" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I85" s="19">
-        <v>6</v>
-      </c>
-      <c r="J85" s="19" t="s">
+      <c r="I85" s="29">
+        <v>10</v>
+      </c>
+      <c r="J85" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="K85" s="19" t="s">
+      <c r="K85" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L85" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M85" s="19" t="s">
+      <c r="L85" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N85" s="8"/>
@@ -23102,13 +23114,13 @@
     </row>
     <row r="86" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B86" s="19">
         <v>2017</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D86" s="19" t="s">
         <v>8</v>
@@ -23120,24 +23132,24 @@
         <v>8</v>
       </c>
       <c r="G86" s="20" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H86" s="19" t="s">
         <v>16</v>
       </c>
       <c r="I86" s="19">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J86" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K86" s="32" t="s">
-        <v>7</v>
+      <c r="K86" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="L86" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M86" s="32" t="s">
+      <c r="M86" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N86" s="8"/>
@@ -23386,7 +23398,7 @@
     </row>
     <row r="87" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" s="19">
         <v>2017</v>
@@ -23410,7 +23422,7 @@
         <v>16</v>
       </c>
       <c r="I87" s="19">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J87" s="19" t="s">
         <v>126</v>
@@ -23419,7 +23431,7 @@
         <v>7</v>
       </c>
       <c r="L87" s="20" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="M87" s="32" t="s">
         <v>16</v>
@@ -23670,13 +23682,13 @@
     </row>
     <row r="88" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="18" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B88" s="19">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>8</v>
@@ -23688,24 +23700,24 @@
         <v>8</v>
       </c>
       <c r="G88" s="20" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H88" s="19" t="s">
         <v>16</v>
       </c>
       <c r="I88" s="19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J88" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K88" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L88" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M88" s="19" t="s">
+      <c r="K88" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L88" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M88" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N88" s="8"/>
@@ -23954,13 +23966,13 @@
     </row>
     <row r="89" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="19">
         <v>2018</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D89" s="19" t="s">
         <v>8</v>
@@ -23969,28 +23981,28 @@
         <v>8</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H89" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="19" t="s">
-        <v>8</v>
+      <c r="I89" s="19">
+        <v>9</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K89" s="19" t="s">
         <v>20</v>
       </c>
       <c r="L89" s="19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M89" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
@@ -24238,13 +24250,13 @@
     </row>
     <row r="90" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B90" s="19">
         <v>2018</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>8</v>
@@ -24253,28 +24265,28 @@
         <v>8</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G90" s="21" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="G90" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="H90" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="19">
-        <v>6</v>
+      <c r="I90" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K90" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L90" s="20" t="s">
-        <v>19</v>
+      <c r="L90" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="M90" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
@@ -24520,44 +24532,44 @@
       <c r="IU90" s="8"/>
       <c r="IV90" s="8"/>
     </row>
-    <row r="91" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91" s="42">
+    <row r="91" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="19">
         <v>2018</v>
       </c>
-      <c r="C91" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D91" s="42" t="s">
+      <c r="C91" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="42" t="s">
+      <c r="E91" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="42" t="s">
-        <v>8</v>
+      <c r="F91" s="19" t="s">
+        <v>1</v>
       </c>
       <c r="G91" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H91" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="22">
-        <v>10</v>
-      </c>
-      <c r="J91" s="22" t="s">
+      <c r="I91" s="19">
+        <v>6</v>
+      </c>
+      <c r="J91" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K91" s="22" t="s">
+      <c r="K91" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L91" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M91" s="22" t="s">
+      <c r="L91" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N91" s="8"/>
@@ -24804,38 +24816,50 @@
       <c r="IU91" s="8"/>
       <c r="IV91" s="8"/>
     </row>
-    <row r="92" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="45"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="28" t="s">
+    <row r="92" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="42">
+        <v>2018</v>
+      </c>
+      <c r="C92" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H92" s="24" t="s">
+      <c r="H92" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I92" s="24">
-        <v>26</v>
-      </c>
-      <c r="J92" s="24" t="s">
+      <c r="I92" s="22">
+        <v>10</v>
+      </c>
+      <c r="J92" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="K92" s="24" t="s">
+      <c r="K92" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L92" s="23" t="s">
+      <c r="L92" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M92" s="24" t="s">
+      <c r="M92" s="22" t="s">
         <v>16</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
-      <c r="Q92" s="9"/>
+      <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
       <c r="T92" s="8"/>
@@ -25076,44 +25100,32 @@
       <c r="IU92" s="8"/>
       <c r="IV92" s="8"/>
     </row>
-    <row r="93" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B93" s="20">
-        <v>2018</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H93" s="19" t="s">
+    <row r="93" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="61"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="19">
-        <v>5</v>
-      </c>
-      <c r="J93" s="19" t="s">
+      <c r="I93" s="24">
+        <v>26</v>
+      </c>
+      <c r="J93" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="K93" s="19" t="s">
+      <c r="K93" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L93" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M93" s="19" t="s">
+      <c r="L93" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N93" s="8"/>
@@ -25362,21 +25374,21 @@
     </row>
     <row r="94" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94" s="19">
+        <v>108</v>
+      </c>
+      <c r="B94" s="20">
         <v>2018</v>
       </c>
-      <c r="C94" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D94" s="19" t="s">
+      <c r="C94" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="19" t="s">
+      <c r="E94" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="19" t="s">
+      <c r="F94" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G94" s="20" t="s">
@@ -25386,7 +25398,7 @@
         <v>16</v>
       </c>
       <c r="I94" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J94" s="19" t="s">
         <v>126</v>
@@ -25395,7 +25407,7 @@
         <v>20</v>
       </c>
       <c r="L94" s="20" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="M94" s="19" t="s">
         <v>16</v>
@@ -25403,7 +25415,7 @@
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
+      <c r="Q94" s="9"/>
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
       <c r="T94" s="8"/>
@@ -25646,16 +25658,16 @@
     </row>
     <row r="95" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B95" s="19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>8</v>
@@ -25670,7 +25682,7 @@
         <v>16</v>
       </c>
       <c r="I95" s="19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J95" s="19" t="s">
         <v>126</v>
@@ -25678,8 +25690,8 @@
       <c r="K95" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L95" s="19" t="s">
-        <v>18</v>
+      <c r="L95" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="M95" s="19" t="s">
         <v>16</v>
@@ -25930,22 +25942,22 @@
     </row>
     <row r="96" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="19">
         <v>2019</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G96" s="20" t="s">
         <v>30</v>
@@ -25954,16 +25966,16 @@
         <v>16</v>
       </c>
       <c r="I96" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J96" s="19" t="s">
         <v>126</v>
       </c>
       <c r="K96" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L96" s="20" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="L96" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="M96" s="19" t="s">
         <v>16</v>
@@ -26212,44 +26224,44 @@
       <c r="IU96" s="8"/>
       <c r="IV96" s="8"/>
     </row>
-    <row r="97" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="42">
+    <row r="97" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="19">
         <v>2019</v>
       </c>
-      <c r="C97" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D97" s="42" t="s">
+      <c r="C97" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="42" t="s">
+      <c r="E97" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="21" t="s">
+      <c r="F97" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G97" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="19">
         <v>8</v>
       </c>
-      <c r="G97" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H97" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I97" s="22">
-        <v>10</v>
-      </c>
-      <c r="J97" s="22" t="s">
+      <c r="J97" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K97" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L97" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="M97" s="22" t="s">
+      <c r="K97" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L97" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N97" s="8"/>
@@ -26496,45 +26508,298 @@
       <c r="IU97" s="8"/>
       <c r="IV97" s="8"/>
     </row>
-    <row r="98" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="55"/>
-      <c r="B98" s="46"/>
-      <c r="C98" s="46"/>
-      <c r="D98" s="46"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="28" t="s">
+    <row r="98" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="42">
+        <v>2019</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D98" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="28" t="s">
+      <c r="E98" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H98" s="29" t="s">
+      <c r="H98" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I98" s="29">
+      <c r="I98" s="22">
         <v>10</v>
       </c>
-      <c r="J98" s="29" t="s">
+      <c r="J98" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="K98" s="29" t="s">
+      <c r="K98" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L98" s="28" t="s">
+      <c r="L98" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="M98" s="29" t="s">
+      <c r="M98" s="22" t="s">
         <v>16</v>
       </c>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8"/>
+      <c r="AB98" s="8"/>
+      <c r="AC98" s="8"/>
+      <c r="AD98" s="8"/>
+      <c r="AE98" s="8"/>
+      <c r="AF98" s="8"/>
+      <c r="AG98" s="8"/>
+      <c r="AH98" s="8"/>
+      <c r="AI98" s="8"/>
+      <c r="AJ98" s="8"/>
+      <c r="AK98" s="8"/>
+      <c r="AL98" s="8"/>
+      <c r="AM98" s="8"/>
+      <c r="AN98" s="8"/>
+      <c r="AO98" s="8"/>
+      <c r="AP98" s="8"/>
+      <c r="AQ98" s="8"/>
+      <c r="AR98" s="8"/>
+      <c r="AS98" s="8"/>
+      <c r="AT98" s="8"/>
+      <c r="AU98" s="8"/>
+      <c r="AV98" s="8"/>
+      <c r="AW98" s="8"/>
+      <c r="AX98" s="8"/>
+      <c r="AY98" s="8"/>
+      <c r="AZ98" s="8"/>
+      <c r="BA98" s="8"/>
+      <c r="BB98" s="8"/>
+      <c r="BC98" s="8"/>
+      <c r="BD98" s="8"/>
+      <c r="BE98" s="8"/>
+      <c r="BF98" s="8"/>
+      <c r="BG98" s="8"/>
+      <c r="BH98" s="8"/>
+      <c r="BI98" s="8"/>
+      <c r="BJ98" s="8"/>
+      <c r="BK98" s="8"/>
+      <c r="BL98" s="8"/>
+      <c r="BM98" s="8"/>
+      <c r="BN98" s="8"/>
+      <c r="BO98" s="8"/>
+      <c r="BP98" s="8"/>
+      <c r="BQ98" s="8"/>
+      <c r="BR98" s="8"/>
+      <c r="BS98" s="8"/>
+      <c r="BT98" s="8"/>
+      <c r="BU98" s="8"/>
+      <c r="BV98" s="8"/>
+      <c r="BW98" s="8"/>
+      <c r="BX98" s="8"/>
+      <c r="BY98" s="8"/>
+      <c r="BZ98" s="8"/>
+      <c r="CA98" s="8"/>
+      <c r="CB98" s="8"/>
+      <c r="CC98" s="8"/>
+      <c r="CD98" s="8"/>
+      <c r="CE98" s="8"/>
+      <c r="CF98" s="8"/>
+      <c r="CG98" s="8"/>
+      <c r="CH98" s="8"/>
+      <c r="CI98" s="8"/>
+      <c r="CJ98" s="8"/>
+      <c r="CK98" s="8"/>
+      <c r="CL98" s="8"/>
+      <c r="CM98" s="8"/>
+      <c r="CN98" s="8"/>
+      <c r="CO98" s="8"/>
+      <c r="CP98" s="8"/>
+      <c r="CQ98" s="8"/>
+      <c r="CR98" s="8"/>
+      <c r="CS98" s="8"/>
+      <c r="CT98" s="8"/>
+      <c r="CU98" s="8"/>
+      <c r="CV98" s="8"/>
+      <c r="CW98" s="8"/>
+      <c r="CX98" s="8"/>
+      <c r="CY98" s="8"/>
+      <c r="CZ98" s="8"/>
+      <c r="DA98" s="8"/>
+      <c r="DB98" s="8"/>
+      <c r="DC98" s="8"/>
+      <c r="DD98" s="8"/>
+      <c r="DE98" s="8"/>
+      <c r="DF98" s="8"/>
+      <c r="DG98" s="8"/>
+      <c r="DH98" s="8"/>
+      <c r="DI98" s="8"/>
+      <c r="DJ98" s="8"/>
+      <c r="DK98" s="8"/>
+      <c r="DL98" s="8"/>
+      <c r="DM98" s="8"/>
+      <c r="DN98" s="8"/>
+      <c r="DO98" s="8"/>
+      <c r="DP98" s="8"/>
+      <c r="DQ98" s="8"/>
+      <c r="DR98" s="8"/>
+      <c r="DS98" s="8"/>
+      <c r="DT98" s="8"/>
+      <c r="DU98" s="8"/>
+      <c r="DV98" s="8"/>
+      <c r="DW98" s="8"/>
+      <c r="DX98" s="8"/>
+      <c r="DY98" s="8"/>
+      <c r="DZ98" s="8"/>
+      <c r="EA98" s="8"/>
+      <c r="EB98" s="8"/>
+      <c r="EC98" s="8"/>
+      <c r="ED98" s="8"/>
+      <c r="EE98" s="8"/>
+      <c r="EF98" s="8"/>
+      <c r="EG98" s="8"/>
+      <c r="EH98" s="8"/>
+      <c r="EI98" s="8"/>
+      <c r="EJ98" s="8"/>
+      <c r="EK98" s="8"/>
+      <c r="EL98" s="8"/>
+      <c r="EM98" s="8"/>
+      <c r="EN98" s="8"/>
+      <c r="EO98" s="8"/>
+      <c r="EP98" s="8"/>
+      <c r="EQ98" s="8"/>
+      <c r="ER98" s="8"/>
+      <c r="ES98" s="8"/>
+      <c r="ET98" s="8"/>
+      <c r="EU98" s="8"/>
+      <c r="EV98" s="8"/>
+      <c r="EW98" s="8"/>
+      <c r="EX98" s="8"/>
+      <c r="EY98" s="8"/>
+      <c r="EZ98" s="8"/>
+      <c r="FA98" s="8"/>
+      <c r="FB98" s="8"/>
+      <c r="FC98" s="8"/>
+      <c r="FD98" s="8"/>
+      <c r="FE98" s="8"/>
+      <c r="FF98" s="8"/>
+      <c r="FG98" s="8"/>
+      <c r="FH98" s="8"/>
+      <c r="FI98" s="8"/>
+      <c r="FJ98" s="8"/>
+      <c r="FK98" s="8"/>
+      <c r="FL98" s="8"/>
+      <c r="FM98" s="8"/>
+      <c r="FN98" s="8"/>
+      <c r="FO98" s="8"/>
+      <c r="FP98" s="8"/>
+      <c r="FQ98" s="8"/>
+      <c r="FR98" s="8"/>
+      <c r="FS98" s="8"/>
+      <c r="FT98" s="8"/>
+      <c r="FU98" s="8"/>
+      <c r="FV98" s="8"/>
+      <c r="FW98" s="8"/>
+      <c r="FX98" s="8"/>
+      <c r="FY98" s="8"/>
+      <c r="FZ98" s="8"/>
+      <c r="GA98" s="8"/>
+      <c r="GB98" s="8"/>
+      <c r="GC98" s="8"/>
+      <c r="GD98" s="8"/>
+      <c r="GE98" s="8"/>
+      <c r="GF98" s="8"/>
+      <c r="GG98" s="8"/>
+      <c r="GH98" s="8"/>
+      <c r="GI98" s="8"/>
+      <c r="GJ98" s="8"/>
+      <c r="GK98" s="8"/>
+      <c r="GL98" s="8"/>
+      <c r="GM98" s="8"/>
+      <c r="GN98" s="8"/>
+      <c r="GO98" s="8"/>
+      <c r="GP98" s="8"/>
+      <c r="GQ98" s="8"/>
+      <c r="GR98" s="8"/>
+      <c r="GS98" s="8"/>
+      <c r="GT98" s="8"/>
+      <c r="GU98" s="8"/>
+      <c r="GV98" s="8"/>
+      <c r="GW98" s="8"/>
+      <c r="GX98" s="8"/>
+      <c r="GY98" s="8"/>
+      <c r="GZ98" s="8"/>
+      <c r="HA98" s="8"/>
+      <c r="HB98" s="8"/>
+      <c r="HC98" s="8"/>
+      <c r="HD98" s="8"/>
+      <c r="HE98" s="8"/>
+      <c r="HF98" s="8"/>
+      <c r="HG98" s="8"/>
+      <c r="HH98" s="8"/>
+      <c r="HI98" s="8"/>
+      <c r="HJ98" s="8"/>
+      <c r="HK98" s="8"/>
+      <c r="HL98" s="8"/>
+      <c r="HM98" s="8"/>
+      <c r="HN98" s="8"/>
+      <c r="HO98" s="8"/>
+      <c r="HP98" s="8"/>
+      <c r="HQ98" s="8"/>
+      <c r="HR98" s="8"/>
+      <c r="HS98" s="8"/>
+      <c r="HT98" s="8"/>
+      <c r="HU98" s="8"/>
+      <c r="HV98" s="8"/>
+      <c r="HW98" s="8"/>
+      <c r="HX98" s="8"/>
+      <c r="HY98" s="8"/>
+      <c r="HZ98" s="8"/>
+      <c r="IA98" s="8"/>
+      <c r="IB98" s="8"/>
+      <c r="IC98" s="8"/>
+      <c r="ID98" s="8"/>
+      <c r="IE98" s="8"/>
+      <c r="IF98" s="8"/>
+      <c r="IG98" s="8"/>
+      <c r="IH98" s="8"/>
+      <c r="II98" s="8"/>
+      <c r="IJ98" s="8"/>
+      <c r="IK98" s="8"/>
+      <c r="IL98" s="8"/>
+      <c r="IM98" s="8"/>
+      <c r="IN98" s="8"/>
+      <c r="IO98" s="8"/>
+      <c r="IP98" s="8"/>
+      <c r="IQ98" s="8"/>
+      <c r="IR98" s="8"/>
+      <c r="IS98" s="8"/>
+      <c r="IT98" s="8"/>
+      <c r="IU98" s="8"/>
+      <c r="IV98" s="8"/>
     </row>
     <row r="99" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="55"/>
-      <c r="B99" s="46"/>
-      <c r="C99" s="46"/>
-      <c r="D99" s="46"/>
-      <c r="E99" s="46"/>
+      <c r="A99" s="58"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
       <c r="F99" s="28" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G99" s="28" t="s">
         <v>30</v>
@@ -26559,11 +26824,11 @@
       </c>
     </row>
     <row r="100" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="55"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="46"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
       <c r="F100" s="28" t="s">
         <v>1</v>
       </c>
@@ -26589,318 +26854,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="56"/>
-      <c r="B101" s="43"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="23" t="s">
+    <row r="101" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="58"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G101" s="23" t="s">
+      <c r="G101" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H101" s="24" t="s">
+      <c r="H101" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="24">
+      <c r="I101" s="29">
+        <v>10</v>
+      </c>
+      <c r="J101" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K101" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="M101" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="59"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H102" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="24">
         <v>15</v>
       </c>
-      <c r="J101" s="23" t="s">
+      <c r="J102" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K101" s="23" t="s">
+      <c r="K102" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="L101" s="23" t="s">
+      <c r="L102" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="M101" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8"/>
-      <c r="Q101" s="8"/>
-      <c r="R101" s="8"/>
-      <c r="S101" s="8"/>
-      <c r="T101" s="8"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="8"/>
-      <c r="X101" s="8"/>
-      <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
-      <c r="AA101" s="8"/>
-      <c r="AB101" s="8"/>
-      <c r="AC101" s="8"/>
-      <c r="AD101" s="8"/>
-      <c r="AE101" s="8"/>
-      <c r="AF101" s="8"/>
-      <c r="AG101" s="8"/>
-      <c r="AH101" s="8"/>
-      <c r="AI101" s="8"/>
-      <c r="AJ101" s="8"/>
-      <c r="AK101" s="8"/>
-      <c r="AL101" s="8"/>
-      <c r="AM101" s="8"/>
-      <c r="AN101" s="8"/>
-      <c r="AO101" s="8"/>
-      <c r="AP101" s="8"/>
-      <c r="AQ101" s="8"/>
-      <c r="AR101" s="8"/>
-      <c r="AS101" s="8"/>
-      <c r="AT101" s="8"/>
-      <c r="AU101" s="8"/>
-      <c r="AV101" s="8"/>
-      <c r="AW101" s="8"/>
-      <c r="AX101" s="8"/>
-      <c r="AY101" s="8"/>
-      <c r="AZ101" s="8"/>
-      <c r="BA101" s="8"/>
-      <c r="BB101" s="8"/>
-      <c r="BC101" s="8"/>
-      <c r="BD101" s="8"/>
-      <c r="BE101" s="8"/>
-      <c r="BF101" s="8"/>
-      <c r="BG101" s="8"/>
-      <c r="BH101" s="8"/>
-      <c r="BI101" s="8"/>
-      <c r="BJ101" s="8"/>
-      <c r="BK101" s="8"/>
-      <c r="BL101" s="8"/>
-      <c r="BM101" s="8"/>
-      <c r="BN101" s="8"/>
-      <c r="BO101" s="8"/>
-      <c r="BP101" s="8"/>
-      <c r="BQ101" s="8"/>
-      <c r="BR101" s="8"/>
-      <c r="BS101" s="8"/>
-      <c r="BT101" s="8"/>
-      <c r="BU101" s="8"/>
-      <c r="BV101" s="8"/>
-      <c r="BW101" s="8"/>
-      <c r="BX101" s="8"/>
-      <c r="BY101" s="8"/>
-      <c r="BZ101" s="8"/>
-      <c r="CA101" s="8"/>
-      <c r="CB101" s="8"/>
-      <c r="CC101" s="8"/>
-      <c r="CD101" s="8"/>
-      <c r="CE101" s="8"/>
-      <c r="CF101" s="8"/>
-      <c r="CG101" s="8"/>
-      <c r="CH101" s="8"/>
-      <c r="CI101" s="8"/>
-      <c r="CJ101" s="8"/>
-      <c r="CK101" s="8"/>
-      <c r="CL101" s="8"/>
-      <c r="CM101" s="8"/>
-      <c r="CN101" s="8"/>
-      <c r="CO101" s="8"/>
-      <c r="CP101" s="8"/>
-      <c r="CQ101" s="8"/>
-      <c r="CR101" s="8"/>
-      <c r="CS101" s="8"/>
-      <c r="CT101" s="8"/>
-      <c r="CU101" s="8"/>
-      <c r="CV101" s="8"/>
-      <c r="CW101" s="8"/>
-      <c r="CX101" s="8"/>
-      <c r="CY101" s="8"/>
-      <c r="CZ101" s="8"/>
-      <c r="DA101" s="8"/>
-      <c r="DB101" s="8"/>
-      <c r="DC101" s="8"/>
-      <c r="DD101" s="8"/>
-      <c r="DE101" s="8"/>
-      <c r="DF101" s="8"/>
-      <c r="DG101" s="8"/>
-      <c r="DH101" s="8"/>
-      <c r="DI101" s="8"/>
-      <c r="DJ101" s="8"/>
-      <c r="DK101" s="8"/>
-      <c r="DL101" s="8"/>
-      <c r="DM101" s="8"/>
-      <c r="DN101" s="8"/>
-      <c r="DO101" s="8"/>
-      <c r="DP101" s="8"/>
-      <c r="DQ101" s="8"/>
-      <c r="DR101" s="8"/>
-      <c r="DS101" s="8"/>
-      <c r="DT101" s="8"/>
-      <c r="DU101" s="8"/>
-      <c r="DV101" s="8"/>
-      <c r="DW101" s="8"/>
-      <c r="DX101" s="8"/>
-      <c r="DY101" s="8"/>
-      <c r="DZ101" s="8"/>
-      <c r="EA101" s="8"/>
-      <c r="EB101" s="8"/>
-      <c r="EC101" s="8"/>
-      <c r="ED101" s="8"/>
-      <c r="EE101" s="8"/>
-      <c r="EF101" s="8"/>
-      <c r="EG101" s="8"/>
-      <c r="EH101" s="8"/>
-      <c r="EI101" s="8"/>
-      <c r="EJ101" s="8"/>
-      <c r="EK101" s="8"/>
-      <c r="EL101" s="8"/>
-      <c r="EM101" s="8"/>
-      <c r="EN101" s="8"/>
-      <c r="EO101" s="8"/>
-      <c r="EP101" s="8"/>
-      <c r="EQ101" s="8"/>
-      <c r="ER101" s="8"/>
-      <c r="ES101" s="8"/>
-      <c r="ET101" s="8"/>
-      <c r="EU101" s="8"/>
-      <c r="EV101" s="8"/>
-      <c r="EW101" s="8"/>
-      <c r="EX101" s="8"/>
-      <c r="EY101" s="8"/>
-      <c r="EZ101" s="8"/>
-      <c r="FA101" s="8"/>
-      <c r="FB101" s="8"/>
-      <c r="FC101" s="8"/>
-      <c r="FD101" s="8"/>
-      <c r="FE101" s="8"/>
-      <c r="FF101" s="8"/>
-      <c r="FG101" s="8"/>
-      <c r="FH101" s="8"/>
-      <c r="FI101" s="8"/>
-      <c r="FJ101" s="8"/>
-      <c r="FK101" s="8"/>
-      <c r="FL101" s="8"/>
-      <c r="FM101" s="8"/>
-      <c r="FN101" s="8"/>
-      <c r="FO101" s="8"/>
-      <c r="FP101" s="8"/>
-      <c r="FQ101" s="8"/>
-      <c r="FR101" s="8"/>
-      <c r="FS101" s="8"/>
-      <c r="FT101" s="8"/>
-      <c r="FU101" s="8"/>
-      <c r="FV101" s="8"/>
-      <c r="FW101" s="8"/>
-      <c r="FX101" s="8"/>
-      <c r="FY101" s="8"/>
-      <c r="FZ101" s="8"/>
-      <c r="GA101" s="8"/>
-      <c r="GB101" s="8"/>
-      <c r="GC101" s="8"/>
-      <c r="GD101" s="8"/>
-      <c r="GE101" s="8"/>
-      <c r="GF101" s="8"/>
-      <c r="GG101" s="8"/>
-      <c r="GH101" s="8"/>
-      <c r="GI101" s="8"/>
-      <c r="GJ101" s="8"/>
-      <c r="GK101" s="8"/>
-      <c r="GL101" s="8"/>
-      <c r="GM101" s="8"/>
-      <c r="GN101" s="8"/>
-      <c r="GO101" s="8"/>
-      <c r="GP101" s="8"/>
-      <c r="GQ101" s="8"/>
-      <c r="GR101" s="8"/>
-      <c r="GS101" s="8"/>
-      <c r="GT101" s="8"/>
-      <c r="GU101" s="8"/>
-      <c r="GV101" s="8"/>
-      <c r="GW101" s="8"/>
-      <c r="GX101" s="8"/>
-      <c r="GY101" s="8"/>
-      <c r="GZ101" s="8"/>
-      <c r="HA101" s="8"/>
-      <c r="HB101" s="8"/>
-      <c r="HC101" s="8"/>
-      <c r="HD101" s="8"/>
-      <c r="HE101" s="8"/>
-      <c r="HF101" s="8"/>
-      <c r="HG101" s="8"/>
-      <c r="HH101" s="8"/>
-      <c r="HI101" s="8"/>
-      <c r="HJ101" s="8"/>
-      <c r="HK101" s="8"/>
-      <c r="HL101" s="8"/>
-      <c r="HM101" s="8"/>
-      <c r="HN101" s="8"/>
-      <c r="HO101" s="8"/>
-      <c r="HP101" s="8"/>
-      <c r="HQ101" s="8"/>
-      <c r="HR101" s="8"/>
-      <c r="HS101" s="8"/>
-      <c r="HT101" s="8"/>
-      <c r="HU101" s="8"/>
-      <c r="HV101" s="8"/>
-      <c r="HW101" s="8"/>
-      <c r="HX101" s="8"/>
-      <c r="HY101" s="8"/>
-      <c r="HZ101" s="8"/>
-      <c r="IA101" s="8"/>
-      <c r="IB101" s="8"/>
-      <c r="IC101" s="8"/>
-      <c r="ID101" s="8"/>
-      <c r="IE101" s="8"/>
-      <c r="IF101" s="8"/>
-      <c r="IG101" s="8"/>
-      <c r="IH101" s="8"/>
-      <c r="II101" s="8"/>
-      <c r="IJ101" s="8"/>
-      <c r="IK101" s="8"/>
-      <c r="IL101" s="8"/>
-      <c r="IM101" s="8"/>
-      <c r="IN101" s="8"/>
-      <c r="IO101" s="8"/>
-      <c r="IP101" s="8"/>
-      <c r="IQ101" s="8"/>
-      <c r="IR101" s="8"/>
-      <c r="IS101" s="8"/>
-      <c r="IT101" s="8"/>
-      <c r="IU101" s="8"/>
-      <c r="IV101" s="8"/>
-    </row>
-    <row r="102" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="38">
-        <v>2019</v>
-      </c>
-      <c r="C102" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G102" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H102" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K102" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L102" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M102" s="29" t="s">
+      <c r="M102" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N102" s="8"/>
@@ -27148,34 +27160,44 @@
       <c r="IV102" s="8"/>
     </row>
     <row r="103" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="50"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G103" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H103" s="24" t="s">
+      <c r="A103" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="40">
+        <v>2019</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D103" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H103" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="24">
-        <v>1</v>
-      </c>
-      <c r="J103" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="K103" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="L103" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M103" s="24" t="s">
-        <v>17</v>
+      <c r="I103" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K103" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M103" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
@@ -27422,44 +27444,34 @@
       <c r="IV103" s="8"/>
     </row>
     <row r="104" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C104" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="19" t="s">
+      <c r="A104" s="44"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G104" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H104" s="19" t="s">
+      <c r="G104" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I104" s="19">
-        <v>4</v>
-      </c>
-      <c r="J104" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="K104" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L104" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M104" s="19" t="s">
-        <v>16</v>
+      <c r="I104" s="24">
+        <v>1</v>
+      </c>
+      <c r="J104" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K104" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="L104" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="M104" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
@@ -27705,44 +27717,44 @@
       <c r="IU104" s="8"/>
       <c r="IV104" s="8"/>
     </row>
-    <row r="105" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="22">
+    <row r="105" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="19">
         <v>2019</v>
       </c>
-      <c r="C105" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D105" s="22" t="s">
+      <c r="C105" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H105" s="22" t="s">
+      <c r="F105" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H105" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I105" s="22">
-        <v>30</v>
-      </c>
-      <c r="J105" s="22" t="s">
+      <c r="I105" s="19">
+        <v>4</v>
+      </c>
+      <c r="J105" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K105" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="L105" s="21" t="s">
+      <c r="K105" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L105" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M105" s="22" t="s">
+      <c r="M105" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N105" s="8"/>
@@ -27989,44 +28001,44 @@
       <c r="IU105" s="8"/>
       <c r="IV105" s="8"/>
     </row>
-    <row r="106" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="19">
+    <row r="106" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="22">
         <v>2019</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F106" s="19" t="s">
+      <c r="F106" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="20" t="s">
+      <c r="G106" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H106" s="19" t="s">
+      <c r="H106" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I106" s="19">
-        <v>10</v>
-      </c>
-      <c r="J106" s="19" t="s">
+      <c r="I106" s="22">
+        <v>30</v>
+      </c>
+      <c r="J106" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="K106" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L106" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M106" s="19" t="s">
+      <c r="K106" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="L106" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M106" s="22" t="s">
         <v>16</v>
       </c>
       <c r="N106" s="8"/>
@@ -28275,13 +28287,13 @@
     </row>
     <row r="107" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B107" s="19">
         <v>2019</v>
       </c>
-      <c r="C107" s="19" t="s">
-        <v>56</v>
+      <c r="C107" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="D107" s="19" t="s">
         <v>8</v>
@@ -28293,22 +28305,22 @@
         <v>8</v>
       </c>
       <c r="G107" s="20" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H107" s="19" t="s">
         <v>16</v>
       </c>
       <c r="I107" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J107" s="19" t="s">
         <v>126</v>
       </c>
       <c r="K107" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L107" s="20" t="s">
-        <v>111</v>
+        <v>7</v>
+      </c>
+      <c r="L107" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="M107" s="19" t="s">
         <v>16</v>
@@ -28557,7 +28569,46 @@
       <c r="IU107" s="8"/>
       <c r="IV107" s="8"/>
     </row>
-    <row r="108" spans="1:256" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="19">
+        <v>2019</v>
+      </c>
+      <c r="C108" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="19">
+        <v>5</v>
+      </c>
+      <c r="J108" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K108" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M108" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
@@ -30027,115 +30078,253 @@
       <c r="IU113" s="8"/>
       <c r="IV113" s="8"/>
     </row>
+    <row r="114" spans="14:256" x14ac:dyDescent="0.35">
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8"/>
+      <c r="Q114" s="8"/>
+      <c r="R114" s="8"/>
+      <c r="S114" s="8"/>
+      <c r="T114" s="8"/>
+      <c r="U114" s="8"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="8"/>
+      <c r="X114" s="8"/>
+      <c r="Y114" s="8"/>
+      <c r="Z114" s="8"/>
+      <c r="AA114" s="8"/>
+      <c r="AB114" s="8"/>
+      <c r="AC114" s="8"/>
+      <c r="AD114" s="8"/>
+      <c r="AE114" s="8"/>
+      <c r="AF114" s="8"/>
+      <c r="AG114" s="8"/>
+      <c r="AH114" s="8"/>
+      <c r="AI114" s="8"/>
+      <c r="AJ114" s="8"/>
+      <c r="AK114" s="8"/>
+      <c r="AL114" s="8"/>
+      <c r="AM114" s="8"/>
+      <c r="AN114" s="8"/>
+      <c r="AO114" s="8"/>
+      <c r="AP114" s="8"/>
+      <c r="AQ114" s="8"/>
+      <c r="AR114" s="8"/>
+      <c r="AS114" s="8"/>
+      <c r="AT114" s="8"/>
+      <c r="AU114" s="8"/>
+      <c r="AV114" s="8"/>
+      <c r="AW114" s="8"/>
+      <c r="AX114" s="8"/>
+      <c r="AY114" s="8"/>
+      <c r="AZ114" s="8"/>
+      <c r="BA114" s="8"/>
+      <c r="BB114" s="8"/>
+      <c r="BC114" s="8"/>
+      <c r="BD114" s="8"/>
+      <c r="BE114" s="8"/>
+      <c r="BF114" s="8"/>
+      <c r="BG114" s="8"/>
+      <c r="BH114" s="8"/>
+      <c r="BI114" s="8"/>
+      <c r="BJ114" s="8"/>
+      <c r="BK114" s="8"/>
+      <c r="BL114" s="8"/>
+      <c r="BM114" s="8"/>
+      <c r="BN114" s="8"/>
+      <c r="BO114" s="8"/>
+      <c r="BP114" s="8"/>
+      <c r="BQ114" s="8"/>
+      <c r="BR114" s="8"/>
+      <c r="BS114" s="8"/>
+      <c r="BT114" s="8"/>
+      <c r="BU114" s="8"/>
+      <c r="BV114" s="8"/>
+      <c r="BW114" s="8"/>
+      <c r="BX114" s="8"/>
+      <c r="BY114" s="8"/>
+      <c r="BZ114" s="8"/>
+      <c r="CA114" s="8"/>
+      <c r="CB114" s="8"/>
+      <c r="CC114" s="8"/>
+      <c r="CD114" s="8"/>
+      <c r="CE114" s="8"/>
+      <c r="CF114" s="8"/>
+      <c r="CG114" s="8"/>
+      <c r="CH114" s="8"/>
+      <c r="CI114" s="8"/>
+      <c r="CJ114" s="8"/>
+      <c r="CK114" s="8"/>
+      <c r="CL114" s="8"/>
+      <c r="CM114" s="8"/>
+      <c r="CN114" s="8"/>
+      <c r="CO114" s="8"/>
+      <c r="CP114" s="8"/>
+      <c r="CQ114" s="8"/>
+      <c r="CR114" s="8"/>
+      <c r="CS114" s="8"/>
+      <c r="CT114" s="8"/>
+      <c r="CU114" s="8"/>
+      <c r="CV114" s="8"/>
+      <c r="CW114" s="8"/>
+      <c r="CX114" s="8"/>
+      <c r="CY114" s="8"/>
+      <c r="CZ114" s="8"/>
+      <c r="DA114" s="8"/>
+      <c r="DB114" s="8"/>
+      <c r="DC114" s="8"/>
+      <c r="DD114" s="8"/>
+      <c r="DE114" s="8"/>
+      <c r="DF114" s="8"/>
+      <c r="DG114" s="8"/>
+      <c r="DH114" s="8"/>
+      <c r="DI114" s="8"/>
+      <c r="DJ114" s="8"/>
+      <c r="DK114" s="8"/>
+      <c r="DL114" s="8"/>
+      <c r="DM114" s="8"/>
+      <c r="DN114" s="8"/>
+      <c r="DO114" s="8"/>
+      <c r="DP114" s="8"/>
+      <c r="DQ114" s="8"/>
+      <c r="DR114" s="8"/>
+      <c r="DS114" s="8"/>
+      <c r="DT114" s="8"/>
+      <c r="DU114" s="8"/>
+      <c r="DV114" s="8"/>
+      <c r="DW114" s="8"/>
+      <c r="DX114" s="8"/>
+      <c r="DY114" s="8"/>
+      <c r="DZ114" s="8"/>
+      <c r="EA114" s="8"/>
+      <c r="EB114" s="8"/>
+      <c r="EC114" s="8"/>
+      <c r="ED114" s="8"/>
+      <c r="EE114" s="8"/>
+      <c r="EF114" s="8"/>
+      <c r="EG114" s="8"/>
+      <c r="EH114" s="8"/>
+      <c r="EI114" s="8"/>
+      <c r="EJ114" s="8"/>
+      <c r="EK114" s="8"/>
+      <c r="EL114" s="8"/>
+      <c r="EM114" s="8"/>
+      <c r="EN114" s="8"/>
+      <c r="EO114" s="8"/>
+      <c r="EP114" s="8"/>
+      <c r="EQ114" s="8"/>
+      <c r="ER114" s="8"/>
+      <c r="ES114" s="8"/>
+      <c r="ET114" s="8"/>
+      <c r="EU114" s="8"/>
+      <c r="EV114" s="8"/>
+      <c r="EW114" s="8"/>
+      <c r="EX114" s="8"/>
+      <c r="EY114" s="8"/>
+      <c r="EZ114" s="8"/>
+      <c r="FA114" s="8"/>
+      <c r="FB114" s="8"/>
+      <c r="FC114" s="8"/>
+      <c r="FD114" s="8"/>
+      <c r="FE114" s="8"/>
+      <c r="FF114" s="8"/>
+      <c r="FG114" s="8"/>
+      <c r="FH114" s="8"/>
+      <c r="FI114" s="8"/>
+      <c r="FJ114" s="8"/>
+      <c r="FK114" s="8"/>
+      <c r="FL114" s="8"/>
+      <c r="FM114" s="8"/>
+      <c r="FN114" s="8"/>
+      <c r="FO114" s="8"/>
+      <c r="FP114" s="8"/>
+      <c r="FQ114" s="8"/>
+      <c r="FR114" s="8"/>
+      <c r="FS114" s="8"/>
+      <c r="FT114" s="8"/>
+      <c r="FU114" s="8"/>
+      <c r="FV114" s="8"/>
+      <c r="FW114" s="8"/>
+      <c r="FX114" s="8"/>
+      <c r="FY114" s="8"/>
+      <c r="FZ114" s="8"/>
+      <c r="GA114" s="8"/>
+      <c r="GB114" s="8"/>
+      <c r="GC114" s="8"/>
+      <c r="GD114" s="8"/>
+      <c r="GE114" s="8"/>
+      <c r="GF114" s="8"/>
+      <c r="GG114" s="8"/>
+      <c r="GH114" s="8"/>
+      <c r="GI114" s="8"/>
+      <c r="GJ114" s="8"/>
+      <c r="GK114" s="8"/>
+      <c r="GL114" s="8"/>
+      <c r="GM114" s="8"/>
+      <c r="GN114" s="8"/>
+      <c r="GO114" s="8"/>
+      <c r="GP114" s="8"/>
+      <c r="GQ114" s="8"/>
+      <c r="GR114" s="8"/>
+      <c r="GS114" s="8"/>
+      <c r="GT114" s="8"/>
+      <c r="GU114" s="8"/>
+      <c r="GV114" s="8"/>
+      <c r="GW114" s="8"/>
+      <c r="GX114" s="8"/>
+      <c r="GY114" s="8"/>
+      <c r="GZ114" s="8"/>
+      <c r="HA114" s="8"/>
+      <c r="HB114" s="8"/>
+      <c r="HC114" s="8"/>
+      <c r="HD114" s="8"/>
+      <c r="HE114" s="8"/>
+      <c r="HF114" s="8"/>
+      <c r="HG114" s="8"/>
+      <c r="HH114" s="8"/>
+      <c r="HI114" s="8"/>
+      <c r="HJ114" s="8"/>
+      <c r="HK114" s="8"/>
+      <c r="HL114" s="8"/>
+      <c r="HM114" s="8"/>
+      <c r="HN114" s="8"/>
+      <c r="HO114" s="8"/>
+      <c r="HP114" s="8"/>
+      <c r="HQ114" s="8"/>
+      <c r="HR114" s="8"/>
+      <c r="HS114" s="8"/>
+      <c r="HT114" s="8"/>
+      <c r="HU114" s="8"/>
+      <c r="HV114" s="8"/>
+      <c r="HW114" s="8"/>
+      <c r="HX114" s="8"/>
+      <c r="HY114" s="8"/>
+      <c r="HZ114" s="8"/>
+      <c r="IA114" s="8"/>
+      <c r="IB114" s="8"/>
+      <c r="IC114" s="8"/>
+      <c r="ID114" s="8"/>
+      <c r="IE114" s="8"/>
+      <c r="IF114" s="8"/>
+      <c r="IG114" s="8"/>
+      <c r="IH114" s="8"/>
+      <c r="II114" s="8"/>
+      <c r="IJ114" s="8"/>
+      <c r="IK114" s="8"/>
+      <c r="IL114" s="8"/>
+      <c r="IM114" s="8"/>
+      <c r="IN114" s="8"/>
+      <c r="IO114" s="8"/>
+      <c r="IP114" s="8"/>
+      <c r="IQ114" s="8"/>
+      <c r="IR114" s="8"/>
+      <c r="IS114" s="8"/>
+      <c r="IT114" s="8"/>
+      <c r="IU114" s="8"/>
+      <c r="IV114" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="E97:E101"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -30160,6 +30349,113 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="D98:D102"/>
+    <mergeCell ref="C98:C102"/>
+    <mergeCell ref="E98:E102"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:D104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/gesture_survey.xlsx
+++ b/gesture_survey.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="335" documentId="6_{2D6A7385-186A-4253-B6B3-82E9D76F35F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C5E1B67-4605-4131-B49E-F431A2E2DA1D}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="6_{2D6A7385-186A-4253-B6B3-82E9D76F35F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9BAE93D6-41A3-4AA6-A4EA-546C1CE40C6B}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="-16380" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14040" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="166">
   <si>
     <t>Year</t>
   </si>
@@ -558,6 +558,9 @@
   <si>
     <t>Zhou2016</t>
   </si>
+  <si>
+    <t>Carfi2018</t>
+  </si>
 </sst>
 </file>
 
@@ -662,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,43 +784,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,14 +805,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -841,20 +850,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C137EE7-01F7-404B-8A91-DA4E4206FC3E}">
-  <dimension ref="A1:IV114"/>
+  <dimension ref="A1:IV115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H71" sqref="H71"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S96" sqref="S96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1171,53 +1180,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
       <c r="AL1" s="8"/>
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
@@ -2289,22 +2298,22 @@
       <c r="IV4" s="8"/>
     </row>
     <row r="5" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="45">
         <v>2000</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="45" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -2573,12 +2582,12 @@
       <c r="IV5" s="8"/>
     </row>
     <row r="6" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="44"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
@@ -4549,22 +4558,22 @@
       <c r="IV12" s="12"/>
     </row>
     <row r="13" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="45">
         <v>2004</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="45" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="21" t="s">
@@ -4833,12 +4842,12 @@
       <c r="IV13" s="8"/>
     </row>
     <row r="14" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="44"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="23" t="s">
         <v>30</v>
       </c>
@@ -5673,22 +5682,22 @@
       <c r="IV16" s="8"/>
     </row>
     <row r="17" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="45">
         <v>2006</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="45" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="21" t="s">
@@ -5957,12 +5966,12 @@
       <c r="IV17" s="8"/>
     </row>
     <row r="18" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="23" t="s">
         <v>116</v>
       </c>
@@ -7365,22 +7374,22 @@
       <c r="IV22" s="8"/>
     </row>
     <row r="23" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="43">
         <v>2009</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="43" t="s">
         <v>2</v>
       </c>
       <c r="G23" s="21" t="s">
@@ -7649,12 +7658,12 @@
       <c r="IV23" s="8"/>
     </row>
     <row r="24" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="28" t="s">
         <v>30</v>
       </c>
@@ -7921,22 +7930,22 @@
       <c r="IV24" s="10"/>
     </row>
     <row r="25" spans="1:256" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="40">
+      <c r="B25" s="43">
         <v>2009</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="21" t="s">
@@ -8205,12 +8214,12 @@
       <c r="IV25" s="7"/>
     </row>
     <row r="26" spans="1:256" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
       <c r="G26" s="28" t="s">
         <v>30</v>
       </c>
@@ -9329,22 +9338,22 @@
       <c r="IV29" s="15"/>
     </row>
     <row r="30" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="40">
+      <c r="B30" s="43">
         <v>2011</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G30" s="35" t="s">
@@ -9613,12 +9622,12 @@
       <c r="IV30" s="15"/>
     </row>
     <row r="31" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="35" t="s">
         <v>30</v>
       </c>
@@ -10737,22 +10746,22 @@
       <c r="IV34" s="8"/>
     </row>
     <row r="35" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="51">
+      <c r="B35" s="64">
         <v>2012</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="51" t="s">
+      <c r="F35" s="64" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="33" t="s">
@@ -11021,12 +11030,12 @@
       <c r="IV35" s="15"/>
     </row>
     <row r="36" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="49"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="34" t="s">
         <v>116</v>
       </c>
@@ -12429,19 +12438,19 @@
       <c r="IV40" s="8"/>
     </row>
     <row r="41" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B41" s="43">
         <v>2014</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="40" t="s">
+      <c r="D41" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="43" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="22" t="s">
@@ -12713,11 +12722,11 @@
       <c r="IV41" s="8"/>
     </row>
     <row r="42" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="60"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
       <c r="F42" s="29" t="s">
         <v>8</v>
       </c>
@@ -12744,11 +12753,11 @@
       </c>
     </row>
     <row r="43" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="24" t="s">
         <v>2</v>
       </c>
@@ -13018,22 +13027,22 @@
       <c r="IV43" s="8"/>
     </row>
     <row r="44" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="40">
+      <c r="B44" s="43">
         <v>2014</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G44" s="21" t="s">
@@ -13302,12 +13311,12 @@
       <c r="IV44" s="8"/>
     </row>
     <row r="45" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="44"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
       <c r="G45" s="23" t="s">
         <v>30</v>
       </c>
@@ -16455,22 +16464,22 @@
       </c>
     </row>
     <row r="57" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="45">
+      <c r="B57" s="56">
         <v>2015</v>
       </c>
-      <c r="C57" s="45" t="s">
+      <c r="C57" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="D57" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="45" t="s">
+      <c r="F57" s="56" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="28" t="s">
@@ -16496,12 +16505,12 @@
       </c>
     </row>
     <row r="58" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="56"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
       <c r="G58" s="28" t="s">
         <v>30</v>
       </c>
@@ -16525,12 +16534,12 @@
       </c>
     </row>
     <row r="59" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="44"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
       <c r="G59" s="28" t="s">
         <v>30</v>
       </c>
@@ -17365,43 +17374,43 @@
       <c r="IV61" s="8"/>
     </row>
     <row r="62" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="40">
+      <c r="B62" s="43">
         <v>2015</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="40" t="s">
+      <c r="E62" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="40" t="s">
+      <c r="F62" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="42" t="s">
+      <c r="G62" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="H62" s="40" t="s">
+      <c r="H62" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I62" s="40" t="s">
+      <c r="I62" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="40" t="s">
+      <c r="J62" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="K62" s="40" t="s">
+      <c r="K62" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L62" s="42" t="s">
+      <c r="L62" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="M62" s="40" t="s">
+      <c r="M62" s="43" t="s">
         <v>17</v>
       </c>
       <c r="N62" s="15"/>
@@ -17649,21 +17658,21 @@
       <c r="IV62" s="15"/>
     </row>
     <row r="63" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="44"/>
-      <c r="B63" s="41"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
       <c r="N63" s="15"/>
       <c r="O63" s="15"/>
       <c r="P63" s="15"/>
@@ -18761,22 +18770,22 @@
       <c r="IV66" s="8"/>
     </row>
     <row r="67" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="40">
+      <c r="B67" s="43">
         <v>2016</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F67" s="40" t="s">
+      <c r="F67" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G67" s="28" t="s">
@@ -19045,12 +19054,12 @@
       <c r="IV67" s="8"/>
     </row>
     <row r="68" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="44"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
       <c r="G68" s="28" t="s">
         <v>30</v>
       </c>
@@ -19317,22 +19326,22 @@
       <c r="IV68" s="8"/>
     </row>
     <row r="69" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="40">
+      <c r="B69" s="43">
         <v>2016</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="C69" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="40" t="s">
+      <c r="D69" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="40" t="s">
+      <c r="E69" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="40" t="s">
+      <c r="F69" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="21" t="s">
@@ -19601,12 +19610,12 @@
       <c r="IV69" s="8"/>
     </row>
     <row r="70" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="44"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
+      <c r="A70" s="50"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
       <c r="G70" s="28" t="s">
         <v>30</v>
       </c>
@@ -19671,22 +19680,22 @@
       </c>
     </row>
     <row r="72" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="40">
+      <c r="B72" s="43">
         <v>2016</v>
       </c>
-      <c r="C72" s="40" t="s">
+      <c r="C72" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="40" t="s">
+      <c r="D72" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E72" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="40" t="s">
+      <c r="F72" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="28" t="s">
@@ -19712,12 +19721,12 @@
       </c>
     </row>
     <row r="73" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="44"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
       <c r="G73" s="23" t="s">
         <v>30</v>
       </c>
@@ -20309,22 +20318,22 @@
       <c r="IV75" s="8"/>
     </row>
     <row r="76" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="B76" s="40">
+      <c r="B76" s="43">
         <v>2016</v>
       </c>
-      <c r="C76" s="40" t="s">
+      <c r="C76" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D76" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="40" t="s">
+      <c r="F76" s="43" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="21" t="s">
@@ -20593,12 +20602,12 @@
       <c r="IV76" s="8"/>
     </row>
     <row r="77" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="44"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
+      <c r="A77" s="50"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
       <c r="G77" s="23" t="s">
         <v>116</v>
       </c>
@@ -21433,22 +21442,22 @@
       <c r="IV79" s="36"/>
     </row>
     <row r="80" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="40">
+      <c r="B80" s="43">
         <v>2017</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C80" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D80" s="40" t="s">
+      <c r="D80" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="40" t="s">
+      <c r="E80" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="40" t="s">
+      <c r="F80" s="43" t="s">
         <v>1</v>
       </c>
       <c r="G80" s="21" t="s">
@@ -21717,12 +21726,12 @@
       <c r="IV80" s="8"/>
     </row>
     <row r="81" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="44"/>
-      <c r="B81" s="41"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
-      <c r="F81" s="41"/>
+      <c r="A81" s="50"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
       <c r="G81" s="23" t="s">
         <v>30</v>
       </c>
@@ -22557,22 +22566,22 @@
       <c r="IV83" s="8"/>
     </row>
     <row r="84" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="40">
+      <c r="B84" s="43">
         <v>2017</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C84" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D84" s="40" t="s">
+      <c r="D84" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="40" t="s">
+      <c r="F84" s="43" t="s">
         <v>2</v>
       </c>
       <c r="G84" s="28" t="s">
@@ -22841,12 +22850,12 @@
       <c r="IV84" s="8"/>
     </row>
     <row r="85" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="44"/>
-      <c r="B85" s="41"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41"/>
+      <c r="A85" s="50"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
       <c r="G85" s="28" t="s">
         <v>30</v>
       </c>
@@ -24817,22 +24826,22 @@
       <c r="IV91" s="8"/>
     </row>
     <row r="92" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="B92" s="42">
+      <c r="B92" s="51">
         <v>2018</v>
       </c>
-      <c r="C92" s="42" t="s">
+      <c r="C92" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D92" s="42" t="s">
+      <c r="D92" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="42" t="s">
+      <c r="E92" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="F92" s="42" t="s">
+      <c r="F92" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G92" s="21" t="s">
@@ -25101,12 +25110,12 @@
       <c r="IV92" s="8"/>
     </row>
     <row r="93" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="61"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
       <c r="G93" s="28" t="s">
         <v>47</v>
       </c>
@@ -25941,17 +25950,17 @@
       <c r="IV95" s="8"/>
     </row>
     <row r="96" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="18" t="s">
-        <v>96</v>
+      <c r="A96" s="66" t="s">
+        <v>165</v>
       </c>
       <c r="B96" s="19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C96" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E96" s="19" t="s">
         <v>8</v>
@@ -25966,7 +25975,7 @@
         <v>16</v>
       </c>
       <c r="I96" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J96" s="19" t="s">
         <v>126</v>
@@ -25974,274 +25983,274 @@
       <c r="K96" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L96" s="19" t="s">
-        <v>18</v>
+      <c r="L96" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="M96" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
-      <c r="S96" s="8"/>
-      <c r="T96" s="8"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
-      <c r="X96" s="8"/>
-      <c r="Y96" s="8"/>
-      <c r="Z96" s="8"/>
-      <c r="AA96" s="8"/>
-      <c r="AB96" s="8"/>
-      <c r="AC96" s="8"/>
-      <c r="AD96" s="8"/>
-      <c r="AE96" s="8"/>
-      <c r="AF96" s="8"/>
-      <c r="AG96" s="8"/>
-      <c r="AH96" s="8"/>
-      <c r="AI96" s="8"/>
-      <c r="AJ96" s="8"/>
-      <c r="AK96" s="8"/>
-      <c r="AL96" s="8"/>
-      <c r="AM96" s="8"/>
-      <c r="AN96" s="8"/>
-      <c r="AO96" s="8"/>
-      <c r="AP96" s="8"/>
-      <c r="AQ96" s="8"/>
-      <c r="AR96" s="8"/>
-      <c r="AS96" s="8"/>
-      <c r="AT96" s="8"/>
-      <c r="AU96" s="8"/>
-      <c r="AV96" s="8"/>
-      <c r="AW96" s="8"/>
-      <c r="AX96" s="8"/>
-      <c r="AY96" s="8"/>
-      <c r="AZ96" s="8"/>
-      <c r="BA96" s="8"/>
-      <c r="BB96" s="8"/>
-      <c r="BC96" s="8"/>
-      <c r="BD96" s="8"/>
-      <c r="BE96" s="8"/>
-      <c r="BF96" s="8"/>
-      <c r="BG96" s="8"/>
-      <c r="BH96" s="8"/>
-      <c r="BI96" s="8"/>
-      <c r="BJ96" s="8"/>
-      <c r="BK96" s="8"/>
-      <c r="BL96" s="8"/>
-      <c r="BM96" s="8"/>
-      <c r="BN96" s="8"/>
-      <c r="BO96" s="8"/>
-      <c r="BP96" s="8"/>
-      <c r="BQ96" s="8"/>
-      <c r="BR96" s="8"/>
-      <c r="BS96" s="8"/>
-      <c r="BT96" s="8"/>
-      <c r="BU96" s="8"/>
-      <c r="BV96" s="8"/>
-      <c r="BW96" s="8"/>
-      <c r="BX96" s="8"/>
-      <c r="BY96" s="8"/>
-      <c r="BZ96" s="8"/>
-      <c r="CA96" s="8"/>
-      <c r="CB96" s="8"/>
-      <c r="CC96" s="8"/>
-      <c r="CD96" s="8"/>
-      <c r="CE96" s="8"/>
-      <c r="CF96" s="8"/>
-      <c r="CG96" s="8"/>
-      <c r="CH96" s="8"/>
-      <c r="CI96" s="8"/>
-      <c r="CJ96" s="8"/>
-      <c r="CK96" s="8"/>
-      <c r="CL96" s="8"/>
-      <c r="CM96" s="8"/>
-      <c r="CN96" s="8"/>
-      <c r="CO96" s="8"/>
-      <c r="CP96" s="8"/>
-      <c r="CQ96" s="8"/>
-      <c r="CR96" s="8"/>
-      <c r="CS96" s="8"/>
-      <c r="CT96" s="8"/>
-      <c r="CU96" s="8"/>
-      <c r="CV96" s="8"/>
-      <c r="CW96" s="8"/>
-      <c r="CX96" s="8"/>
-      <c r="CY96" s="8"/>
-      <c r="CZ96" s="8"/>
-      <c r="DA96" s="8"/>
-      <c r="DB96" s="8"/>
-      <c r="DC96" s="8"/>
-      <c r="DD96" s="8"/>
-      <c r="DE96" s="8"/>
-      <c r="DF96" s="8"/>
-      <c r="DG96" s="8"/>
-      <c r="DH96" s="8"/>
-      <c r="DI96" s="8"/>
-      <c r="DJ96" s="8"/>
-      <c r="DK96" s="8"/>
-      <c r="DL96" s="8"/>
-      <c r="DM96" s="8"/>
-      <c r="DN96" s="8"/>
-      <c r="DO96" s="8"/>
-      <c r="DP96" s="8"/>
-      <c r="DQ96" s="8"/>
-      <c r="DR96" s="8"/>
-      <c r="DS96" s="8"/>
-      <c r="DT96" s="8"/>
-      <c r="DU96" s="8"/>
-      <c r="DV96" s="8"/>
-      <c r="DW96" s="8"/>
-      <c r="DX96" s="8"/>
-      <c r="DY96" s="8"/>
-      <c r="DZ96" s="8"/>
-      <c r="EA96" s="8"/>
-      <c r="EB96" s="8"/>
-      <c r="EC96" s="8"/>
-      <c r="ED96" s="8"/>
-      <c r="EE96" s="8"/>
-      <c r="EF96" s="8"/>
-      <c r="EG96" s="8"/>
-      <c r="EH96" s="8"/>
-      <c r="EI96" s="8"/>
-      <c r="EJ96" s="8"/>
-      <c r="EK96" s="8"/>
-      <c r="EL96" s="8"/>
-      <c r="EM96" s="8"/>
-      <c r="EN96" s="8"/>
-      <c r="EO96" s="8"/>
-      <c r="EP96" s="8"/>
-      <c r="EQ96" s="8"/>
-      <c r="ER96" s="8"/>
-      <c r="ES96" s="8"/>
-      <c r="ET96" s="8"/>
-      <c r="EU96" s="8"/>
-      <c r="EV96" s="8"/>
-      <c r="EW96" s="8"/>
-      <c r="EX96" s="8"/>
-      <c r="EY96" s="8"/>
-      <c r="EZ96" s="8"/>
-      <c r="FA96" s="8"/>
-      <c r="FB96" s="8"/>
-      <c r="FC96" s="8"/>
-      <c r="FD96" s="8"/>
-      <c r="FE96" s="8"/>
-      <c r="FF96" s="8"/>
-      <c r="FG96" s="8"/>
-      <c r="FH96" s="8"/>
-      <c r="FI96" s="8"/>
-      <c r="FJ96" s="8"/>
-      <c r="FK96" s="8"/>
-      <c r="FL96" s="8"/>
-      <c r="FM96" s="8"/>
-      <c r="FN96" s="8"/>
-      <c r="FO96" s="8"/>
-      <c r="FP96" s="8"/>
-      <c r="FQ96" s="8"/>
-      <c r="FR96" s="8"/>
-      <c r="FS96" s="8"/>
-      <c r="FT96" s="8"/>
-      <c r="FU96" s="8"/>
-      <c r="FV96" s="8"/>
-      <c r="FW96" s="8"/>
-      <c r="FX96" s="8"/>
-      <c r="FY96" s="8"/>
-      <c r="FZ96" s="8"/>
-      <c r="GA96" s="8"/>
-      <c r="GB96" s="8"/>
-      <c r="GC96" s="8"/>
-      <c r="GD96" s="8"/>
-      <c r="GE96" s="8"/>
-      <c r="GF96" s="8"/>
-      <c r="GG96" s="8"/>
-      <c r="GH96" s="8"/>
-      <c r="GI96" s="8"/>
-      <c r="GJ96" s="8"/>
-      <c r="GK96" s="8"/>
-      <c r="GL96" s="8"/>
-      <c r="GM96" s="8"/>
-      <c r="GN96" s="8"/>
-      <c r="GO96" s="8"/>
-      <c r="GP96" s="8"/>
-      <c r="GQ96" s="8"/>
-      <c r="GR96" s="8"/>
-      <c r="GS96" s="8"/>
-      <c r="GT96" s="8"/>
-      <c r="GU96" s="8"/>
-      <c r="GV96" s="8"/>
-      <c r="GW96" s="8"/>
-      <c r="GX96" s="8"/>
-      <c r="GY96" s="8"/>
-      <c r="GZ96" s="8"/>
-      <c r="HA96" s="8"/>
-      <c r="HB96" s="8"/>
-      <c r="HC96" s="8"/>
-      <c r="HD96" s="8"/>
-      <c r="HE96" s="8"/>
-      <c r="HF96" s="8"/>
-      <c r="HG96" s="8"/>
-      <c r="HH96" s="8"/>
-      <c r="HI96" s="8"/>
-      <c r="HJ96" s="8"/>
-      <c r="HK96" s="8"/>
-      <c r="HL96" s="8"/>
-      <c r="HM96" s="8"/>
-      <c r="HN96" s="8"/>
-      <c r="HO96" s="8"/>
-      <c r="HP96" s="8"/>
-      <c r="HQ96" s="8"/>
-      <c r="HR96" s="8"/>
-      <c r="HS96" s="8"/>
-      <c r="HT96" s="8"/>
-      <c r="HU96" s="8"/>
-      <c r="HV96" s="8"/>
-      <c r="HW96" s="8"/>
-      <c r="HX96" s="8"/>
-      <c r="HY96" s="8"/>
-      <c r="HZ96" s="8"/>
-      <c r="IA96" s="8"/>
-      <c r="IB96" s="8"/>
-      <c r="IC96" s="8"/>
-      <c r="ID96" s="8"/>
-      <c r="IE96" s="8"/>
-      <c r="IF96" s="8"/>
-      <c r="IG96" s="8"/>
-      <c r="IH96" s="8"/>
-      <c r="II96" s="8"/>
-      <c r="IJ96" s="8"/>
-      <c r="IK96" s="8"/>
-      <c r="IL96" s="8"/>
-      <c r="IM96" s="8"/>
-      <c r="IN96" s="8"/>
-      <c r="IO96" s="8"/>
-      <c r="IP96" s="8"/>
-      <c r="IQ96" s="8"/>
-      <c r="IR96" s="8"/>
-      <c r="IS96" s="8"/>
-      <c r="IT96" s="8"/>
-      <c r="IU96" s="8"/>
-      <c r="IV96" s="8"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="40"/>
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="40"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="40"/>
+      <c r="U96" s="40"/>
+      <c r="V96" s="40"/>
+      <c r="W96" s="40"/>
+      <c r="X96" s="40"/>
+      <c r="Y96" s="40"/>
+      <c r="Z96" s="40"/>
+      <c r="AA96" s="40"/>
+      <c r="AB96" s="40"/>
+      <c r="AC96" s="40"/>
+      <c r="AD96" s="40"/>
+      <c r="AE96" s="40"/>
+      <c r="AF96" s="40"/>
+      <c r="AG96" s="40"/>
+      <c r="AH96" s="40"/>
+      <c r="AI96" s="40"/>
+      <c r="AJ96" s="40"/>
+      <c r="AK96" s="40"/>
+      <c r="AL96" s="40"/>
+      <c r="AM96" s="40"/>
+      <c r="AN96" s="40"/>
+      <c r="AO96" s="40"/>
+      <c r="AP96" s="40"/>
+      <c r="AQ96" s="40"/>
+      <c r="AR96" s="40"/>
+      <c r="AS96" s="40"/>
+      <c r="AT96" s="40"/>
+      <c r="AU96" s="40"/>
+      <c r="AV96" s="40"/>
+      <c r="AW96" s="40"/>
+      <c r="AX96" s="40"/>
+      <c r="AY96" s="40"/>
+      <c r="AZ96" s="40"/>
+      <c r="BA96" s="40"/>
+      <c r="BB96" s="40"/>
+      <c r="BC96" s="40"/>
+      <c r="BD96" s="40"/>
+      <c r="BE96" s="40"/>
+      <c r="BF96" s="40"/>
+      <c r="BG96" s="40"/>
+      <c r="BH96" s="40"/>
+      <c r="BI96" s="40"/>
+      <c r="BJ96" s="40"/>
+      <c r="BK96" s="40"/>
+      <c r="BL96" s="40"/>
+      <c r="BM96" s="40"/>
+      <c r="BN96" s="40"/>
+      <c r="BO96" s="40"/>
+      <c r="BP96" s="40"/>
+      <c r="BQ96" s="40"/>
+      <c r="BR96" s="40"/>
+      <c r="BS96" s="40"/>
+      <c r="BT96" s="40"/>
+      <c r="BU96" s="40"/>
+      <c r="BV96" s="40"/>
+      <c r="BW96" s="40"/>
+      <c r="BX96" s="40"/>
+      <c r="BY96" s="40"/>
+      <c r="BZ96" s="40"/>
+      <c r="CA96" s="40"/>
+      <c r="CB96" s="40"/>
+      <c r="CC96" s="40"/>
+      <c r="CD96" s="40"/>
+      <c r="CE96" s="40"/>
+      <c r="CF96" s="40"/>
+      <c r="CG96" s="40"/>
+      <c r="CH96" s="40"/>
+      <c r="CI96" s="40"/>
+      <c r="CJ96" s="40"/>
+      <c r="CK96" s="40"/>
+      <c r="CL96" s="40"/>
+      <c r="CM96" s="40"/>
+      <c r="CN96" s="40"/>
+      <c r="CO96" s="40"/>
+      <c r="CP96" s="40"/>
+      <c r="CQ96" s="40"/>
+      <c r="CR96" s="40"/>
+      <c r="CS96" s="40"/>
+      <c r="CT96" s="40"/>
+      <c r="CU96" s="40"/>
+      <c r="CV96" s="40"/>
+      <c r="CW96" s="40"/>
+      <c r="CX96" s="40"/>
+      <c r="CY96" s="40"/>
+      <c r="CZ96" s="40"/>
+      <c r="DA96" s="40"/>
+      <c r="DB96" s="40"/>
+      <c r="DC96" s="40"/>
+      <c r="DD96" s="40"/>
+      <c r="DE96" s="40"/>
+      <c r="DF96" s="40"/>
+      <c r="DG96" s="40"/>
+      <c r="DH96" s="40"/>
+      <c r="DI96" s="40"/>
+      <c r="DJ96" s="40"/>
+      <c r="DK96" s="40"/>
+      <c r="DL96" s="40"/>
+      <c r="DM96" s="40"/>
+      <c r="DN96" s="40"/>
+      <c r="DO96" s="40"/>
+      <c r="DP96" s="40"/>
+      <c r="DQ96" s="40"/>
+      <c r="DR96" s="40"/>
+      <c r="DS96" s="40"/>
+      <c r="DT96" s="40"/>
+      <c r="DU96" s="40"/>
+      <c r="DV96" s="40"/>
+      <c r="DW96" s="40"/>
+      <c r="DX96" s="40"/>
+      <c r="DY96" s="40"/>
+      <c r="DZ96" s="40"/>
+      <c r="EA96" s="40"/>
+      <c r="EB96" s="40"/>
+      <c r="EC96" s="40"/>
+      <c r="ED96" s="40"/>
+      <c r="EE96" s="40"/>
+      <c r="EF96" s="40"/>
+      <c r="EG96" s="40"/>
+      <c r="EH96" s="40"/>
+      <c r="EI96" s="40"/>
+      <c r="EJ96" s="40"/>
+      <c r="EK96" s="40"/>
+      <c r="EL96" s="40"/>
+      <c r="EM96" s="40"/>
+      <c r="EN96" s="40"/>
+      <c r="EO96" s="40"/>
+      <c r="EP96" s="40"/>
+      <c r="EQ96" s="40"/>
+      <c r="ER96" s="40"/>
+      <c r="ES96" s="40"/>
+      <c r="ET96" s="40"/>
+      <c r="EU96" s="40"/>
+      <c r="EV96" s="40"/>
+      <c r="EW96" s="40"/>
+      <c r="EX96" s="40"/>
+      <c r="EY96" s="40"/>
+      <c r="EZ96" s="40"/>
+      <c r="FA96" s="40"/>
+      <c r="FB96" s="40"/>
+      <c r="FC96" s="40"/>
+      <c r="FD96" s="40"/>
+      <c r="FE96" s="40"/>
+      <c r="FF96" s="40"/>
+      <c r="FG96" s="40"/>
+      <c r="FH96" s="40"/>
+      <c r="FI96" s="40"/>
+      <c r="FJ96" s="40"/>
+      <c r="FK96" s="40"/>
+      <c r="FL96" s="40"/>
+      <c r="FM96" s="40"/>
+      <c r="FN96" s="40"/>
+      <c r="FO96" s="40"/>
+      <c r="FP96" s="40"/>
+      <c r="FQ96" s="40"/>
+      <c r="FR96" s="40"/>
+      <c r="FS96" s="40"/>
+      <c r="FT96" s="40"/>
+      <c r="FU96" s="40"/>
+      <c r="FV96" s="40"/>
+      <c r="FW96" s="40"/>
+      <c r="FX96" s="40"/>
+      <c r="FY96" s="40"/>
+      <c r="FZ96" s="40"/>
+      <c r="GA96" s="40"/>
+      <c r="GB96" s="40"/>
+      <c r="GC96" s="40"/>
+      <c r="GD96" s="40"/>
+      <c r="GE96" s="40"/>
+      <c r="GF96" s="40"/>
+      <c r="GG96" s="40"/>
+      <c r="GH96" s="40"/>
+      <c r="GI96" s="40"/>
+      <c r="GJ96" s="40"/>
+      <c r="GK96" s="40"/>
+      <c r="GL96" s="40"/>
+      <c r="GM96" s="40"/>
+      <c r="GN96" s="40"/>
+      <c r="GO96" s="40"/>
+      <c r="GP96" s="40"/>
+      <c r="GQ96" s="40"/>
+      <c r="GR96" s="40"/>
+      <c r="GS96" s="40"/>
+      <c r="GT96" s="40"/>
+      <c r="GU96" s="40"/>
+      <c r="GV96" s="40"/>
+      <c r="GW96" s="40"/>
+      <c r="GX96" s="40"/>
+      <c r="GY96" s="40"/>
+      <c r="GZ96" s="40"/>
+      <c r="HA96" s="40"/>
+      <c r="HB96" s="40"/>
+      <c r="HC96" s="40"/>
+      <c r="HD96" s="40"/>
+      <c r="HE96" s="40"/>
+      <c r="HF96" s="40"/>
+      <c r="HG96" s="40"/>
+      <c r="HH96" s="40"/>
+      <c r="HI96" s="40"/>
+      <c r="HJ96" s="40"/>
+      <c r="HK96" s="40"/>
+      <c r="HL96" s="40"/>
+      <c r="HM96" s="40"/>
+      <c r="HN96" s="40"/>
+      <c r="HO96" s="40"/>
+      <c r="HP96" s="40"/>
+      <c r="HQ96" s="40"/>
+      <c r="HR96" s="40"/>
+      <c r="HS96" s="40"/>
+      <c r="HT96" s="40"/>
+      <c r="HU96" s="40"/>
+      <c r="HV96" s="40"/>
+      <c r="HW96" s="40"/>
+      <c r="HX96" s="40"/>
+      <c r="HY96" s="40"/>
+      <c r="HZ96" s="40"/>
+      <c r="IA96" s="40"/>
+      <c r="IB96" s="40"/>
+      <c r="IC96" s="40"/>
+      <c r="ID96" s="40"/>
+      <c r="IE96" s="40"/>
+      <c r="IF96" s="40"/>
+      <c r="IG96" s="40"/>
+      <c r="IH96" s="40"/>
+      <c r="II96" s="40"/>
+      <c r="IJ96" s="40"/>
+      <c r="IK96" s="40"/>
+      <c r="IL96" s="40"/>
+      <c r="IM96" s="40"/>
+      <c r="IN96" s="40"/>
+      <c r="IO96" s="40"/>
+      <c r="IP96" s="40"/>
+      <c r="IQ96" s="40"/>
+      <c r="IR96" s="40"/>
+      <c r="IS96" s="40"/>
+      <c r="IT96" s="40"/>
+      <c r="IU96" s="40"/>
+      <c r="IV96" s="40"/>
     </row>
     <row r="97" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="19">
         <v>2019</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G97" s="20" t="s">
         <v>30</v>
@@ -26250,16 +26259,16 @@
         <v>16</v>
       </c>
       <c r="I97" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J97" s="19" t="s">
         <v>126</v>
       </c>
       <c r="K97" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L97" s="20" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="L97" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="M97" s="19" t="s">
         <v>16</v>
@@ -26508,44 +26517,44 @@
       <c r="IU97" s="8"/>
       <c r="IV97" s="8"/>
     </row>
-    <row r="98" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A98" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" s="42">
+    <row r="98" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="19">
         <v>2019</v>
       </c>
-      <c r="C98" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D98" s="42" t="s">
+      <c r="C98" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E98" s="42" t="s">
+      <c r="E98" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="F98" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G98" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="19">
         <v>8</v>
       </c>
-      <c r="G98" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H98" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I98" s="22">
-        <v>10</v>
-      </c>
-      <c r="J98" s="22" t="s">
+      <c r="J98" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K98" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L98" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="M98" s="22" t="s">
+      <c r="K98" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L98" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M98" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N98" s="8"/>
@@ -26792,45 +26801,298 @@
       <c r="IU98" s="8"/>
       <c r="IV98" s="8"/>
     </row>
-    <row r="99" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="58"/>
-      <c r="B99" s="47"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="28" t="s">
+    <row r="99" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="51">
+        <v>2019</v>
+      </c>
+      <c r="C99" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D99" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="28" t="s">
+      <c r="E99" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H99" s="29" t="s">
+      <c r="H99" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I99" s="29">
+      <c r="I99" s="22">
         <v>10</v>
       </c>
-      <c r="J99" s="29" t="s">
+      <c r="J99" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="K99" s="29" t="s">
+      <c r="K99" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L99" s="28" t="s">
+      <c r="L99" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="M99" s="29" t="s">
+      <c r="M99" s="22" t="s">
         <v>16</v>
       </c>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8"/>
+      <c r="Q99" s="8"/>
+      <c r="R99" s="8"/>
+      <c r="S99" s="8"/>
+      <c r="T99" s="8"/>
+      <c r="U99" s="8"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="8"/>
+      <c r="X99" s="8"/>
+      <c r="Y99" s="8"/>
+      <c r="Z99" s="8"/>
+      <c r="AA99" s="8"/>
+      <c r="AB99" s="8"/>
+      <c r="AC99" s="8"/>
+      <c r="AD99" s="8"/>
+      <c r="AE99" s="8"/>
+      <c r="AF99" s="8"/>
+      <c r="AG99" s="8"/>
+      <c r="AH99" s="8"/>
+      <c r="AI99" s="8"/>
+      <c r="AJ99" s="8"/>
+      <c r="AK99" s="8"/>
+      <c r="AL99" s="8"/>
+      <c r="AM99" s="8"/>
+      <c r="AN99" s="8"/>
+      <c r="AO99" s="8"/>
+      <c r="AP99" s="8"/>
+      <c r="AQ99" s="8"/>
+      <c r="AR99" s="8"/>
+      <c r="AS99" s="8"/>
+      <c r="AT99" s="8"/>
+      <c r="AU99" s="8"/>
+      <c r="AV99" s="8"/>
+      <c r="AW99" s="8"/>
+      <c r="AX99" s="8"/>
+      <c r="AY99" s="8"/>
+      <c r="AZ99" s="8"/>
+      <c r="BA99" s="8"/>
+      <c r="BB99" s="8"/>
+      <c r="BC99" s="8"/>
+      <c r="BD99" s="8"/>
+      <c r="BE99" s="8"/>
+      <c r="BF99" s="8"/>
+      <c r="BG99" s="8"/>
+      <c r="BH99" s="8"/>
+      <c r="BI99" s="8"/>
+      <c r="BJ99" s="8"/>
+      <c r="BK99" s="8"/>
+      <c r="BL99" s="8"/>
+      <c r="BM99" s="8"/>
+      <c r="BN99" s="8"/>
+      <c r="BO99" s="8"/>
+      <c r="BP99" s="8"/>
+      <c r="BQ99" s="8"/>
+      <c r="BR99" s="8"/>
+      <c r="BS99" s="8"/>
+      <c r="BT99" s="8"/>
+      <c r="BU99" s="8"/>
+      <c r="BV99" s="8"/>
+      <c r="BW99" s="8"/>
+      <c r="BX99" s="8"/>
+      <c r="BY99" s="8"/>
+      <c r="BZ99" s="8"/>
+      <c r="CA99" s="8"/>
+      <c r="CB99" s="8"/>
+      <c r="CC99" s="8"/>
+      <c r="CD99" s="8"/>
+      <c r="CE99" s="8"/>
+      <c r="CF99" s="8"/>
+      <c r="CG99" s="8"/>
+      <c r="CH99" s="8"/>
+      <c r="CI99" s="8"/>
+      <c r="CJ99" s="8"/>
+      <c r="CK99" s="8"/>
+      <c r="CL99" s="8"/>
+      <c r="CM99" s="8"/>
+      <c r="CN99" s="8"/>
+      <c r="CO99" s="8"/>
+      <c r="CP99" s="8"/>
+      <c r="CQ99" s="8"/>
+      <c r="CR99" s="8"/>
+      <c r="CS99" s="8"/>
+      <c r="CT99" s="8"/>
+      <c r="CU99" s="8"/>
+      <c r="CV99" s="8"/>
+      <c r="CW99" s="8"/>
+      <c r="CX99" s="8"/>
+      <c r="CY99" s="8"/>
+      <c r="CZ99" s="8"/>
+      <c r="DA99" s="8"/>
+      <c r="DB99" s="8"/>
+      <c r="DC99" s="8"/>
+      <c r="DD99" s="8"/>
+      <c r="DE99" s="8"/>
+      <c r="DF99" s="8"/>
+      <c r="DG99" s="8"/>
+      <c r="DH99" s="8"/>
+      <c r="DI99" s="8"/>
+      <c r="DJ99" s="8"/>
+      <c r="DK99" s="8"/>
+      <c r="DL99" s="8"/>
+      <c r="DM99" s="8"/>
+      <c r="DN99" s="8"/>
+      <c r="DO99" s="8"/>
+      <c r="DP99" s="8"/>
+      <c r="DQ99" s="8"/>
+      <c r="DR99" s="8"/>
+      <c r="DS99" s="8"/>
+      <c r="DT99" s="8"/>
+      <c r="DU99" s="8"/>
+      <c r="DV99" s="8"/>
+      <c r="DW99" s="8"/>
+      <c r="DX99" s="8"/>
+      <c r="DY99" s="8"/>
+      <c r="DZ99" s="8"/>
+      <c r="EA99" s="8"/>
+      <c r="EB99" s="8"/>
+      <c r="EC99" s="8"/>
+      <c r="ED99" s="8"/>
+      <c r="EE99" s="8"/>
+      <c r="EF99" s="8"/>
+      <c r="EG99" s="8"/>
+      <c r="EH99" s="8"/>
+      <c r="EI99" s="8"/>
+      <c r="EJ99" s="8"/>
+      <c r="EK99" s="8"/>
+      <c r="EL99" s="8"/>
+      <c r="EM99" s="8"/>
+      <c r="EN99" s="8"/>
+      <c r="EO99" s="8"/>
+      <c r="EP99" s="8"/>
+      <c r="EQ99" s="8"/>
+      <c r="ER99" s="8"/>
+      <c r="ES99" s="8"/>
+      <c r="ET99" s="8"/>
+      <c r="EU99" s="8"/>
+      <c r="EV99" s="8"/>
+      <c r="EW99" s="8"/>
+      <c r="EX99" s="8"/>
+      <c r="EY99" s="8"/>
+      <c r="EZ99" s="8"/>
+      <c r="FA99" s="8"/>
+      <c r="FB99" s="8"/>
+      <c r="FC99" s="8"/>
+      <c r="FD99" s="8"/>
+      <c r="FE99" s="8"/>
+      <c r="FF99" s="8"/>
+      <c r="FG99" s="8"/>
+      <c r="FH99" s="8"/>
+      <c r="FI99" s="8"/>
+      <c r="FJ99" s="8"/>
+      <c r="FK99" s="8"/>
+      <c r="FL99" s="8"/>
+      <c r="FM99" s="8"/>
+      <c r="FN99" s="8"/>
+      <c r="FO99" s="8"/>
+      <c r="FP99" s="8"/>
+      <c r="FQ99" s="8"/>
+      <c r="FR99" s="8"/>
+      <c r="FS99" s="8"/>
+      <c r="FT99" s="8"/>
+      <c r="FU99" s="8"/>
+      <c r="FV99" s="8"/>
+      <c r="FW99" s="8"/>
+      <c r="FX99" s="8"/>
+      <c r="FY99" s="8"/>
+      <c r="FZ99" s="8"/>
+      <c r="GA99" s="8"/>
+      <c r="GB99" s="8"/>
+      <c r="GC99" s="8"/>
+      <c r="GD99" s="8"/>
+      <c r="GE99" s="8"/>
+      <c r="GF99" s="8"/>
+      <c r="GG99" s="8"/>
+      <c r="GH99" s="8"/>
+      <c r="GI99" s="8"/>
+      <c r="GJ99" s="8"/>
+      <c r="GK99" s="8"/>
+      <c r="GL99" s="8"/>
+      <c r="GM99" s="8"/>
+      <c r="GN99" s="8"/>
+      <c r="GO99" s="8"/>
+      <c r="GP99" s="8"/>
+      <c r="GQ99" s="8"/>
+      <c r="GR99" s="8"/>
+      <c r="GS99" s="8"/>
+      <c r="GT99" s="8"/>
+      <c r="GU99" s="8"/>
+      <c r="GV99" s="8"/>
+      <c r="GW99" s="8"/>
+      <c r="GX99" s="8"/>
+      <c r="GY99" s="8"/>
+      <c r="GZ99" s="8"/>
+      <c r="HA99" s="8"/>
+      <c r="HB99" s="8"/>
+      <c r="HC99" s="8"/>
+      <c r="HD99" s="8"/>
+      <c r="HE99" s="8"/>
+      <c r="HF99" s="8"/>
+      <c r="HG99" s="8"/>
+      <c r="HH99" s="8"/>
+      <c r="HI99" s="8"/>
+      <c r="HJ99" s="8"/>
+      <c r="HK99" s="8"/>
+      <c r="HL99" s="8"/>
+      <c r="HM99" s="8"/>
+      <c r="HN99" s="8"/>
+      <c r="HO99" s="8"/>
+      <c r="HP99" s="8"/>
+      <c r="HQ99" s="8"/>
+      <c r="HR99" s="8"/>
+      <c r="HS99" s="8"/>
+      <c r="HT99" s="8"/>
+      <c r="HU99" s="8"/>
+      <c r="HV99" s="8"/>
+      <c r="HW99" s="8"/>
+      <c r="HX99" s="8"/>
+      <c r="HY99" s="8"/>
+      <c r="HZ99" s="8"/>
+      <c r="IA99" s="8"/>
+      <c r="IB99" s="8"/>
+      <c r="IC99" s="8"/>
+      <c r="ID99" s="8"/>
+      <c r="IE99" s="8"/>
+      <c r="IF99" s="8"/>
+      <c r="IG99" s="8"/>
+      <c r="IH99" s="8"/>
+      <c r="II99" s="8"/>
+      <c r="IJ99" s="8"/>
+      <c r="IK99" s="8"/>
+      <c r="IL99" s="8"/>
+      <c r="IM99" s="8"/>
+      <c r="IN99" s="8"/>
+      <c r="IO99" s="8"/>
+      <c r="IP99" s="8"/>
+      <c r="IQ99" s="8"/>
+      <c r="IR99" s="8"/>
+      <c r="IS99" s="8"/>
+      <c r="IT99" s="8"/>
+      <c r="IU99" s="8"/>
+      <c r="IV99" s="8"/>
     </row>
     <row r="100" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="58"/>
-      <c r="B100" s="47"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
+      <c r="A100" s="60"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
       <c r="F100" s="28" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G100" s="28" t="s">
         <v>30</v>
@@ -26855,11 +27117,11 @@
       </c>
     </row>
     <row r="101" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="58"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="47"/>
+      <c r="A101" s="60"/>
+      <c r="B101" s="55"/>
+      <c r="C101" s="55"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
       <c r="F101" s="28" t="s">
         <v>1</v>
       </c>
@@ -26885,318 +27147,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="59"/>
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="48"/>
-      <c r="F102" s="23" t="s">
+    <row r="102" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="60"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G102" s="23" t="s">
+      <c r="G102" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H102" s="24" t="s">
+      <c r="H102" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I102" s="24">
+      <c r="I102" s="29">
+        <v>10</v>
+      </c>
+      <c r="J102" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K102" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="M102" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="61"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="24">
         <v>15</v>
       </c>
-      <c r="J102" s="23" t="s">
+      <c r="J103" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K102" s="23" t="s">
+      <c r="K103" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="L102" s="23" t="s">
+      <c r="L103" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="M102" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="8"/>
-      <c r="X102" s="8"/>
-      <c r="Y102" s="8"/>
-      <c r="Z102" s="8"/>
-      <c r="AA102" s="8"/>
-      <c r="AB102" s="8"/>
-      <c r="AC102" s="8"/>
-      <c r="AD102" s="8"/>
-      <c r="AE102" s="8"/>
-      <c r="AF102" s="8"/>
-      <c r="AG102" s="8"/>
-      <c r="AH102" s="8"/>
-      <c r="AI102" s="8"/>
-      <c r="AJ102" s="8"/>
-      <c r="AK102" s="8"/>
-      <c r="AL102" s="8"/>
-      <c r="AM102" s="8"/>
-      <c r="AN102" s="8"/>
-      <c r="AO102" s="8"/>
-      <c r="AP102" s="8"/>
-      <c r="AQ102" s="8"/>
-      <c r="AR102" s="8"/>
-      <c r="AS102" s="8"/>
-      <c r="AT102" s="8"/>
-      <c r="AU102" s="8"/>
-      <c r="AV102" s="8"/>
-      <c r="AW102" s="8"/>
-      <c r="AX102" s="8"/>
-      <c r="AY102" s="8"/>
-      <c r="AZ102" s="8"/>
-      <c r="BA102" s="8"/>
-      <c r="BB102" s="8"/>
-      <c r="BC102" s="8"/>
-      <c r="BD102" s="8"/>
-      <c r="BE102" s="8"/>
-      <c r="BF102" s="8"/>
-      <c r="BG102" s="8"/>
-      <c r="BH102" s="8"/>
-      <c r="BI102" s="8"/>
-      <c r="BJ102" s="8"/>
-      <c r="BK102" s="8"/>
-      <c r="BL102" s="8"/>
-      <c r="BM102" s="8"/>
-      <c r="BN102" s="8"/>
-      <c r="BO102" s="8"/>
-      <c r="BP102" s="8"/>
-      <c r="BQ102" s="8"/>
-      <c r="BR102" s="8"/>
-      <c r="BS102" s="8"/>
-      <c r="BT102" s="8"/>
-      <c r="BU102" s="8"/>
-      <c r="BV102" s="8"/>
-      <c r="BW102" s="8"/>
-      <c r="BX102" s="8"/>
-      <c r="BY102" s="8"/>
-      <c r="BZ102" s="8"/>
-      <c r="CA102" s="8"/>
-      <c r="CB102" s="8"/>
-      <c r="CC102" s="8"/>
-      <c r="CD102" s="8"/>
-      <c r="CE102" s="8"/>
-      <c r="CF102" s="8"/>
-      <c r="CG102" s="8"/>
-      <c r="CH102" s="8"/>
-      <c r="CI102" s="8"/>
-      <c r="CJ102" s="8"/>
-      <c r="CK102" s="8"/>
-      <c r="CL102" s="8"/>
-      <c r="CM102" s="8"/>
-      <c r="CN102" s="8"/>
-      <c r="CO102" s="8"/>
-      <c r="CP102" s="8"/>
-      <c r="CQ102" s="8"/>
-      <c r="CR102" s="8"/>
-      <c r="CS102" s="8"/>
-      <c r="CT102" s="8"/>
-      <c r="CU102" s="8"/>
-      <c r="CV102" s="8"/>
-      <c r="CW102" s="8"/>
-      <c r="CX102" s="8"/>
-      <c r="CY102" s="8"/>
-      <c r="CZ102" s="8"/>
-      <c r="DA102" s="8"/>
-      <c r="DB102" s="8"/>
-      <c r="DC102" s="8"/>
-      <c r="DD102" s="8"/>
-      <c r="DE102" s="8"/>
-      <c r="DF102" s="8"/>
-      <c r="DG102" s="8"/>
-      <c r="DH102" s="8"/>
-      <c r="DI102" s="8"/>
-      <c r="DJ102" s="8"/>
-      <c r="DK102" s="8"/>
-      <c r="DL102" s="8"/>
-      <c r="DM102" s="8"/>
-      <c r="DN102" s="8"/>
-      <c r="DO102" s="8"/>
-      <c r="DP102" s="8"/>
-      <c r="DQ102" s="8"/>
-      <c r="DR102" s="8"/>
-      <c r="DS102" s="8"/>
-      <c r="DT102" s="8"/>
-      <c r="DU102" s="8"/>
-      <c r="DV102" s="8"/>
-      <c r="DW102" s="8"/>
-      <c r="DX102" s="8"/>
-      <c r="DY102" s="8"/>
-      <c r="DZ102" s="8"/>
-      <c r="EA102" s="8"/>
-      <c r="EB102" s="8"/>
-      <c r="EC102" s="8"/>
-      <c r="ED102" s="8"/>
-      <c r="EE102" s="8"/>
-      <c r="EF102" s="8"/>
-      <c r="EG102" s="8"/>
-      <c r="EH102" s="8"/>
-      <c r="EI102" s="8"/>
-      <c r="EJ102" s="8"/>
-      <c r="EK102" s="8"/>
-      <c r="EL102" s="8"/>
-      <c r="EM102" s="8"/>
-      <c r="EN102" s="8"/>
-      <c r="EO102" s="8"/>
-      <c r="EP102" s="8"/>
-      <c r="EQ102" s="8"/>
-      <c r="ER102" s="8"/>
-      <c r="ES102" s="8"/>
-      <c r="ET102" s="8"/>
-      <c r="EU102" s="8"/>
-      <c r="EV102" s="8"/>
-      <c r="EW102" s="8"/>
-      <c r="EX102" s="8"/>
-      <c r="EY102" s="8"/>
-      <c r="EZ102" s="8"/>
-      <c r="FA102" s="8"/>
-      <c r="FB102" s="8"/>
-      <c r="FC102" s="8"/>
-      <c r="FD102" s="8"/>
-      <c r="FE102" s="8"/>
-      <c r="FF102" s="8"/>
-      <c r="FG102" s="8"/>
-      <c r="FH102" s="8"/>
-      <c r="FI102" s="8"/>
-      <c r="FJ102" s="8"/>
-      <c r="FK102" s="8"/>
-      <c r="FL102" s="8"/>
-      <c r="FM102" s="8"/>
-      <c r="FN102" s="8"/>
-      <c r="FO102" s="8"/>
-      <c r="FP102" s="8"/>
-      <c r="FQ102" s="8"/>
-      <c r="FR102" s="8"/>
-      <c r="FS102" s="8"/>
-      <c r="FT102" s="8"/>
-      <c r="FU102" s="8"/>
-      <c r="FV102" s="8"/>
-      <c r="FW102" s="8"/>
-      <c r="FX102" s="8"/>
-      <c r="FY102" s="8"/>
-      <c r="FZ102" s="8"/>
-      <c r="GA102" s="8"/>
-      <c r="GB102" s="8"/>
-      <c r="GC102" s="8"/>
-      <c r="GD102" s="8"/>
-      <c r="GE102" s="8"/>
-      <c r="GF102" s="8"/>
-      <c r="GG102" s="8"/>
-      <c r="GH102" s="8"/>
-      <c r="GI102" s="8"/>
-      <c r="GJ102" s="8"/>
-      <c r="GK102" s="8"/>
-      <c r="GL102" s="8"/>
-      <c r="GM102" s="8"/>
-      <c r="GN102" s="8"/>
-      <c r="GO102" s="8"/>
-      <c r="GP102" s="8"/>
-      <c r="GQ102" s="8"/>
-      <c r="GR102" s="8"/>
-      <c r="GS102" s="8"/>
-      <c r="GT102" s="8"/>
-      <c r="GU102" s="8"/>
-      <c r="GV102" s="8"/>
-      <c r="GW102" s="8"/>
-      <c r="GX102" s="8"/>
-      <c r="GY102" s="8"/>
-      <c r="GZ102" s="8"/>
-      <c r="HA102" s="8"/>
-      <c r="HB102" s="8"/>
-      <c r="HC102" s="8"/>
-      <c r="HD102" s="8"/>
-      <c r="HE102" s="8"/>
-      <c r="HF102" s="8"/>
-      <c r="HG102" s="8"/>
-      <c r="HH102" s="8"/>
-      <c r="HI102" s="8"/>
-      <c r="HJ102" s="8"/>
-      <c r="HK102" s="8"/>
-      <c r="HL102" s="8"/>
-      <c r="HM102" s="8"/>
-      <c r="HN102" s="8"/>
-      <c r="HO102" s="8"/>
-      <c r="HP102" s="8"/>
-      <c r="HQ102" s="8"/>
-      <c r="HR102" s="8"/>
-      <c r="HS102" s="8"/>
-      <c r="HT102" s="8"/>
-      <c r="HU102" s="8"/>
-      <c r="HV102" s="8"/>
-      <c r="HW102" s="8"/>
-      <c r="HX102" s="8"/>
-      <c r="HY102" s="8"/>
-      <c r="HZ102" s="8"/>
-      <c r="IA102" s="8"/>
-      <c r="IB102" s="8"/>
-      <c r="IC102" s="8"/>
-      <c r="ID102" s="8"/>
-      <c r="IE102" s="8"/>
-      <c r="IF102" s="8"/>
-      <c r="IG102" s="8"/>
-      <c r="IH102" s="8"/>
-      <c r="II102" s="8"/>
-      <c r="IJ102" s="8"/>
-      <c r="IK102" s="8"/>
-      <c r="IL102" s="8"/>
-      <c r="IM102" s="8"/>
-      <c r="IN102" s="8"/>
-      <c r="IO102" s="8"/>
-      <c r="IP102" s="8"/>
-      <c r="IQ102" s="8"/>
-      <c r="IR102" s="8"/>
-      <c r="IS102" s="8"/>
-      <c r="IT102" s="8"/>
-      <c r="IU102" s="8"/>
-      <c r="IV102" s="8"/>
-    </row>
-    <row r="103" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="B103" s="40">
-        <v>2019</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D103" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F103" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G103" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H103" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I103" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J103" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K103" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L103" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M103" s="29" t="s">
+      <c r="M103" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N103" s="8"/>
@@ -27444,34 +27453,44 @@
       <c r="IV103" s="8"/>
     </row>
     <row r="104" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="44"/>
-      <c r="B104" s="41"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H104" s="24" t="s">
+      <c r="A104" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="43">
+        <v>2019</v>
+      </c>
+      <c r="C104" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H104" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I104" s="24">
-        <v>1</v>
-      </c>
-      <c r="J104" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="K104" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="L104" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M104" s="24" t="s">
-        <v>17</v>
+      <c r="I104" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K104" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M104" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
@@ -27718,44 +27737,34 @@
       <c r="IV104" s="8"/>
     </row>
     <row r="105" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C105" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D105" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="19" t="s">
+      <c r="A105" s="50"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G105" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H105" s="19" t="s">
+      <c r="G105" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I105" s="19">
-        <v>4</v>
-      </c>
-      <c r="J105" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="K105" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L105" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M105" s="19" t="s">
-        <v>16</v>
+      <c r="I105" s="24">
+        <v>1</v>
+      </c>
+      <c r="J105" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K105" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="L105" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="M105" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
@@ -28001,44 +28010,44 @@
       <c r="IU105" s="8"/>
       <c r="IV105" s="8"/>
     </row>
-    <row r="106" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="22">
+    <row r="106" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="19">
         <v>2019</v>
       </c>
-      <c r="C106" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D106" s="22" t="s">
+      <c r="C106" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E106" s="22" t="s">
+      <c r="E106" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F106" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H106" s="22" t="s">
+      <c r="F106" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H106" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I106" s="22">
-        <v>30</v>
-      </c>
-      <c r="J106" s="22" t="s">
+      <c r="I106" s="19">
+        <v>4</v>
+      </c>
+      <c r="J106" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K106" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="L106" s="21" t="s">
+      <c r="K106" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L106" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M106" s="22" t="s">
+      <c r="M106" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N106" s="8"/>
@@ -28285,44 +28294,44 @@
       <c r="IU106" s="8"/>
       <c r="IV106" s="8"/>
     </row>
-    <row r="107" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" s="19">
+    <row r="107" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" s="22">
         <v>2019</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D107" s="19" t="s">
+      <c r="D107" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="19" t="s">
+      <c r="E107" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F107" s="19" t="s">
+      <c r="F107" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="20" t="s">
+      <c r="G107" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H107" s="19" t="s">
+      <c r="H107" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="19">
-        <v>10</v>
-      </c>
-      <c r="J107" s="19" t="s">
+      <c r="I107" s="22">
+        <v>30</v>
+      </c>
+      <c r="J107" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="K107" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L107" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M107" s="19" t="s">
+      <c r="K107" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="L107" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" s="22" t="s">
         <v>16</v>
       </c>
       <c r="N107" s="8"/>
@@ -28571,13 +28580,13 @@
     </row>
     <row r="108" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B108" s="19">
         <v>2019</v>
       </c>
-      <c r="C108" s="19" t="s">
-        <v>56</v>
+      <c r="C108" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="D108" s="19" t="s">
         <v>8</v>
@@ -28589,22 +28598,22 @@
         <v>8</v>
       </c>
       <c r="G108" s="20" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H108" s="19" t="s">
         <v>16</v>
       </c>
       <c r="I108" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J108" s="19" t="s">
         <v>126</v>
       </c>
       <c r="K108" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L108" s="20" t="s">
-        <v>111</v>
+        <v>7</v>
+      </c>
+      <c r="L108" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="M108" s="19" t="s">
         <v>16</v>
@@ -28853,7 +28862,46 @@
       <c r="IU108" s="8"/>
       <c r="IV108" s="8"/>
     </row>
-    <row r="109" spans="1:256" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="19">
+        <v>2019</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="19">
+        <v>5</v>
+      </c>
+      <c r="J109" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K109" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M109" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
@@ -30323,8 +30371,360 @@
       <c r="IU114" s="8"/>
       <c r="IV114" s="8"/>
     </row>
+    <row r="115" spans="14:256" x14ac:dyDescent="0.35">
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8"/>
+      <c r="Q115" s="8"/>
+      <c r="R115" s="8"/>
+      <c r="S115" s="8"/>
+      <c r="T115" s="8"/>
+      <c r="U115" s="8"/>
+      <c r="V115" s="8"/>
+      <c r="W115" s="8"/>
+      <c r="X115" s="8"/>
+      <c r="Y115" s="8"/>
+      <c r="Z115" s="8"/>
+      <c r="AA115" s="8"/>
+      <c r="AB115" s="8"/>
+      <c r="AC115" s="8"/>
+      <c r="AD115" s="8"/>
+      <c r="AE115" s="8"/>
+      <c r="AF115" s="8"/>
+      <c r="AG115" s="8"/>
+      <c r="AH115" s="8"/>
+      <c r="AI115" s="8"/>
+      <c r="AJ115" s="8"/>
+      <c r="AK115" s="8"/>
+      <c r="AL115" s="8"/>
+      <c r="AM115" s="8"/>
+      <c r="AN115" s="8"/>
+      <c r="AO115" s="8"/>
+      <c r="AP115" s="8"/>
+      <c r="AQ115" s="8"/>
+      <c r="AR115" s="8"/>
+      <c r="AS115" s="8"/>
+      <c r="AT115" s="8"/>
+      <c r="AU115" s="8"/>
+      <c r="AV115" s="8"/>
+      <c r="AW115" s="8"/>
+      <c r="AX115" s="8"/>
+      <c r="AY115" s="8"/>
+      <c r="AZ115" s="8"/>
+      <c r="BA115" s="8"/>
+      <c r="BB115" s="8"/>
+      <c r="BC115" s="8"/>
+      <c r="BD115" s="8"/>
+      <c r="BE115" s="8"/>
+      <c r="BF115" s="8"/>
+      <c r="BG115" s="8"/>
+      <c r="BH115" s="8"/>
+      <c r="BI115" s="8"/>
+      <c r="BJ115" s="8"/>
+      <c r="BK115" s="8"/>
+      <c r="BL115" s="8"/>
+      <c r="BM115" s="8"/>
+      <c r="BN115" s="8"/>
+      <c r="BO115" s="8"/>
+      <c r="BP115" s="8"/>
+      <c r="BQ115" s="8"/>
+      <c r="BR115" s="8"/>
+      <c r="BS115" s="8"/>
+      <c r="BT115" s="8"/>
+      <c r="BU115" s="8"/>
+      <c r="BV115" s="8"/>
+      <c r="BW115" s="8"/>
+      <c r="BX115" s="8"/>
+      <c r="BY115" s="8"/>
+      <c r="BZ115" s="8"/>
+      <c r="CA115" s="8"/>
+      <c r="CB115" s="8"/>
+      <c r="CC115" s="8"/>
+      <c r="CD115" s="8"/>
+      <c r="CE115" s="8"/>
+      <c r="CF115" s="8"/>
+      <c r="CG115" s="8"/>
+      <c r="CH115" s="8"/>
+      <c r="CI115" s="8"/>
+      <c r="CJ115" s="8"/>
+      <c r="CK115" s="8"/>
+      <c r="CL115" s="8"/>
+      <c r="CM115" s="8"/>
+      <c r="CN115" s="8"/>
+      <c r="CO115" s="8"/>
+      <c r="CP115" s="8"/>
+      <c r="CQ115" s="8"/>
+      <c r="CR115" s="8"/>
+      <c r="CS115" s="8"/>
+      <c r="CT115" s="8"/>
+      <c r="CU115" s="8"/>
+      <c r="CV115" s="8"/>
+      <c r="CW115" s="8"/>
+      <c r="CX115" s="8"/>
+      <c r="CY115" s="8"/>
+      <c r="CZ115" s="8"/>
+      <c r="DA115" s="8"/>
+      <c r="DB115" s="8"/>
+      <c r="DC115" s="8"/>
+      <c r="DD115" s="8"/>
+      <c r="DE115" s="8"/>
+      <c r="DF115" s="8"/>
+      <c r="DG115" s="8"/>
+      <c r="DH115" s="8"/>
+      <c r="DI115" s="8"/>
+      <c r="DJ115" s="8"/>
+      <c r="DK115" s="8"/>
+      <c r="DL115" s="8"/>
+      <c r="DM115" s="8"/>
+      <c r="DN115" s="8"/>
+      <c r="DO115" s="8"/>
+      <c r="DP115" s="8"/>
+      <c r="DQ115" s="8"/>
+      <c r="DR115" s="8"/>
+      <c r="DS115" s="8"/>
+      <c r="DT115" s="8"/>
+      <c r="DU115" s="8"/>
+      <c r="DV115" s="8"/>
+      <c r="DW115" s="8"/>
+      <c r="DX115" s="8"/>
+      <c r="DY115" s="8"/>
+      <c r="DZ115" s="8"/>
+      <c r="EA115" s="8"/>
+      <c r="EB115" s="8"/>
+      <c r="EC115" s="8"/>
+      <c r="ED115" s="8"/>
+      <c r="EE115" s="8"/>
+      <c r="EF115" s="8"/>
+      <c r="EG115" s="8"/>
+      <c r="EH115" s="8"/>
+      <c r="EI115" s="8"/>
+      <c r="EJ115" s="8"/>
+      <c r="EK115" s="8"/>
+      <c r="EL115" s="8"/>
+      <c r="EM115" s="8"/>
+      <c r="EN115" s="8"/>
+      <c r="EO115" s="8"/>
+      <c r="EP115" s="8"/>
+      <c r="EQ115" s="8"/>
+      <c r="ER115" s="8"/>
+      <c r="ES115" s="8"/>
+      <c r="ET115" s="8"/>
+      <c r="EU115" s="8"/>
+      <c r="EV115" s="8"/>
+      <c r="EW115" s="8"/>
+      <c r="EX115" s="8"/>
+      <c r="EY115" s="8"/>
+      <c r="EZ115" s="8"/>
+      <c r="FA115" s="8"/>
+      <c r="FB115" s="8"/>
+      <c r="FC115" s="8"/>
+      <c r="FD115" s="8"/>
+      <c r="FE115" s="8"/>
+      <c r="FF115" s="8"/>
+      <c r="FG115" s="8"/>
+      <c r="FH115" s="8"/>
+      <c r="FI115" s="8"/>
+      <c r="FJ115" s="8"/>
+      <c r="FK115" s="8"/>
+      <c r="FL115" s="8"/>
+      <c r="FM115" s="8"/>
+      <c r="FN115" s="8"/>
+      <c r="FO115" s="8"/>
+      <c r="FP115" s="8"/>
+      <c r="FQ115" s="8"/>
+      <c r="FR115" s="8"/>
+      <c r="FS115" s="8"/>
+      <c r="FT115" s="8"/>
+      <c r="FU115" s="8"/>
+      <c r="FV115" s="8"/>
+      <c r="FW115" s="8"/>
+      <c r="FX115" s="8"/>
+      <c r="FY115" s="8"/>
+      <c r="FZ115" s="8"/>
+      <c r="GA115" s="8"/>
+      <c r="GB115" s="8"/>
+      <c r="GC115" s="8"/>
+      <c r="GD115" s="8"/>
+      <c r="GE115" s="8"/>
+      <c r="GF115" s="8"/>
+      <c r="GG115" s="8"/>
+      <c r="GH115" s="8"/>
+      <c r="GI115" s="8"/>
+      <c r="GJ115" s="8"/>
+      <c r="GK115" s="8"/>
+      <c r="GL115" s="8"/>
+      <c r="GM115" s="8"/>
+      <c r="GN115" s="8"/>
+      <c r="GO115" s="8"/>
+      <c r="GP115" s="8"/>
+      <c r="GQ115" s="8"/>
+      <c r="GR115" s="8"/>
+      <c r="GS115" s="8"/>
+      <c r="GT115" s="8"/>
+      <c r="GU115" s="8"/>
+      <c r="GV115" s="8"/>
+      <c r="GW115" s="8"/>
+      <c r="GX115" s="8"/>
+      <c r="GY115" s="8"/>
+      <c r="GZ115" s="8"/>
+      <c r="HA115" s="8"/>
+      <c r="HB115" s="8"/>
+      <c r="HC115" s="8"/>
+      <c r="HD115" s="8"/>
+      <c r="HE115" s="8"/>
+      <c r="HF115" s="8"/>
+      <c r="HG115" s="8"/>
+      <c r="HH115" s="8"/>
+      <c r="HI115" s="8"/>
+      <c r="HJ115" s="8"/>
+      <c r="HK115" s="8"/>
+      <c r="HL115" s="8"/>
+      <c r="HM115" s="8"/>
+      <c r="HN115" s="8"/>
+      <c r="HO115" s="8"/>
+      <c r="HP115" s="8"/>
+      <c r="HQ115" s="8"/>
+      <c r="HR115" s="8"/>
+      <c r="HS115" s="8"/>
+      <c r="HT115" s="8"/>
+      <c r="HU115" s="8"/>
+      <c r="HV115" s="8"/>
+      <c r="HW115" s="8"/>
+      <c r="HX115" s="8"/>
+      <c r="HY115" s="8"/>
+      <c r="HZ115" s="8"/>
+      <c r="IA115" s="8"/>
+      <c r="IB115" s="8"/>
+      <c r="IC115" s="8"/>
+      <c r="ID115" s="8"/>
+      <c r="IE115" s="8"/>
+      <c r="IF115" s="8"/>
+      <c r="IG115" s="8"/>
+      <c r="IH115" s="8"/>
+      <c r="II115" s="8"/>
+      <c r="IJ115" s="8"/>
+      <c r="IK115" s="8"/>
+      <c r="IL115" s="8"/>
+      <c r="IM115" s="8"/>
+      <c r="IN115" s="8"/>
+      <c r="IO115" s="8"/>
+      <c r="IP115" s="8"/>
+      <c r="IQ115" s="8"/>
+      <c r="IR115" s="8"/>
+      <c r="IS115" s="8"/>
+      <c r="IT115" s="8"/>
+      <c r="IU115" s="8"/>
+      <c r="IV115" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="D99:D103"/>
+    <mergeCell ref="C99:C103"/>
+    <mergeCell ref="E99:E103"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -30349,113 +30749,6 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="D98:D102"/>
-    <mergeCell ref="C98:C102"/>
-    <mergeCell ref="E98:E102"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:D104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/gesture_survey.xlsx
+++ b/gesture_survey.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="353" documentId="6_{2D6A7385-186A-4253-B6B3-82E9D76F35F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9BAE93D6-41A3-4AA6-A4EA-546C1CE40C6B}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="6_{2D6A7385-186A-4253-B6B3-82E9D76F35F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5ACBB03B-E4B2-419C-ABCB-66D8FD83405D}"/>
   <bookViews>
-    <workbookView xWindow="-14040" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14760" yWindow="-16380" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="167">
   <si>
     <t>Year</t>
   </si>
@@ -561,6 +561,9 @@
   <si>
     <t>Carfi2018</t>
   </si>
+  <si>
+    <t>Liang2017</t>
+  </si>
 </sst>
 </file>
 
@@ -665,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,16 +790,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -805,44 +841,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -850,20 +856,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C137EE7-01F7-404B-8A91-DA4E4206FC3E}">
-  <dimension ref="A1:IV115"/>
+  <dimension ref="A1:IV116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S96" sqref="S96"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M89" sqref="M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1180,53 +1186,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
       <c r="F1" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="49"/>
+      <c r="I1" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
       <c r="AL1" s="8"/>
       <c r="AM1" s="8"/>
       <c r="AN1" s="8"/>
@@ -2298,22 +2304,22 @@
       <c r="IV4" s="8"/>
     </row>
     <row r="5" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="56">
         <v>2000</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="56" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="21" t="s">
@@ -2582,12 +2588,12 @@
       <c r="IV5" s="8"/>
     </row>
     <row r="6" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="23" t="s">
         <v>30</v>
       </c>
@@ -4558,22 +4564,22 @@
       <c r="IV12" s="12"/>
     </row>
     <row r="13" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="56">
         <v>2004</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="56" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="21" t="s">
@@ -4842,12 +4848,12 @@
       <c r="IV13" s="8"/>
     </row>
     <row r="14" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="50"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="23" t="s">
         <v>30</v>
       </c>
@@ -5682,22 +5688,22 @@
       <c r="IV16" s="8"/>
     </row>
     <row r="17" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="56">
         <v>2006</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="56" t="s">
         <v>1</v>
       </c>
       <c r="G17" s="21" t="s">
@@ -5966,12 +5972,12 @@
       <c r="IV17" s="8"/>
     </row>
     <row r="18" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="23" t="s">
         <v>116</v>
       </c>
@@ -7374,7 +7380,7 @@
       <c r="IV22" s="8"/>
     </row>
     <row r="23" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="46" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="43">
@@ -7658,7 +7664,7 @@
       <c r="IV23" s="8"/>
     </row>
     <row r="24" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
@@ -7930,7 +7936,7 @@
       <c r="IV24" s="10"/>
     </row>
     <row r="25" spans="1:256" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="46" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="43">
@@ -8214,7 +8220,7 @@
       <c r="IV25" s="7"/>
     </row>
     <row r="26" spans="1:256" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="50"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
@@ -9338,7 +9344,7 @@
       <c r="IV29" s="15"/>
     </row>
     <row r="30" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="46" t="s">
         <v>157</v>
       </c>
       <c r="B30" s="43">
@@ -9622,12 +9628,12 @@
       <c r="IV30" s="15"/>
     </row>
     <row r="31" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="63"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="35" t="s">
         <v>30</v>
       </c>
@@ -10746,22 +10752,22 @@
       <c r="IV34" s="8"/>
     </row>
     <row r="35" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="54">
         <v>2012</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="64" t="s">
+      <c r="E35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="64" t="s">
+      <c r="F35" s="54" t="s">
         <v>1</v>
       </c>
       <c r="G35" s="33" t="s">
@@ -11030,12 +11036,12 @@
       <c r="IV35" s="15"/>
     </row>
     <row r="36" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="63"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
       <c r="G36" s="34" t="s">
         <v>116</v>
       </c>
@@ -12438,7 +12444,7 @@
       <c r="IV40" s="8"/>
     </row>
     <row r="41" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="46" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="43">
@@ -12722,11 +12728,11 @@
       <c r="IV41" s="8"/>
     </row>
     <row r="42" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="57"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="29" t="s">
         <v>8</v>
       </c>
@@ -12753,7 +12759,7 @@
       </c>
     </row>
     <row r="43" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="50"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
       <c r="D43" s="44"/>
@@ -13027,7 +13033,7 @@
       <c r="IV43" s="8"/>
     </row>
     <row r="44" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="46" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="43">
@@ -13311,7 +13317,7 @@
       <c r="IV44" s="8"/>
     </row>
     <row r="45" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="50"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
       <c r="D45" s="44"/>
@@ -16467,19 +16473,19 @@
       <c r="A57" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="56">
+      <c r="B57" s="48">
         <v>2015</v>
       </c>
-      <c r="C57" s="56" t="s">
+      <c r="C57" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="56" t="s">
+      <c r="D57" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="56" t="s">
+      <c r="E57" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="56" t="s">
+      <c r="F57" s="48" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="28" t="s">
@@ -16506,11 +16512,11 @@
     </row>
     <row r="58" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="59"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
       <c r="G58" s="28" t="s">
         <v>30</v>
       </c>
@@ -16534,7 +16540,7 @@
       </c>
     </row>
     <row r="59" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="50"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
       <c r="D59" s="44"/>
@@ -17374,7 +17380,7 @@
       <c r="IV61" s="8"/>
     </row>
     <row r="62" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="46" t="s">
         <v>161</v>
       </c>
       <c r="B62" s="43">
@@ -17392,7 +17398,7 @@
       <c r="F62" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G62" s="51" t="s">
+      <c r="G62" s="45" t="s">
         <v>116</v>
       </c>
       <c r="H62" s="43" t="s">
@@ -17407,7 +17413,7 @@
       <c r="K62" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L62" s="51" t="s">
+      <c r="L62" s="45" t="s">
         <v>19</v>
       </c>
       <c r="M62" s="43" t="s">
@@ -17658,7 +17664,7 @@
       <c r="IV62" s="15"/>
     </row>
     <row r="63" spans="1:256" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="50"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="44"/>
       <c r="C63" s="27" t="s">
         <v>67</v>
@@ -18770,7 +18776,7 @@
       <c r="IV66" s="8"/>
     </row>
     <row r="67" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="49" t="s">
+      <c r="A67" s="46" t="s">
         <v>80</v>
       </c>
       <c r="B67" s="43">
@@ -19054,7 +19060,7 @@
       <c r="IV67" s="8"/>
     </row>
     <row r="68" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="50"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
       <c r="D68" s="44"/>
@@ -19326,7 +19332,7 @@
       <c r="IV68" s="8"/>
     </row>
     <row r="69" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="49" t="s">
+      <c r="A69" s="46" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="43">
@@ -19610,7 +19616,7 @@
       <c r="IV69" s="8"/>
     </row>
     <row r="70" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="50"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
       <c r="D70" s="44"/>
@@ -19680,7 +19686,7 @@
       </c>
     </row>
     <row r="72" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="49" t="s">
+      <c r="A72" s="46" t="s">
         <v>83</v>
       </c>
       <c r="B72" s="43">
@@ -19721,7 +19727,7 @@
       </c>
     </row>
     <row r="73" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="50"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
@@ -20318,7 +20324,7 @@
       <c r="IV75" s="8"/>
     </row>
     <row r="76" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="46" t="s">
         <v>88</v>
       </c>
       <c r="B76" s="43">
@@ -20602,7 +20608,7 @@
       <c r="IV76" s="8"/>
     </row>
     <row r="77" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="50"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
       <c r="D77" s="44"/>
@@ -21442,7 +21448,7 @@
       <c r="IV79" s="36"/>
     </row>
     <row r="80" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="46" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="43">
@@ -21726,7 +21732,7 @@
       <c r="IV80" s="8"/>
     </row>
     <row r="81" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="50"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
       <c r="D81" s="44"/>
@@ -22566,7 +22572,7 @@
       <c r="IV83" s="8"/>
     </row>
     <row r="84" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="49" t="s">
+      <c r="A84" s="46" t="s">
         <v>93</v>
       </c>
       <c r="B84" s="43">
@@ -22850,7 +22856,7 @@
       <c r="IV84" s="8"/>
     </row>
     <row r="85" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="50"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
       <c r="D85" s="44"/>
@@ -23974,14 +23980,14 @@
       <c r="IV88" s="8"/>
     </row>
     <row r="89" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="18" t="s">
-        <v>94</v>
+      <c r="A89" s="42" t="s">
+        <v>166</v>
       </c>
       <c r="B89" s="19">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D89" s="19" t="s">
         <v>8</v>
@@ -23993,279 +23999,279 @@
         <v>8</v>
       </c>
       <c r="G89" s="20" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="H89" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I89" s="19">
-        <v>9</v>
+      <c r="I89" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="J89" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="K89" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K89" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L89" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M89" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8"/>
-      <c r="Q89" s="8"/>
-      <c r="R89" s="8"/>
-      <c r="S89" s="8"/>
-      <c r="T89" s="8"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="8"/>
-      <c r="X89" s="8"/>
-      <c r="Y89" s="8"/>
-      <c r="Z89" s="8"/>
-      <c r="AA89" s="8"/>
-      <c r="AB89" s="8"/>
-      <c r="AC89" s="8"/>
-      <c r="AD89" s="8"/>
-      <c r="AE89" s="8"/>
-      <c r="AF89" s="8"/>
-      <c r="AG89" s="8"/>
-      <c r="AH89" s="8"/>
-      <c r="AI89" s="8"/>
-      <c r="AJ89" s="8"/>
-      <c r="AK89" s="8"/>
-      <c r="AL89" s="8"/>
-      <c r="AM89" s="8"/>
-      <c r="AN89" s="8"/>
-      <c r="AO89" s="8"/>
-      <c r="AP89" s="8"/>
-      <c r="AQ89" s="8"/>
-      <c r="AR89" s="8"/>
-      <c r="AS89" s="8"/>
-      <c r="AT89" s="8"/>
-      <c r="AU89" s="8"/>
-      <c r="AV89" s="8"/>
-      <c r="AW89" s="8"/>
-      <c r="AX89" s="8"/>
-      <c r="AY89" s="8"/>
-      <c r="AZ89" s="8"/>
-      <c r="BA89" s="8"/>
-      <c r="BB89" s="8"/>
-      <c r="BC89" s="8"/>
-      <c r="BD89" s="8"/>
-      <c r="BE89" s="8"/>
-      <c r="BF89" s="8"/>
-      <c r="BG89" s="8"/>
-      <c r="BH89" s="8"/>
-      <c r="BI89" s="8"/>
-      <c r="BJ89" s="8"/>
-      <c r="BK89" s="8"/>
-      <c r="BL89" s="8"/>
-      <c r="BM89" s="8"/>
-      <c r="BN89" s="8"/>
-      <c r="BO89" s="8"/>
-      <c r="BP89" s="8"/>
-      <c r="BQ89" s="8"/>
-      <c r="BR89" s="8"/>
-      <c r="BS89" s="8"/>
-      <c r="BT89" s="8"/>
-      <c r="BU89" s="8"/>
-      <c r="BV89" s="8"/>
-      <c r="BW89" s="8"/>
-      <c r="BX89" s="8"/>
-      <c r="BY89" s="8"/>
-      <c r="BZ89" s="8"/>
-      <c r="CA89" s="8"/>
-      <c r="CB89" s="8"/>
-      <c r="CC89" s="8"/>
-      <c r="CD89" s="8"/>
-      <c r="CE89" s="8"/>
-      <c r="CF89" s="8"/>
-      <c r="CG89" s="8"/>
-      <c r="CH89" s="8"/>
-      <c r="CI89" s="8"/>
-      <c r="CJ89" s="8"/>
-      <c r="CK89" s="8"/>
-      <c r="CL89" s="8"/>
-      <c r="CM89" s="8"/>
-      <c r="CN89" s="8"/>
-      <c r="CO89" s="8"/>
-      <c r="CP89" s="8"/>
-      <c r="CQ89" s="8"/>
-      <c r="CR89" s="8"/>
-      <c r="CS89" s="8"/>
-      <c r="CT89" s="8"/>
-      <c r="CU89" s="8"/>
-      <c r="CV89" s="8"/>
-      <c r="CW89" s="8"/>
-      <c r="CX89" s="8"/>
-      <c r="CY89" s="8"/>
-      <c r="CZ89" s="8"/>
-      <c r="DA89" s="8"/>
-      <c r="DB89" s="8"/>
-      <c r="DC89" s="8"/>
-      <c r="DD89" s="8"/>
-      <c r="DE89" s="8"/>
-      <c r="DF89" s="8"/>
-      <c r="DG89" s="8"/>
-      <c r="DH89" s="8"/>
-      <c r="DI89" s="8"/>
-      <c r="DJ89" s="8"/>
-      <c r="DK89" s="8"/>
-      <c r="DL89" s="8"/>
-      <c r="DM89" s="8"/>
-      <c r="DN89" s="8"/>
-      <c r="DO89" s="8"/>
-      <c r="DP89" s="8"/>
-      <c r="DQ89" s="8"/>
-      <c r="DR89" s="8"/>
-      <c r="DS89" s="8"/>
-      <c r="DT89" s="8"/>
-      <c r="DU89" s="8"/>
-      <c r="DV89" s="8"/>
-      <c r="DW89" s="8"/>
-      <c r="DX89" s="8"/>
-      <c r="DY89" s="8"/>
-      <c r="DZ89" s="8"/>
-      <c r="EA89" s="8"/>
-      <c r="EB89" s="8"/>
-      <c r="EC89" s="8"/>
-      <c r="ED89" s="8"/>
-      <c r="EE89" s="8"/>
-      <c r="EF89" s="8"/>
-      <c r="EG89" s="8"/>
-      <c r="EH89" s="8"/>
-      <c r="EI89" s="8"/>
-      <c r="EJ89" s="8"/>
-      <c r="EK89" s="8"/>
-      <c r="EL89" s="8"/>
-      <c r="EM89" s="8"/>
-      <c r="EN89" s="8"/>
-      <c r="EO89" s="8"/>
-      <c r="EP89" s="8"/>
-      <c r="EQ89" s="8"/>
-      <c r="ER89" s="8"/>
-      <c r="ES89" s="8"/>
-      <c r="ET89" s="8"/>
-      <c r="EU89" s="8"/>
-      <c r="EV89" s="8"/>
-      <c r="EW89" s="8"/>
-      <c r="EX89" s="8"/>
-      <c r="EY89" s="8"/>
-      <c r="EZ89" s="8"/>
-      <c r="FA89" s="8"/>
-      <c r="FB89" s="8"/>
-      <c r="FC89" s="8"/>
-      <c r="FD89" s="8"/>
-      <c r="FE89" s="8"/>
-      <c r="FF89" s="8"/>
-      <c r="FG89" s="8"/>
-      <c r="FH89" s="8"/>
-      <c r="FI89" s="8"/>
-      <c r="FJ89" s="8"/>
-      <c r="FK89" s="8"/>
-      <c r="FL89" s="8"/>
-      <c r="FM89" s="8"/>
-      <c r="FN89" s="8"/>
-      <c r="FO89" s="8"/>
-      <c r="FP89" s="8"/>
-      <c r="FQ89" s="8"/>
-      <c r="FR89" s="8"/>
-      <c r="FS89" s="8"/>
-      <c r="FT89" s="8"/>
-      <c r="FU89" s="8"/>
-      <c r="FV89" s="8"/>
-      <c r="FW89" s="8"/>
-      <c r="FX89" s="8"/>
-      <c r="FY89" s="8"/>
-      <c r="FZ89" s="8"/>
-      <c r="GA89" s="8"/>
-      <c r="GB89" s="8"/>
-      <c r="GC89" s="8"/>
-      <c r="GD89" s="8"/>
-      <c r="GE89" s="8"/>
-      <c r="GF89" s="8"/>
-      <c r="GG89" s="8"/>
-      <c r="GH89" s="8"/>
-      <c r="GI89" s="8"/>
-      <c r="GJ89" s="8"/>
-      <c r="GK89" s="8"/>
-      <c r="GL89" s="8"/>
-      <c r="GM89" s="8"/>
-      <c r="GN89" s="8"/>
-      <c r="GO89" s="8"/>
-      <c r="GP89" s="8"/>
-      <c r="GQ89" s="8"/>
-      <c r="GR89" s="8"/>
-      <c r="GS89" s="8"/>
-      <c r="GT89" s="8"/>
-      <c r="GU89" s="8"/>
-      <c r="GV89" s="8"/>
-      <c r="GW89" s="8"/>
-      <c r="GX89" s="8"/>
-      <c r="GY89" s="8"/>
-      <c r="GZ89" s="8"/>
-      <c r="HA89" s="8"/>
-      <c r="HB89" s="8"/>
-      <c r="HC89" s="8"/>
-      <c r="HD89" s="8"/>
-      <c r="HE89" s="8"/>
-      <c r="HF89" s="8"/>
-      <c r="HG89" s="8"/>
-      <c r="HH89" s="8"/>
-      <c r="HI89" s="8"/>
-      <c r="HJ89" s="8"/>
-      <c r="HK89" s="8"/>
-      <c r="HL89" s="8"/>
-      <c r="HM89" s="8"/>
-      <c r="HN89" s="8"/>
-      <c r="HO89" s="8"/>
-      <c r="HP89" s="8"/>
-      <c r="HQ89" s="8"/>
-      <c r="HR89" s="8"/>
-      <c r="HS89" s="8"/>
-      <c r="HT89" s="8"/>
-      <c r="HU89" s="8"/>
-      <c r="HV89" s="8"/>
-      <c r="HW89" s="8"/>
-      <c r="HX89" s="8"/>
-      <c r="HY89" s="8"/>
-      <c r="HZ89" s="8"/>
-      <c r="IA89" s="8"/>
-      <c r="IB89" s="8"/>
-      <c r="IC89" s="8"/>
-      <c r="ID89" s="8"/>
-      <c r="IE89" s="8"/>
-      <c r="IF89" s="8"/>
-      <c r="IG89" s="8"/>
-      <c r="IH89" s="8"/>
-      <c r="II89" s="8"/>
-      <c r="IJ89" s="8"/>
-      <c r="IK89" s="8"/>
-      <c r="IL89" s="8"/>
-      <c r="IM89" s="8"/>
-      <c r="IN89" s="8"/>
-      <c r="IO89" s="8"/>
-      <c r="IP89" s="8"/>
-      <c r="IQ89" s="8"/>
-      <c r="IR89" s="8"/>
-      <c r="IS89" s="8"/>
-      <c r="IT89" s="8"/>
-      <c r="IU89" s="8"/>
-      <c r="IV89" s="8"/>
+      <c r="L89" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N89" s="41"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+      <c r="S89" s="41"/>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="41"/>
+      <c r="W89" s="41"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="41"/>
+      <c r="Z89" s="41"/>
+      <c r="AA89" s="41"/>
+      <c r="AB89" s="41"/>
+      <c r="AC89" s="41"/>
+      <c r="AD89" s="41"/>
+      <c r="AE89" s="41"/>
+      <c r="AF89" s="41"/>
+      <c r="AG89" s="41"/>
+      <c r="AH89" s="41"/>
+      <c r="AI89" s="41"/>
+      <c r="AJ89" s="41"/>
+      <c r="AK89" s="41"/>
+      <c r="AL89" s="41"/>
+      <c r="AM89" s="41"/>
+      <c r="AN89" s="41"/>
+      <c r="AO89" s="41"/>
+      <c r="AP89" s="41"/>
+      <c r="AQ89" s="41"/>
+      <c r="AR89" s="41"/>
+      <c r="AS89" s="41"/>
+      <c r="AT89" s="41"/>
+      <c r="AU89" s="41"/>
+      <c r="AV89" s="41"/>
+      <c r="AW89" s="41"/>
+      <c r="AX89" s="41"/>
+      <c r="AY89" s="41"/>
+      <c r="AZ89" s="41"/>
+      <c r="BA89" s="41"/>
+      <c r="BB89" s="41"/>
+      <c r="BC89" s="41"/>
+      <c r="BD89" s="41"/>
+      <c r="BE89" s="41"/>
+      <c r="BF89" s="41"/>
+      <c r="BG89" s="41"/>
+      <c r="BH89" s="41"/>
+      <c r="BI89" s="41"/>
+      <c r="BJ89" s="41"/>
+      <c r="BK89" s="41"/>
+      <c r="BL89" s="41"/>
+      <c r="BM89" s="41"/>
+      <c r="BN89" s="41"/>
+      <c r="BO89" s="41"/>
+      <c r="BP89" s="41"/>
+      <c r="BQ89" s="41"/>
+      <c r="BR89" s="41"/>
+      <c r="BS89" s="41"/>
+      <c r="BT89" s="41"/>
+      <c r="BU89" s="41"/>
+      <c r="BV89" s="41"/>
+      <c r="BW89" s="41"/>
+      <c r="BX89" s="41"/>
+      <c r="BY89" s="41"/>
+      <c r="BZ89" s="41"/>
+      <c r="CA89" s="41"/>
+      <c r="CB89" s="41"/>
+      <c r="CC89" s="41"/>
+      <c r="CD89" s="41"/>
+      <c r="CE89" s="41"/>
+      <c r="CF89" s="41"/>
+      <c r="CG89" s="41"/>
+      <c r="CH89" s="41"/>
+      <c r="CI89" s="41"/>
+      <c r="CJ89" s="41"/>
+      <c r="CK89" s="41"/>
+      <c r="CL89" s="41"/>
+      <c r="CM89" s="41"/>
+      <c r="CN89" s="41"/>
+      <c r="CO89" s="41"/>
+      <c r="CP89" s="41"/>
+      <c r="CQ89" s="41"/>
+      <c r="CR89" s="41"/>
+      <c r="CS89" s="41"/>
+      <c r="CT89" s="41"/>
+      <c r="CU89" s="41"/>
+      <c r="CV89" s="41"/>
+      <c r="CW89" s="41"/>
+      <c r="CX89" s="41"/>
+      <c r="CY89" s="41"/>
+      <c r="CZ89" s="41"/>
+      <c r="DA89" s="41"/>
+      <c r="DB89" s="41"/>
+      <c r="DC89" s="41"/>
+      <c r="DD89" s="41"/>
+      <c r="DE89" s="41"/>
+      <c r="DF89" s="41"/>
+      <c r="DG89" s="41"/>
+      <c r="DH89" s="41"/>
+      <c r="DI89" s="41"/>
+      <c r="DJ89" s="41"/>
+      <c r="DK89" s="41"/>
+      <c r="DL89" s="41"/>
+      <c r="DM89" s="41"/>
+      <c r="DN89" s="41"/>
+      <c r="DO89" s="41"/>
+      <c r="DP89" s="41"/>
+      <c r="DQ89" s="41"/>
+      <c r="DR89" s="41"/>
+      <c r="DS89" s="41"/>
+      <c r="DT89" s="41"/>
+      <c r="DU89" s="41"/>
+      <c r="DV89" s="41"/>
+      <c r="DW89" s="41"/>
+      <c r="DX89" s="41"/>
+      <c r="DY89" s="41"/>
+      <c r="DZ89" s="41"/>
+      <c r="EA89" s="41"/>
+      <c r="EB89" s="41"/>
+      <c r="EC89" s="41"/>
+      <c r="ED89" s="41"/>
+      <c r="EE89" s="41"/>
+      <c r="EF89" s="41"/>
+      <c r="EG89" s="41"/>
+      <c r="EH89" s="41"/>
+      <c r="EI89" s="41"/>
+      <c r="EJ89" s="41"/>
+      <c r="EK89" s="41"/>
+      <c r="EL89" s="41"/>
+      <c r="EM89" s="41"/>
+      <c r="EN89" s="41"/>
+      <c r="EO89" s="41"/>
+      <c r="EP89" s="41"/>
+      <c r="EQ89" s="41"/>
+      <c r="ER89" s="41"/>
+      <c r="ES89" s="41"/>
+      <c r="ET89" s="41"/>
+      <c r="EU89" s="41"/>
+      <c r="EV89" s="41"/>
+      <c r="EW89" s="41"/>
+      <c r="EX89" s="41"/>
+      <c r="EY89" s="41"/>
+      <c r="EZ89" s="41"/>
+      <c r="FA89" s="41"/>
+      <c r="FB89" s="41"/>
+      <c r="FC89" s="41"/>
+      <c r="FD89" s="41"/>
+      <c r="FE89" s="41"/>
+      <c r="FF89" s="41"/>
+      <c r="FG89" s="41"/>
+      <c r="FH89" s="41"/>
+      <c r="FI89" s="41"/>
+      <c r="FJ89" s="41"/>
+      <c r="FK89" s="41"/>
+      <c r="FL89" s="41"/>
+      <c r="FM89" s="41"/>
+      <c r="FN89" s="41"/>
+      <c r="FO89" s="41"/>
+      <c r="FP89" s="41"/>
+      <c r="FQ89" s="41"/>
+      <c r="FR89" s="41"/>
+      <c r="FS89" s="41"/>
+      <c r="FT89" s="41"/>
+      <c r="FU89" s="41"/>
+      <c r="FV89" s="41"/>
+      <c r="FW89" s="41"/>
+      <c r="FX89" s="41"/>
+      <c r="FY89" s="41"/>
+      <c r="FZ89" s="41"/>
+      <c r="GA89" s="41"/>
+      <c r="GB89" s="41"/>
+      <c r="GC89" s="41"/>
+      <c r="GD89" s="41"/>
+      <c r="GE89" s="41"/>
+      <c r="GF89" s="41"/>
+      <c r="GG89" s="41"/>
+      <c r="GH89" s="41"/>
+      <c r="GI89" s="41"/>
+      <c r="GJ89" s="41"/>
+      <c r="GK89" s="41"/>
+      <c r="GL89" s="41"/>
+      <c r="GM89" s="41"/>
+      <c r="GN89" s="41"/>
+      <c r="GO89" s="41"/>
+      <c r="GP89" s="41"/>
+      <c r="GQ89" s="41"/>
+      <c r="GR89" s="41"/>
+      <c r="GS89" s="41"/>
+      <c r="GT89" s="41"/>
+      <c r="GU89" s="41"/>
+      <c r="GV89" s="41"/>
+      <c r="GW89" s="41"/>
+      <c r="GX89" s="41"/>
+      <c r="GY89" s="41"/>
+      <c r="GZ89" s="41"/>
+      <c r="HA89" s="41"/>
+      <c r="HB89" s="41"/>
+      <c r="HC89" s="41"/>
+      <c r="HD89" s="41"/>
+      <c r="HE89" s="41"/>
+      <c r="HF89" s="41"/>
+      <c r="HG89" s="41"/>
+      <c r="HH89" s="41"/>
+      <c r="HI89" s="41"/>
+      <c r="HJ89" s="41"/>
+      <c r="HK89" s="41"/>
+      <c r="HL89" s="41"/>
+      <c r="HM89" s="41"/>
+      <c r="HN89" s="41"/>
+      <c r="HO89" s="41"/>
+      <c r="HP89" s="41"/>
+      <c r="HQ89" s="41"/>
+      <c r="HR89" s="41"/>
+      <c r="HS89" s="41"/>
+      <c r="HT89" s="41"/>
+      <c r="HU89" s="41"/>
+      <c r="HV89" s="41"/>
+      <c r="HW89" s="41"/>
+      <c r="HX89" s="41"/>
+      <c r="HY89" s="41"/>
+      <c r="HZ89" s="41"/>
+      <c r="IA89" s="41"/>
+      <c r="IB89" s="41"/>
+      <c r="IC89" s="41"/>
+      <c r="ID89" s="41"/>
+      <c r="IE89" s="41"/>
+      <c r="IF89" s="41"/>
+      <c r="IG89" s="41"/>
+      <c r="IH89" s="41"/>
+      <c r="II89" s="41"/>
+      <c r="IJ89" s="41"/>
+      <c r="IK89" s="41"/>
+      <c r="IL89" s="41"/>
+      <c r="IM89" s="41"/>
+      <c r="IN89" s="41"/>
+      <c r="IO89" s="41"/>
+      <c r="IP89" s="41"/>
+      <c r="IQ89" s="41"/>
+      <c r="IR89" s="41"/>
+      <c r="IS89" s="41"/>
+      <c r="IT89" s="41"/>
+      <c r="IU89" s="41"/>
+      <c r="IV89" s="41"/>
     </row>
     <row r="90" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="19">
         <v>2018</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D90" s="19" t="s">
         <v>8</v>
@@ -24274,28 +24280,28 @@
         <v>8</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G90" s="20" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H90" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="19" t="s">
-        <v>8</v>
+      <c r="I90" s="19">
+        <v>9</v>
       </c>
       <c r="J90" s="19" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K90" s="19" t="s">
         <v>20</v>
       </c>
       <c r="L90" s="19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M90" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
@@ -24543,13 +24549,13 @@
     </row>
     <row r="91" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B91" s="19">
         <v>2018</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D91" s="19" t="s">
         <v>8</v>
@@ -24558,28 +24564,28 @@
         <v>8</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G91" s="21" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="G91" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="H91" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I91" s="19">
-        <v>6</v>
+      <c r="I91" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="19" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="K91" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L91" s="20" t="s">
-        <v>19</v>
+      <c r="L91" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="M91" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
@@ -24825,44 +24831,44 @@
       <c r="IU91" s="8"/>
       <c r="IV91" s="8"/>
     </row>
-    <row r="92" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" s="51">
+    <row r="92" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="19">
         <v>2018</v>
       </c>
-      <c r="C92" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D92" s="51" t="s">
+      <c r="C92" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E92" s="51" t="s">
+      <c r="E92" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F92" s="51" t="s">
-        <v>8</v>
+      <c r="F92" s="19" t="s">
+        <v>1</v>
       </c>
       <c r="G92" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H92" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I92" s="22">
-        <v>10</v>
-      </c>
-      <c r="J92" s="22" t="s">
+      <c r="I92" s="19">
+        <v>6</v>
+      </c>
+      <c r="J92" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K92" s="22" t="s">
+      <c r="K92" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L92" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M92" s="22" t="s">
+      <c r="L92" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M92" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N92" s="8"/>
@@ -25109,38 +25115,50 @@
       <c r="IU92" s="8"/>
       <c r="IV92" s="8"/>
     </row>
-    <row r="93" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A93" s="54"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="28" t="s">
+    <row r="93" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="45">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H93" s="24" t="s">
+      <c r="H93" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I93" s="24">
-        <v>26</v>
-      </c>
-      <c r="J93" s="24" t="s">
+      <c r="I93" s="22">
+        <v>10</v>
+      </c>
+      <c r="J93" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="K93" s="24" t="s">
+      <c r="K93" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L93" s="23" t="s">
+      <c r="L93" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M93" s="24" t="s">
+      <c r="M93" s="22" t="s">
         <v>16</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
-      <c r="Q93" s="9"/>
+      <c r="Q93" s="8"/>
       <c r="R93" s="8"/>
       <c r="S93" s="8"/>
       <c r="T93" s="8"/>
@@ -25381,44 +25399,32 @@
       <c r="IU93" s="8"/>
       <c r="IV93" s="8"/>
     </row>
-    <row r="94" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B94" s="20">
-        <v>2018</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H94" s="19" t="s">
+    <row r="94" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="64"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H94" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I94" s="19">
-        <v>5</v>
-      </c>
-      <c r="J94" s="19" t="s">
+      <c r="I94" s="24">
+        <v>26</v>
+      </c>
+      <c r="J94" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="K94" s="19" t="s">
+      <c r="K94" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="L94" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="M94" s="19" t="s">
+      <c r="L94" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M94" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N94" s="8"/>
@@ -25667,21 +25673,21 @@
     </row>
     <row r="95" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="19">
+        <v>108</v>
+      </c>
+      <c r="B95" s="20">
         <v>2018</v>
       </c>
-      <c r="C95" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D95" s="19" t="s">
+      <c r="C95" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="F95" s="20" t="s">
         <v>8</v>
       </c>
       <c r="G95" s="20" t="s">
@@ -25691,7 +25697,7 @@
         <v>16</v>
       </c>
       <c r="I95" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J95" s="19" t="s">
         <v>126</v>
@@ -25700,7 +25706,7 @@
         <v>20</v>
       </c>
       <c r="L95" s="20" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="M95" s="19" t="s">
         <v>16</v>
@@ -25708,7 +25714,7 @@
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
+      <c r="Q95" s="9"/>
       <c r="R95" s="8"/>
       <c r="S95" s="8"/>
       <c r="T95" s="8"/>
@@ -25950,14 +25956,14 @@
       <c r="IV95" s="8"/>
     </row>
     <row r="96" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="66" t="s">
-        <v>165</v>
+      <c r="A96" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="B96" s="19">
         <v>2018</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D96" s="19" t="s">
         <v>8</v>
@@ -25975,7 +25981,7 @@
         <v>16</v>
       </c>
       <c r="I96" s="19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J96" s="19" t="s">
         <v>126</v>
@@ -25984,267 +25990,267 @@
         <v>20</v>
       </c>
       <c r="L96" s="20" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="M96" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N96" s="40"/>
-      <c r="O96" s="40"/>
-      <c r="P96" s="40"/>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40"/>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
-      <c r="W96" s="40"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="40"/>
-      <c r="Z96" s="40"/>
-      <c r="AA96" s="40"/>
-      <c r="AB96" s="40"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="40"/>
-      <c r="AE96" s="40"/>
-      <c r="AF96" s="40"/>
-      <c r="AG96" s="40"/>
-      <c r="AH96" s="40"/>
-      <c r="AI96" s="40"/>
-      <c r="AJ96" s="40"/>
-      <c r="AK96" s="40"/>
-      <c r="AL96" s="40"/>
-      <c r="AM96" s="40"/>
-      <c r="AN96" s="40"/>
-      <c r="AO96" s="40"/>
-      <c r="AP96" s="40"/>
-      <c r="AQ96" s="40"/>
-      <c r="AR96" s="40"/>
-      <c r="AS96" s="40"/>
-      <c r="AT96" s="40"/>
-      <c r="AU96" s="40"/>
-      <c r="AV96" s="40"/>
-      <c r="AW96" s="40"/>
-      <c r="AX96" s="40"/>
-      <c r="AY96" s="40"/>
-      <c r="AZ96" s="40"/>
-      <c r="BA96" s="40"/>
-      <c r="BB96" s="40"/>
-      <c r="BC96" s="40"/>
-      <c r="BD96" s="40"/>
-      <c r="BE96" s="40"/>
-      <c r="BF96" s="40"/>
-      <c r="BG96" s="40"/>
-      <c r="BH96" s="40"/>
-      <c r="BI96" s="40"/>
-      <c r="BJ96" s="40"/>
-      <c r="BK96" s="40"/>
-      <c r="BL96" s="40"/>
-      <c r="BM96" s="40"/>
-      <c r="BN96" s="40"/>
-      <c r="BO96" s="40"/>
-      <c r="BP96" s="40"/>
-      <c r="BQ96" s="40"/>
-      <c r="BR96" s="40"/>
-      <c r="BS96" s="40"/>
-      <c r="BT96" s="40"/>
-      <c r="BU96" s="40"/>
-      <c r="BV96" s="40"/>
-      <c r="BW96" s="40"/>
-      <c r="BX96" s="40"/>
-      <c r="BY96" s="40"/>
-      <c r="BZ96" s="40"/>
-      <c r="CA96" s="40"/>
-      <c r="CB96" s="40"/>
-      <c r="CC96" s="40"/>
-      <c r="CD96" s="40"/>
-      <c r="CE96" s="40"/>
-      <c r="CF96" s="40"/>
-      <c r="CG96" s="40"/>
-      <c r="CH96" s="40"/>
-      <c r="CI96" s="40"/>
-      <c r="CJ96" s="40"/>
-      <c r="CK96" s="40"/>
-      <c r="CL96" s="40"/>
-      <c r="CM96" s="40"/>
-      <c r="CN96" s="40"/>
-      <c r="CO96" s="40"/>
-      <c r="CP96" s="40"/>
-      <c r="CQ96" s="40"/>
-      <c r="CR96" s="40"/>
-      <c r="CS96" s="40"/>
-      <c r="CT96" s="40"/>
-      <c r="CU96" s="40"/>
-      <c r="CV96" s="40"/>
-      <c r="CW96" s="40"/>
-      <c r="CX96" s="40"/>
-      <c r="CY96" s="40"/>
-      <c r="CZ96" s="40"/>
-      <c r="DA96" s="40"/>
-      <c r="DB96" s="40"/>
-      <c r="DC96" s="40"/>
-      <c r="DD96" s="40"/>
-      <c r="DE96" s="40"/>
-      <c r="DF96" s="40"/>
-      <c r="DG96" s="40"/>
-      <c r="DH96" s="40"/>
-      <c r="DI96" s="40"/>
-      <c r="DJ96" s="40"/>
-      <c r="DK96" s="40"/>
-      <c r="DL96" s="40"/>
-      <c r="DM96" s="40"/>
-      <c r="DN96" s="40"/>
-      <c r="DO96" s="40"/>
-      <c r="DP96" s="40"/>
-      <c r="DQ96" s="40"/>
-      <c r="DR96" s="40"/>
-      <c r="DS96" s="40"/>
-      <c r="DT96" s="40"/>
-      <c r="DU96" s="40"/>
-      <c r="DV96" s="40"/>
-      <c r="DW96" s="40"/>
-      <c r="DX96" s="40"/>
-      <c r="DY96" s="40"/>
-      <c r="DZ96" s="40"/>
-      <c r="EA96" s="40"/>
-      <c r="EB96" s="40"/>
-      <c r="EC96" s="40"/>
-      <c r="ED96" s="40"/>
-      <c r="EE96" s="40"/>
-      <c r="EF96" s="40"/>
-      <c r="EG96" s="40"/>
-      <c r="EH96" s="40"/>
-      <c r="EI96" s="40"/>
-      <c r="EJ96" s="40"/>
-      <c r="EK96" s="40"/>
-      <c r="EL96" s="40"/>
-      <c r="EM96" s="40"/>
-      <c r="EN96" s="40"/>
-      <c r="EO96" s="40"/>
-      <c r="EP96" s="40"/>
-      <c r="EQ96" s="40"/>
-      <c r="ER96" s="40"/>
-      <c r="ES96" s="40"/>
-      <c r="ET96" s="40"/>
-      <c r="EU96" s="40"/>
-      <c r="EV96" s="40"/>
-      <c r="EW96" s="40"/>
-      <c r="EX96" s="40"/>
-      <c r="EY96" s="40"/>
-      <c r="EZ96" s="40"/>
-      <c r="FA96" s="40"/>
-      <c r="FB96" s="40"/>
-      <c r="FC96" s="40"/>
-      <c r="FD96" s="40"/>
-      <c r="FE96" s="40"/>
-      <c r="FF96" s="40"/>
-      <c r="FG96" s="40"/>
-      <c r="FH96" s="40"/>
-      <c r="FI96" s="40"/>
-      <c r="FJ96" s="40"/>
-      <c r="FK96" s="40"/>
-      <c r="FL96" s="40"/>
-      <c r="FM96" s="40"/>
-      <c r="FN96" s="40"/>
-      <c r="FO96" s="40"/>
-      <c r="FP96" s="40"/>
-      <c r="FQ96" s="40"/>
-      <c r="FR96" s="40"/>
-      <c r="FS96" s="40"/>
-      <c r="FT96" s="40"/>
-      <c r="FU96" s="40"/>
-      <c r="FV96" s="40"/>
-      <c r="FW96" s="40"/>
-      <c r="FX96" s="40"/>
-      <c r="FY96" s="40"/>
-      <c r="FZ96" s="40"/>
-      <c r="GA96" s="40"/>
-      <c r="GB96" s="40"/>
-      <c r="GC96" s="40"/>
-      <c r="GD96" s="40"/>
-      <c r="GE96" s="40"/>
-      <c r="GF96" s="40"/>
-      <c r="GG96" s="40"/>
-      <c r="GH96" s="40"/>
-      <c r="GI96" s="40"/>
-      <c r="GJ96" s="40"/>
-      <c r="GK96" s="40"/>
-      <c r="GL96" s="40"/>
-      <c r="GM96" s="40"/>
-      <c r="GN96" s="40"/>
-      <c r="GO96" s="40"/>
-      <c r="GP96" s="40"/>
-      <c r="GQ96" s="40"/>
-      <c r="GR96" s="40"/>
-      <c r="GS96" s="40"/>
-      <c r="GT96" s="40"/>
-      <c r="GU96" s="40"/>
-      <c r="GV96" s="40"/>
-      <c r="GW96" s="40"/>
-      <c r="GX96" s="40"/>
-      <c r="GY96" s="40"/>
-      <c r="GZ96" s="40"/>
-      <c r="HA96" s="40"/>
-      <c r="HB96" s="40"/>
-      <c r="HC96" s="40"/>
-      <c r="HD96" s="40"/>
-      <c r="HE96" s="40"/>
-      <c r="HF96" s="40"/>
-      <c r="HG96" s="40"/>
-      <c r="HH96" s="40"/>
-      <c r="HI96" s="40"/>
-      <c r="HJ96" s="40"/>
-      <c r="HK96" s="40"/>
-      <c r="HL96" s="40"/>
-      <c r="HM96" s="40"/>
-      <c r="HN96" s="40"/>
-      <c r="HO96" s="40"/>
-      <c r="HP96" s="40"/>
-      <c r="HQ96" s="40"/>
-      <c r="HR96" s="40"/>
-      <c r="HS96" s="40"/>
-      <c r="HT96" s="40"/>
-      <c r="HU96" s="40"/>
-      <c r="HV96" s="40"/>
-      <c r="HW96" s="40"/>
-      <c r="HX96" s="40"/>
-      <c r="HY96" s="40"/>
-      <c r="HZ96" s="40"/>
-      <c r="IA96" s="40"/>
-      <c r="IB96" s="40"/>
-      <c r="IC96" s="40"/>
-      <c r="ID96" s="40"/>
-      <c r="IE96" s="40"/>
-      <c r="IF96" s="40"/>
-      <c r="IG96" s="40"/>
-      <c r="IH96" s="40"/>
-      <c r="II96" s="40"/>
-      <c r="IJ96" s="40"/>
-      <c r="IK96" s="40"/>
-      <c r="IL96" s="40"/>
-      <c r="IM96" s="40"/>
-      <c r="IN96" s="40"/>
-      <c r="IO96" s="40"/>
-      <c r="IP96" s="40"/>
-      <c r="IQ96" s="40"/>
-      <c r="IR96" s="40"/>
-      <c r="IS96" s="40"/>
-      <c r="IT96" s="40"/>
-      <c r="IU96" s="40"/>
-      <c r="IV96" s="40"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+      <c r="AB96" s="8"/>
+      <c r="AC96" s="8"/>
+      <c r="AD96" s="8"/>
+      <c r="AE96" s="8"/>
+      <c r="AF96" s="8"/>
+      <c r="AG96" s="8"/>
+      <c r="AH96" s="8"/>
+      <c r="AI96" s="8"/>
+      <c r="AJ96" s="8"/>
+      <c r="AK96" s="8"/>
+      <c r="AL96" s="8"/>
+      <c r="AM96" s="8"/>
+      <c r="AN96" s="8"/>
+      <c r="AO96" s="8"/>
+      <c r="AP96" s="8"/>
+      <c r="AQ96" s="8"/>
+      <c r="AR96" s="8"/>
+      <c r="AS96" s="8"/>
+      <c r="AT96" s="8"/>
+      <c r="AU96" s="8"/>
+      <c r="AV96" s="8"/>
+      <c r="AW96" s="8"/>
+      <c r="AX96" s="8"/>
+      <c r="AY96" s="8"/>
+      <c r="AZ96" s="8"/>
+      <c r="BA96" s="8"/>
+      <c r="BB96" s="8"/>
+      <c r="BC96" s="8"/>
+      <c r="BD96" s="8"/>
+      <c r="BE96" s="8"/>
+      <c r="BF96" s="8"/>
+      <c r="BG96" s="8"/>
+      <c r="BH96" s="8"/>
+      <c r="BI96" s="8"/>
+      <c r="BJ96" s="8"/>
+      <c r="BK96" s="8"/>
+      <c r="BL96" s="8"/>
+      <c r="BM96" s="8"/>
+      <c r="BN96" s="8"/>
+      <c r="BO96" s="8"/>
+      <c r="BP96" s="8"/>
+      <c r="BQ96" s="8"/>
+      <c r="BR96" s="8"/>
+      <c r="BS96" s="8"/>
+      <c r="BT96" s="8"/>
+      <c r="BU96" s="8"/>
+      <c r="BV96" s="8"/>
+      <c r="BW96" s="8"/>
+      <c r="BX96" s="8"/>
+      <c r="BY96" s="8"/>
+      <c r="BZ96" s="8"/>
+      <c r="CA96" s="8"/>
+      <c r="CB96" s="8"/>
+      <c r="CC96" s="8"/>
+      <c r="CD96" s="8"/>
+      <c r="CE96" s="8"/>
+      <c r="CF96" s="8"/>
+      <c r="CG96" s="8"/>
+      <c r="CH96" s="8"/>
+      <c r="CI96" s="8"/>
+      <c r="CJ96" s="8"/>
+      <c r="CK96" s="8"/>
+      <c r="CL96" s="8"/>
+      <c r="CM96" s="8"/>
+      <c r="CN96" s="8"/>
+      <c r="CO96" s="8"/>
+      <c r="CP96" s="8"/>
+      <c r="CQ96" s="8"/>
+      <c r="CR96" s="8"/>
+      <c r="CS96" s="8"/>
+      <c r="CT96" s="8"/>
+      <c r="CU96" s="8"/>
+      <c r="CV96" s="8"/>
+      <c r="CW96" s="8"/>
+      <c r="CX96" s="8"/>
+      <c r="CY96" s="8"/>
+      <c r="CZ96" s="8"/>
+      <c r="DA96" s="8"/>
+      <c r="DB96" s="8"/>
+      <c r="DC96" s="8"/>
+      <c r="DD96" s="8"/>
+      <c r="DE96" s="8"/>
+      <c r="DF96" s="8"/>
+      <c r="DG96" s="8"/>
+      <c r="DH96" s="8"/>
+      <c r="DI96" s="8"/>
+      <c r="DJ96" s="8"/>
+      <c r="DK96" s="8"/>
+      <c r="DL96" s="8"/>
+      <c r="DM96" s="8"/>
+      <c r="DN96" s="8"/>
+      <c r="DO96" s="8"/>
+      <c r="DP96" s="8"/>
+      <c r="DQ96" s="8"/>
+      <c r="DR96" s="8"/>
+      <c r="DS96" s="8"/>
+      <c r="DT96" s="8"/>
+      <c r="DU96" s="8"/>
+      <c r="DV96" s="8"/>
+      <c r="DW96" s="8"/>
+      <c r="DX96" s="8"/>
+      <c r="DY96" s="8"/>
+      <c r="DZ96" s="8"/>
+      <c r="EA96" s="8"/>
+      <c r="EB96" s="8"/>
+      <c r="EC96" s="8"/>
+      <c r="ED96" s="8"/>
+      <c r="EE96" s="8"/>
+      <c r="EF96" s="8"/>
+      <c r="EG96" s="8"/>
+      <c r="EH96" s="8"/>
+      <c r="EI96" s="8"/>
+      <c r="EJ96" s="8"/>
+      <c r="EK96" s="8"/>
+      <c r="EL96" s="8"/>
+      <c r="EM96" s="8"/>
+      <c r="EN96" s="8"/>
+      <c r="EO96" s="8"/>
+      <c r="EP96" s="8"/>
+      <c r="EQ96" s="8"/>
+      <c r="ER96" s="8"/>
+      <c r="ES96" s="8"/>
+      <c r="ET96" s="8"/>
+      <c r="EU96" s="8"/>
+      <c r="EV96" s="8"/>
+      <c r="EW96" s="8"/>
+      <c r="EX96" s="8"/>
+      <c r="EY96" s="8"/>
+      <c r="EZ96" s="8"/>
+      <c r="FA96" s="8"/>
+      <c r="FB96" s="8"/>
+      <c r="FC96" s="8"/>
+      <c r="FD96" s="8"/>
+      <c r="FE96" s="8"/>
+      <c r="FF96" s="8"/>
+      <c r="FG96" s="8"/>
+      <c r="FH96" s="8"/>
+      <c r="FI96" s="8"/>
+      <c r="FJ96" s="8"/>
+      <c r="FK96" s="8"/>
+      <c r="FL96" s="8"/>
+      <c r="FM96" s="8"/>
+      <c r="FN96" s="8"/>
+      <c r="FO96" s="8"/>
+      <c r="FP96" s="8"/>
+      <c r="FQ96" s="8"/>
+      <c r="FR96" s="8"/>
+      <c r="FS96" s="8"/>
+      <c r="FT96" s="8"/>
+      <c r="FU96" s="8"/>
+      <c r="FV96" s="8"/>
+      <c r="FW96" s="8"/>
+      <c r="FX96" s="8"/>
+      <c r="FY96" s="8"/>
+      <c r="FZ96" s="8"/>
+      <c r="GA96" s="8"/>
+      <c r="GB96" s="8"/>
+      <c r="GC96" s="8"/>
+      <c r="GD96" s="8"/>
+      <c r="GE96" s="8"/>
+      <c r="GF96" s="8"/>
+      <c r="GG96" s="8"/>
+      <c r="GH96" s="8"/>
+      <c r="GI96" s="8"/>
+      <c r="GJ96" s="8"/>
+      <c r="GK96" s="8"/>
+      <c r="GL96" s="8"/>
+      <c r="GM96" s="8"/>
+      <c r="GN96" s="8"/>
+      <c r="GO96" s="8"/>
+      <c r="GP96" s="8"/>
+      <c r="GQ96" s="8"/>
+      <c r="GR96" s="8"/>
+      <c r="GS96" s="8"/>
+      <c r="GT96" s="8"/>
+      <c r="GU96" s="8"/>
+      <c r="GV96" s="8"/>
+      <c r="GW96" s="8"/>
+      <c r="GX96" s="8"/>
+      <c r="GY96" s="8"/>
+      <c r="GZ96" s="8"/>
+      <c r="HA96" s="8"/>
+      <c r="HB96" s="8"/>
+      <c r="HC96" s="8"/>
+      <c r="HD96" s="8"/>
+      <c r="HE96" s="8"/>
+      <c r="HF96" s="8"/>
+      <c r="HG96" s="8"/>
+      <c r="HH96" s="8"/>
+      <c r="HI96" s="8"/>
+      <c r="HJ96" s="8"/>
+      <c r="HK96" s="8"/>
+      <c r="HL96" s="8"/>
+      <c r="HM96" s="8"/>
+      <c r="HN96" s="8"/>
+      <c r="HO96" s="8"/>
+      <c r="HP96" s="8"/>
+      <c r="HQ96" s="8"/>
+      <c r="HR96" s="8"/>
+      <c r="HS96" s="8"/>
+      <c r="HT96" s="8"/>
+      <c r="HU96" s="8"/>
+      <c r="HV96" s="8"/>
+      <c r="HW96" s="8"/>
+      <c r="HX96" s="8"/>
+      <c r="HY96" s="8"/>
+      <c r="HZ96" s="8"/>
+      <c r="IA96" s="8"/>
+      <c r="IB96" s="8"/>
+      <c r="IC96" s="8"/>
+      <c r="ID96" s="8"/>
+      <c r="IE96" s="8"/>
+      <c r="IF96" s="8"/>
+      <c r="IG96" s="8"/>
+      <c r="IH96" s="8"/>
+      <c r="II96" s="8"/>
+      <c r="IJ96" s="8"/>
+      <c r="IK96" s="8"/>
+      <c r="IL96" s="8"/>
+      <c r="IM96" s="8"/>
+      <c r="IN96" s="8"/>
+      <c r="IO96" s="8"/>
+      <c r="IP96" s="8"/>
+      <c r="IQ96" s="8"/>
+      <c r="IR96" s="8"/>
+      <c r="IS96" s="8"/>
+      <c r="IT96" s="8"/>
+      <c r="IU96" s="8"/>
+      <c r="IV96" s="8"/>
     </row>
     <row r="97" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="18" t="s">
-        <v>96</v>
+      <c r="A97" s="42" t="s">
+        <v>165</v>
       </c>
       <c r="B97" s="19">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C97" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E97" s="19" t="s">
         <v>8</v>
@@ -26259,7 +26265,7 @@
         <v>16</v>
       </c>
       <c r="I97" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J97" s="19" t="s">
         <v>126</v>
@@ -26267,274 +26273,274 @@
       <c r="K97" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L97" s="19" t="s">
-        <v>18</v>
+      <c r="L97" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="M97" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8"/>
-      <c r="Q97" s="8"/>
-      <c r="R97" s="8"/>
-      <c r="S97" s="8"/>
-      <c r="T97" s="8"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="8"/>
-      <c r="X97" s="8"/>
-      <c r="Y97" s="8"/>
-      <c r="Z97" s="8"/>
-      <c r="AA97" s="8"/>
-      <c r="AB97" s="8"/>
-      <c r="AC97" s="8"/>
-      <c r="AD97" s="8"/>
-      <c r="AE97" s="8"/>
-      <c r="AF97" s="8"/>
-      <c r="AG97" s="8"/>
-      <c r="AH97" s="8"/>
-      <c r="AI97" s="8"/>
-      <c r="AJ97" s="8"/>
-      <c r="AK97" s="8"/>
-      <c r="AL97" s="8"/>
-      <c r="AM97" s="8"/>
-      <c r="AN97" s="8"/>
-      <c r="AO97" s="8"/>
-      <c r="AP97" s="8"/>
-      <c r="AQ97" s="8"/>
-      <c r="AR97" s="8"/>
-      <c r="AS97" s="8"/>
-      <c r="AT97" s="8"/>
-      <c r="AU97" s="8"/>
-      <c r="AV97" s="8"/>
-      <c r="AW97" s="8"/>
-      <c r="AX97" s="8"/>
-      <c r="AY97" s="8"/>
-      <c r="AZ97" s="8"/>
-      <c r="BA97" s="8"/>
-      <c r="BB97" s="8"/>
-      <c r="BC97" s="8"/>
-      <c r="BD97" s="8"/>
-      <c r="BE97" s="8"/>
-      <c r="BF97" s="8"/>
-      <c r="BG97" s="8"/>
-      <c r="BH97" s="8"/>
-      <c r="BI97" s="8"/>
-      <c r="BJ97" s="8"/>
-      <c r="BK97" s="8"/>
-      <c r="BL97" s="8"/>
-      <c r="BM97" s="8"/>
-      <c r="BN97" s="8"/>
-      <c r="BO97" s="8"/>
-      <c r="BP97" s="8"/>
-      <c r="BQ97" s="8"/>
-      <c r="BR97" s="8"/>
-      <c r="BS97" s="8"/>
-      <c r="BT97" s="8"/>
-      <c r="BU97" s="8"/>
-      <c r="BV97" s="8"/>
-      <c r="BW97" s="8"/>
-      <c r="BX97" s="8"/>
-      <c r="BY97" s="8"/>
-      <c r="BZ97" s="8"/>
-      <c r="CA97" s="8"/>
-      <c r="CB97" s="8"/>
-      <c r="CC97" s="8"/>
-      <c r="CD97" s="8"/>
-      <c r="CE97" s="8"/>
-      <c r="CF97" s="8"/>
-      <c r="CG97" s="8"/>
-      <c r="CH97" s="8"/>
-      <c r="CI97" s="8"/>
-      <c r="CJ97" s="8"/>
-      <c r="CK97" s="8"/>
-      <c r="CL97" s="8"/>
-      <c r="CM97" s="8"/>
-      <c r="CN97" s="8"/>
-      <c r="CO97" s="8"/>
-      <c r="CP97" s="8"/>
-      <c r="CQ97" s="8"/>
-      <c r="CR97" s="8"/>
-      <c r="CS97" s="8"/>
-      <c r="CT97" s="8"/>
-      <c r="CU97" s="8"/>
-      <c r="CV97" s="8"/>
-      <c r="CW97" s="8"/>
-      <c r="CX97" s="8"/>
-      <c r="CY97" s="8"/>
-      <c r="CZ97" s="8"/>
-      <c r="DA97" s="8"/>
-      <c r="DB97" s="8"/>
-      <c r="DC97" s="8"/>
-      <c r="DD97" s="8"/>
-      <c r="DE97" s="8"/>
-      <c r="DF97" s="8"/>
-      <c r="DG97" s="8"/>
-      <c r="DH97" s="8"/>
-      <c r="DI97" s="8"/>
-      <c r="DJ97" s="8"/>
-      <c r="DK97" s="8"/>
-      <c r="DL97" s="8"/>
-      <c r="DM97" s="8"/>
-      <c r="DN97" s="8"/>
-      <c r="DO97" s="8"/>
-      <c r="DP97" s="8"/>
-      <c r="DQ97" s="8"/>
-      <c r="DR97" s="8"/>
-      <c r="DS97" s="8"/>
-      <c r="DT97" s="8"/>
-      <c r="DU97" s="8"/>
-      <c r="DV97" s="8"/>
-      <c r="DW97" s="8"/>
-      <c r="DX97" s="8"/>
-      <c r="DY97" s="8"/>
-      <c r="DZ97" s="8"/>
-      <c r="EA97" s="8"/>
-      <c r="EB97" s="8"/>
-      <c r="EC97" s="8"/>
-      <c r="ED97" s="8"/>
-      <c r="EE97" s="8"/>
-      <c r="EF97" s="8"/>
-      <c r="EG97" s="8"/>
-      <c r="EH97" s="8"/>
-      <c r="EI97" s="8"/>
-      <c r="EJ97" s="8"/>
-      <c r="EK97" s="8"/>
-      <c r="EL97" s="8"/>
-      <c r="EM97" s="8"/>
-      <c r="EN97" s="8"/>
-      <c r="EO97" s="8"/>
-      <c r="EP97" s="8"/>
-      <c r="EQ97" s="8"/>
-      <c r="ER97" s="8"/>
-      <c r="ES97" s="8"/>
-      <c r="ET97" s="8"/>
-      <c r="EU97" s="8"/>
-      <c r="EV97" s="8"/>
-      <c r="EW97" s="8"/>
-      <c r="EX97" s="8"/>
-      <c r="EY97" s="8"/>
-      <c r="EZ97" s="8"/>
-      <c r="FA97" s="8"/>
-      <c r="FB97" s="8"/>
-      <c r="FC97" s="8"/>
-      <c r="FD97" s="8"/>
-      <c r="FE97" s="8"/>
-      <c r="FF97" s="8"/>
-      <c r="FG97" s="8"/>
-      <c r="FH97" s="8"/>
-      <c r="FI97" s="8"/>
-      <c r="FJ97" s="8"/>
-      <c r="FK97" s="8"/>
-      <c r="FL97" s="8"/>
-      <c r="FM97" s="8"/>
-      <c r="FN97" s="8"/>
-      <c r="FO97" s="8"/>
-      <c r="FP97" s="8"/>
-      <c r="FQ97" s="8"/>
-      <c r="FR97" s="8"/>
-      <c r="FS97" s="8"/>
-      <c r="FT97" s="8"/>
-      <c r="FU97" s="8"/>
-      <c r="FV97" s="8"/>
-      <c r="FW97" s="8"/>
-      <c r="FX97" s="8"/>
-      <c r="FY97" s="8"/>
-      <c r="FZ97" s="8"/>
-      <c r="GA97" s="8"/>
-      <c r="GB97" s="8"/>
-      <c r="GC97" s="8"/>
-      <c r="GD97" s="8"/>
-      <c r="GE97" s="8"/>
-      <c r="GF97" s="8"/>
-      <c r="GG97" s="8"/>
-      <c r="GH97" s="8"/>
-      <c r="GI97" s="8"/>
-      <c r="GJ97" s="8"/>
-      <c r="GK97" s="8"/>
-      <c r="GL97" s="8"/>
-      <c r="GM97" s="8"/>
-      <c r="GN97" s="8"/>
-      <c r="GO97" s="8"/>
-      <c r="GP97" s="8"/>
-      <c r="GQ97" s="8"/>
-      <c r="GR97" s="8"/>
-      <c r="GS97" s="8"/>
-      <c r="GT97" s="8"/>
-      <c r="GU97" s="8"/>
-      <c r="GV97" s="8"/>
-      <c r="GW97" s="8"/>
-      <c r="GX97" s="8"/>
-      <c r="GY97" s="8"/>
-      <c r="GZ97" s="8"/>
-      <c r="HA97" s="8"/>
-      <c r="HB97" s="8"/>
-      <c r="HC97" s="8"/>
-      <c r="HD97" s="8"/>
-      <c r="HE97" s="8"/>
-      <c r="HF97" s="8"/>
-      <c r="HG97" s="8"/>
-      <c r="HH97" s="8"/>
-      <c r="HI97" s="8"/>
-      <c r="HJ97" s="8"/>
-      <c r="HK97" s="8"/>
-      <c r="HL97" s="8"/>
-      <c r="HM97" s="8"/>
-      <c r="HN97" s="8"/>
-      <c r="HO97" s="8"/>
-      <c r="HP97" s="8"/>
-      <c r="HQ97" s="8"/>
-      <c r="HR97" s="8"/>
-      <c r="HS97" s="8"/>
-      <c r="HT97" s="8"/>
-      <c r="HU97" s="8"/>
-      <c r="HV97" s="8"/>
-      <c r="HW97" s="8"/>
-      <c r="HX97" s="8"/>
-      <c r="HY97" s="8"/>
-      <c r="HZ97" s="8"/>
-      <c r="IA97" s="8"/>
-      <c r="IB97" s="8"/>
-      <c r="IC97" s="8"/>
-      <c r="ID97" s="8"/>
-      <c r="IE97" s="8"/>
-      <c r="IF97" s="8"/>
-      <c r="IG97" s="8"/>
-      <c r="IH97" s="8"/>
-      <c r="II97" s="8"/>
-      <c r="IJ97" s="8"/>
-      <c r="IK97" s="8"/>
-      <c r="IL97" s="8"/>
-      <c r="IM97" s="8"/>
-      <c r="IN97" s="8"/>
-      <c r="IO97" s="8"/>
-      <c r="IP97" s="8"/>
-      <c r="IQ97" s="8"/>
-      <c r="IR97" s="8"/>
-      <c r="IS97" s="8"/>
-      <c r="IT97" s="8"/>
-      <c r="IU97" s="8"/>
-      <c r="IV97" s="8"/>
+      <c r="N97" s="40"/>
+      <c r="O97" s="40"/>
+      <c r="P97" s="40"/>
+      <c r="Q97" s="40"/>
+      <c r="R97" s="40"/>
+      <c r="S97" s="40"/>
+      <c r="T97" s="40"/>
+      <c r="U97" s="40"/>
+      <c r="V97" s="40"/>
+      <c r="W97" s="40"/>
+      <c r="X97" s="40"/>
+      <c r="Y97" s="40"/>
+      <c r="Z97" s="40"/>
+      <c r="AA97" s="40"/>
+      <c r="AB97" s="40"/>
+      <c r="AC97" s="40"/>
+      <c r="AD97" s="40"/>
+      <c r="AE97" s="40"/>
+      <c r="AF97" s="40"/>
+      <c r="AG97" s="40"/>
+      <c r="AH97" s="40"/>
+      <c r="AI97" s="40"/>
+      <c r="AJ97" s="40"/>
+      <c r="AK97" s="40"/>
+      <c r="AL97" s="40"/>
+      <c r="AM97" s="40"/>
+      <c r="AN97" s="40"/>
+      <c r="AO97" s="40"/>
+      <c r="AP97" s="40"/>
+      <c r="AQ97" s="40"/>
+      <c r="AR97" s="40"/>
+      <c r="AS97" s="40"/>
+      <c r="AT97" s="40"/>
+      <c r="AU97" s="40"/>
+      <c r="AV97" s="40"/>
+      <c r="AW97" s="40"/>
+      <c r="AX97" s="40"/>
+      <c r="AY97" s="40"/>
+      <c r="AZ97" s="40"/>
+      <c r="BA97" s="40"/>
+      <c r="BB97" s="40"/>
+      <c r="BC97" s="40"/>
+      <c r="BD97" s="40"/>
+      <c r="BE97" s="40"/>
+      <c r="BF97" s="40"/>
+      <c r="BG97" s="40"/>
+      <c r="BH97" s="40"/>
+      <c r="BI97" s="40"/>
+      <c r="BJ97" s="40"/>
+      <c r="BK97" s="40"/>
+      <c r="BL97" s="40"/>
+      <c r="BM97" s="40"/>
+      <c r="BN97" s="40"/>
+      <c r="BO97" s="40"/>
+      <c r="BP97" s="40"/>
+      <c r="BQ97" s="40"/>
+      <c r="BR97" s="40"/>
+      <c r="BS97" s="40"/>
+      <c r="BT97" s="40"/>
+      <c r="BU97" s="40"/>
+      <c r="BV97" s="40"/>
+      <c r="BW97" s="40"/>
+      <c r="BX97" s="40"/>
+      <c r="BY97" s="40"/>
+      <c r="BZ97" s="40"/>
+      <c r="CA97" s="40"/>
+      <c r="CB97" s="40"/>
+      <c r="CC97" s="40"/>
+      <c r="CD97" s="40"/>
+      <c r="CE97" s="40"/>
+      <c r="CF97" s="40"/>
+      <c r="CG97" s="40"/>
+      <c r="CH97" s="40"/>
+      <c r="CI97" s="40"/>
+      <c r="CJ97" s="40"/>
+      <c r="CK97" s="40"/>
+      <c r="CL97" s="40"/>
+      <c r="CM97" s="40"/>
+      <c r="CN97" s="40"/>
+      <c r="CO97" s="40"/>
+      <c r="CP97" s="40"/>
+      <c r="CQ97" s="40"/>
+      <c r="CR97" s="40"/>
+      <c r="CS97" s="40"/>
+      <c r="CT97" s="40"/>
+      <c r="CU97" s="40"/>
+      <c r="CV97" s="40"/>
+      <c r="CW97" s="40"/>
+      <c r="CX97" s="40"/>
+      <c r="CY97" s="40"/>
+      <c r="CZ97" s="40"/>
+      <c r="DA97" s="40"/>
+      <c r="DB97" s="40"/>
+      <c r="DC97" s="40"/>
+      <c r="DD97" s="40"/>
+      <c r="DE97" s="40"/>
+      <c r="DF97" s="40"/>
+      <c r="DG97" s="40"/>
+      <c r="DH97" s="40"/>
+      <c r="DI97" s="40"/>
+      <c r="DJ97" s="40"/>
+      <c r="DK97" s="40"/>
+      <c r="DL97" s="40"/>
+      <c r="DM97" s="40"/>
+      <c r="DN97" s="40"/>
+      <c r="DO97" s="40"/>
+      <c r="DP97" s="40"/>
+      <c r="DQ97" s="40"/>
+      <c r="DR97" s="40"/>
+      <c r="DS97" s="40"/>
+      <c r="DT97" s="40"/>
+      <c r="DU97" s="40"/>
+      <c r="DV97" s="40"/>
+      <c r="DW97" s="40"/>
+      <c r="DX97" s="40"/>
+      <c r="DY97" s="40"/>
+      <c r="DZ97" s="40"/>
+      <c r="EA97" s="40"/>
+      <c r="EB97" s="40"/>
+      <c r="EC97" s="40"/>
+      <c r="ED97" s="40"/>
+      <c r="EE97" s="40"/>
+      <c r="EF97" s="40"/>
+      <c r="EG97" s="40"/>
+      <c r="EH97" s="40"/>
+      <c r="EI97" s="40"/>
+      <c r="EJ97" s="40"/>
+      <c r="EK97" s="40"/>
+      <c r="EL97" s="40"/>
+      <c r="EM97" s="40"/>
+      <c r="EN97" s="40"/>
+      <c r="EO97" s="40"/>
+      <c r="EP97" s="40"/>
+      <c r="EQ97" s="40"/>
+      <c r="ER97" s="40"/>
+      <c r="ES97" s="40"/>
+      <c r="ET97" s="40"/>
+      <c r="EU97" s="40"/>
+      <c r="EV97" s="40"/>
+      <c r="EW97" s="40"/>
+      <c r="EX97" s="40"/>
+      <c r="EY97" s="40"/>
+      <c r="EZ97" s="40"/>
+      <c r="FA97" s="40"/>
+      <c r="FB97" s="40"/>
+      <c r="FC97" s="40"/>
+      <c r="FD97" s="40"/>
+      <c r="FE97" s="40"/>
+      <c r="FF97" s="40"/>
+      <c r="FG97" s="40"/>
+      <c r="FH97" s="40"/>
+      <c r="FI97" s="40"/>
+      <c r="FJ97" s="40"/>
+      <c r="FK97" s="40"/>
+      <c r="FL97" s="40"/>
+      <c r="FM97" s="40"/>
+      <c r="FN97" s="40"/>
+      <c r="FO97" s="40"/>
+      <c r="FP97" s="40"/>
+      <c r="FQ97" s="40"/>
+      <c r="FR97" s="40"/>
+      <c r="FS97" s="40"/>
+      <c r="FT97" s="40"/>
+      <c r="FU97" s="40"/>
+      <c r="FV97" s="40"/>
+      <c r="FW97" s="40"/>
+      <c r="FX97" s="40"/>
+      <c r="FY97" s="40"/>
+      <c r="FZ97" s="40"/>
+      <c r="GA97" s="40"/>
+      <c r="GB97" s="40"/>
+      <c r="GC97" s="40"/>
+      <c r="GD97" s="40"/>
+      <c r="GE97" s="40"/>
+      <c r="GF97" s="40"/>
+      <c r="GG97" s="40"/>
+      <c r="GH97" s="40"/>
+      <c r="GI97" s="40"/>
+      <c r="GJ97" s="40"/>
+      <c r="GK97" s="40"/>
+      <c r="GL97" s="40"/>
+      <c r="GM97" s="40"/>
+      <c r="GN97" s="40"/>
+      <c r="GO97" s="40"/>
+      <c r="GP97" s="40"/>
+      <c r="GQ97" s="40"/>
+      <c r="GR97" s="40"/>
+      <c r="GS97" s="40"/>
+      <c r="GT97" s="40"/>
+      <c r="GU97" s="40"/>
+      <c r="GV97" s="40"/>
+      <c r="GW97" s="40"/>
+      <c r="GX97" s="40"/>
+      <c r="GY97" s="40"/>
+      <c r="GZ97" s="40"/>
+      <c r="HA97" s="40"/>
+      <c r="HB97" s="40"/>
+      <c r="HC97" s="40"/>
+      <c r="HD97" s="40"/>
+      <c r="HE97" s="40"/>
+      <c r="HF97" s="40"/>
+      <c r="HG97" s="40"/>
+      <c r="HH97" s="40"/>
+      <c r="HI97" s="40"/>
+      <c r="HJ97" s="40"/>
+      <c r="HK97" s="40"/>
+      <c r="HL97" s="40"/>
+      <c r="HM97" s="40"/>
+      <c r="HN97" s="40"/>
+      <c r="HO97" s="40"/>
+      <c r="HP97" s="40"/>
+      <c r="HQ97" s="40"/>
+      <c r="HR97" s="40"/>
+      <c r="HS97" s="40"/>
+      <c r="HT97" s="40"/>
+      <c r="HU97" s="40"/>
+      <c r="HV97" s="40"/>
+      <c r="HW97" s="40"/>
+      <c r="HX97" s="40"/>
+      <c r="HY97" s="40"/>
+      <c r="HZ97" s="40"/>
+      <c r="IA97" s="40"/>
+      <c r="IB97" s="40"/>
+      <c r="IC97" s="40"/>
+      <c r="ID97" s="40"/>
+      <c r="IE97" s="40"/>
+      <c r="IF97" s="40"/>
+      <c r="IG97" s="40"/>
+      <c r="IH97" s="40"/>
+      <c r="II97" s="40"/>
+      <c r="IJ97" s="40"/>
+      <c r="IK97" s="40"/>
+      <c r="IL97" s="40"/>
+      <c r="IM97" s="40"/>
+      <c r="IN97" s="40"/>
+      <c r="IO97" s="40"/>
+      <c r="IP97" s="40"/>
+      <c r="IQ97" s="40"/>
+      <c r="IR97" s="40"/>
+      <c r="IS97" s="40"/>
+      <c r="IT97" s="40"/>
+      <c r="IU97" s="40"/>
+      <c r="IV97" s="40"/>
     </row>
     <row r="98" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="19">
         <v>2019</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E98" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G98" s="20" t="s">
         <v>30</v>
@@ -26543,16 +26549,16 @@
         <v>16</v>
       </c>
       <c r="I98" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J98" s="19" t="s">
         <v>126</v>
       </c>
       <c r="K98" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L98" s="20" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="L98" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="M98" s="19" t="s">
         <v>16</v>
@@ -26801,44 +26807,44 @@
       <c r="IU98" s="8"/>
       <c r="IV98" s="8"/>
     </row>
-    <row r="99" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A99" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" s="51">
+    <row r="99" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="19">
         <v>2019</v>
       </c>
-      <c r="C99" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D99" s="51" t="s">
+      <c r="C99" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E99" s="51" t="s">
+      <c r="E99" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F99" s="21" t="s">
+      <c r="F99" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="19">
         <v>8</v>
       </c>
-      <c r="G99" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I99" s="22">
-        <v>10</v>
-      </c>
-      <c r="J99" s="22" t="s">
+      <c r="J99" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K99" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L99" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="M99" s="22" t="s">
+      <c r="K99" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L99" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N99" s="8"/>
@@ -27085,45 +27091,298 @@
       <c r="IU99" s="8"/>
       <c r="IV99" s="8"/>
     </row>
-    <row r="100" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="60"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="28" t="s">
+    <row r="100" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="45">
+        <v>2019</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D100" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="28" t="s">
+      <c r="E100" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H100" s="29" t="s">
+      <c r="H100" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I100" s="29">
+      <c r="I100" s="22">
         <v>10</v>
       </c>
-      <c r="J100" s="29" t="s">
+      <c r="J100" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="K100" s="29" t="s">
+      <c r="K100" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L100" s="28" t="s">
+      <c r="L100" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="M100" s="29" t="s">
+      <c r="M100" s="22" t="s">
         <v>16</v>
       </c>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8"/>
+      <c r="Q100" s="8"/>
+      <c r="R100" s="8"/>
+      <c r="S100" s="8"/>
+      <c r="T100" s="8"/>
+      <c r="U100" s="8"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="8"/>
+      <c r="X100" s="8"/>
+      <c r="Y100" s="8"/>
+      <c r="Z100" s="8"/>
+      <c r="AA100" s="8"/>
+      <c r="AB100" s="8"/>
+      <c r="AC100" s="8"/>
+      <c r="AD100" s="8"/>
+      <c r="AE100" s="8"/>
+      <c r="AF100" s="8"/>
+      <c r="AG100" s="8"/>
+      <c r="AH100" s="8"/>
+      <c r="AI100" s="8"/>
+      <c r="AJ100" s="8"/>
+      <c r="AK100" s="8"/>
+      <c r="AL100" s="8"/>
+      <c r="AM100" s="8"/>
+      <c r="AN100" s="8"/>
+      <c r="AO100" s="8"/>
+      <c r="AP100" s="8"/>
+      <c r="AQ100" s="8"/>
+      <c r="AR100" s="8"/>
+      <c r="AS100" s="8"/>
+      <c r="AT100" s="8"/>
+      <c r="AU100" s="8"/>
+      <c r="AV100" s="8"/>
+      <c r="AW100" s="8"/>
+      <c r="AX100" s="8"/>
+      <c r="AY100" s="8"/>
+      <c r="AZ100" s="8"/>
+      <c r="BA100" s="8"/>
+      <c r="BB100" s="8"/>
+      <c r="BC100" s="8"/>
+      <c r="BD100" s="8"/>
+      <c r="BE100" s="8"/>
+      <c r="BF100" s="8"/>
+      <c r="BG100" s="8"/>
+      <c r="BH100" s="8"/>
+      <c r="BI100" s="8"/>
+      <c r="BJ100" s="8"/>
+      <c r="BK100" s="8"/>
+      <c r="BL100" s="8"/>
+      <c r="BM100" s="8"/>
+      <c r="BN100" s="8"/>
+      <c r="BO100" s="8"/>
+      <c r="BP100" s="8"/>
+      <c r="BQ100" s="8"/>
+      <c r="BR100" s="8"/>
+      <c r="BS100" s="8"/>
+      <c r="BT100" s="8"/>
+      <c r="BU100" s="8"/>
+      <c r="BV100" s="8"/>
+      <c r="BW100" s="8"/>
+      <c r="BX100" s="8"/>
+      <c r="BY100" s="8"/>
+      <c r="BZ100" s="8"/>
+      <c r="CA100" s="8"/>
+      <c r="CB100" s="8"/>
+      <c r="CC100" s="8"/>
+      <c r="CD100" s="8"/>
+      <c r="CE100" s="8"/>
+      <c r="CF100" s="8"/>
+      <c r="CG100" s="8"/>
+      <c r="CH100" s="8"/>
+      <c r="CI100" s="8"/>
+      <c r="CJ100" s="8"/>
+      <c r="CK100" s="8"/>
+      <c r="CL100" s="8"/>
+      <c r="CM100" s="8"/>
+      <c r="CN100" s="8"/>
+      <c r="CO100" s="8"/>
+      <c r="CP100" s="8"/>
+      <c r="CQ100" s="8"/>
+      <c r="CR100" s="8"/>
+      <c r="CS100" s="8"/>
+      <c r="CT100" s="8"/>
+      <c r="CU100" s="8"/>
+      <c r="CV100" s="8"/>
+      <c r="CW100" s="8"/>
+      <c r="CX100" s="8"/>
+      <c r="CY100" s="8"/>
+      <c r="CZ100" s="8"/>
+      <c r="DA100" s="8"/>
+      <c r="DB100" s="8"/>
+      <c r="DC100" s="8"/>
+      <c r="DD100" s="8"/>
+      <c r="DE100" s="8"/>
+      <c r="DF100" s="8"/>
+      <c r="DG100" s="8"/>
+      <c r="DH100" s="8"/>
+      <c r="DI100" s="8"/>
+      <c r="DJ100" s="8"/>
+      <c r="DK100" s="8"/>
+      <c r="DL100" s="8"/>
+      <c r="DM100" s="8"/>
+      <c r="DN100" s="8"/>
+      <c r="DO100" s="8"/>
+      <c r="DP100" s="8"/>
+      <c r="DQ100" s="8"/>
+      <c r="DR100" s="8"/>
+      <c r="DS100" s="8"/>
+      <c r="DT100" s="8"/>
+      <c r="DU100" s="8"/>
+      <c r="DV100" s="8"/>
+      <c r="DW100" s="8"/>
+      <c r="DX100" s="8"/>
+      <c r="DY100" s="8"/>
+      <c r="DZ100" s="8"/>
+      <c r="EA100" s="8"/>
+      <c r="EB100" s="8"/>
+      <c r="EC100" s="8"/>
+      <c r="ED100" s="8"/>
+      <c r="EE100" s="8"/>
+      <c r="EF100" s="8"/>
+      <c r="EG100" s="8"/>
+      <c r="EH100" s="8"/>
+      <c r="EI100" s="8"/>
+      <c r="EJ100" s="8"/>
+      <c r="EK100" s="8"/>
+      <c r="EL100" s="8"/>
+      <c r="EM100" s="8"/>
+      <c r="EN100" s="8"/>
+      <c r="EO100" s="8"/>
+      <c r="EP100" s="8"/>
+      <c r="EQ100" s="8"/>
+      <c r="ER100" s="8"/>
+      <c r="ES100" s="8"/>
+      <c r="ET100" s="8"/>
+      <c r="EU100" s="8"/>
+      <c r="EV100" s="8"/>
+      <c r="EW100" s="8"/>
+      <c r="EX100" s="8"/>
+      <c r="EY100" s="8"/>
+      <c r="EZ100" s="8"/>
+      <c r="FA100" s="8"/>
+      <c r="FB100" s="8"/>
+      <c r="FC100" s="8"/>
+      <c r="FD100" s="8"/>
+      <c r="FE100" s="8"/>
+      <c r="FF100" s="8"/>
+      <c r="FG100" s="8"/>
+      <c r="FH100" s="8"/>
+      <c r="FI100" s="8"/>
+      <c r="FJ100" s="8"/>
+      <c r="FK100" s="8"/>
+      <c r="FL100" s="8"/>
+      <c r="FM100" s="8"/>
+      <c r="FN100" s="8"/>
+      <c r="FO100" s="8"/>
+      <c r="FP100" s="8"/>
+      <c r="FQ100" s="8"/>
+      <c r="FR100" s="8"/>
+      <c r="FS100" s="8"/>
+      <c r="FT100" s="8"/>
+      <c r="FU100" s="8"/>
+      <c r="FV100" s="8"/>
+      <c r="FW100" s="8"/>
+      <c r="FX100" s="8"/>
+      <c r="FY100" s="8"/>
+      <c r="FZ100" s="8"/>
+      <c r="GA100" s="8"/>
+      <c r="GB100" s="8"/>
+      <c r="GC100" s="8"/>
+      <c r="GD100" s="8"/>
+      <c r="GE100" s="8"/>
+      <c r="GF100" s="8"/>
+      <c r="GG100" s="8"/>
+      <c r="GH100" s="8"/>
+      <c r="GI100" s="8"/>
+      <c r="GJ100" s="8"/>
+      <c r="GK100" s="8"/>
+      <c r="GL100" s="8"/>
+      <c r="GM100" s="8"/>
+      <c r="GN100" s="8"/>
+      <c r="GO100" s="8"/>
+      <c r="GP100" s="8"/>
+      <c r="GQ100" s="8"/>
+      <c r="GR100" s="8"/>
+      <c r="GS100" s="8"/>
+      <c r="GT100" s="8"/>
+      <c r="GU100" s="8"/>
+      <c r="GV100" s="8"/>
+      <c r="GW100" s="8"/>
+      <c r="GX100" s="8"/>
+      <c r="GY100" s="8"/>
+      <c r="GZ100" s="8"/>
+      <c r="HA100" s="8"/>
+      <c r="HB100" s="8"/>
+      <c r="HC100" s="8"/>
+      <c r="HD100" s="8"/>
+      <c r="HE100" s="8"/>
+      <c r="HF100" s="8"/>
+      <c r="HG100" s="8"/>
+      <c r="HH100" s="8"/>
+      <c r="HI100" s="8"/>
+      <c r="HJ100" s="8"/>
+      <c r="HK100" s="8"/>
+      <c r="HL100" s="8"/>
+      <c r="HM100" s="8"/>
+      <c r="HN100" s="8"/>
+      <c r="HO100" s="8"/>
+      <c r="HP100" s="8"/>
+      <c r="HQ100" s="8"/>
+      <c r="HR100" s="8"/>
+      <c r="HS100" s="8"/>
+      <c r="HT100" s="8"/>
+      <c r="HU100" s="8"/>
+      <c r="HV100" s="8"/>
+      <c r="HW100" s="8"/>
+      <c r="HX100" s="8"/>
+      <c r="HY100" s="8"/>
+      <c r="HZ100" s="8"/>
+      <c r="IA100" s="8"/>
+      <c r="IB100" s="8"/>
+      <c r="IC100" s="8"/>
+      <c r="ID100" s="8"/>
+      <c r="IE100" s="8"/>
+      <c r="IF100" s="8"/>
+      <c r="IG100" s="8"/>
+      <c r="IH100" s="8"/>
+      <c r="II100" s="8"/>
+      <c r="IJ100" s="8"/>
+      <c r="IK100" s="8"/>
+      <c r="IL100" s="8"/>
+      <c r="IM100" s="8"/>
+      <c r="IN100" s="8"/>
+      <c r="IO100" s="8"/>
+      <c r="IP100" s="8"/>
+      <c r="IQ100" s="8"/>
+      <c r="IR100" s="8"/>
+      <c r="IS100" s="8"/>
+      <c r="IT100" s="8"/>
+      <c r="IU100" s="8"/>
+      <c r="IV100" s="8"/>
     </row>
     <row r="101" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="60"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
+      <c r="A101" s="61"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50"/>
       <c r="F101" s="28" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G101" s="28" t="s">
         <v>30</v>
@@ -27148,11 +27407,11 @@
       </c>
     </row>
     <row r="102" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A102" s="60"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="50"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
       <c r="F102" s="28" t="s">
         <v>1</v>
       </c>
@@ -27178,318 +27437,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:256" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="61"/>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="23" t="s">
+      <c r="B103" s="50"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G103" s="23" t="s">
+      <c r="G103" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H103" s="24" t="s">
+      <c r="H103" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="24">
+      <c r="I103" s="29">
+        <v>10</v>
+      </c>
+      <c r="J103" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="K103" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="M103" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:256" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="62"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="24">
         <v>15</v>
       </c>
-      <c r="J103" s="23" t="s">
+      <c r="J104" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K103" s="23" t="s">
+      <c r="K104" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="L103" s="23" t="s">
+      <c r="L104" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="M103" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
-      <c r="S103" s="8"/>
-      <c r="T103" s="8"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="8"/>
-      <c r="X103" s="8"/>
-      <c r="Y103" s="8"/>
-      <c r="Z103" s="8"/>
-      <c r="AA103" s="8"/>
-      <c r="AB103" s="8"/>
-      <c r="AC103" s="8"/>
-      <c r="AD103" s="8"/>
-      <c r="AE103" s="8"/>
-      <c r="AF103" s="8"/>
-      <c r="AG103" s="8"/>
-      <c r="AH103" s="8"/>
-      <c r="AI103" s="8"/>
-      <c r="AJ103" s="8"/>
-      <c r="AK103" s="8"/>
-      <c r="AL103" s="8"/>
-      <c r="AM103" s="8"/>
-      <c r="AN103" s="8"/>
-      <c r="AO103" s="8"/>
-      <c r="AP103" s="8"/>
-      <c r="AQ103" s="8"/>
-      <c r="AR103" s="8"/>
-      <c r="AS103" s="8"/>
-      <c r="AT103" s="8"/>
-      <c r="AU103" s="8"/>
-      <c r="AV103" s="8"/>
-      <c r="AW103" s="8"/>
-      <c r="AX103" s="8"/>
-      <c r="AY103" s="8"/>
-      <c r="AZ103" s="8"/>
-      <c r="BA103" s="8"/>
-      <c r="BB103" s="8"/>
-      <c r="BC103" s="8"/>
-      <c r="BD103" s="8"/>
-      <c r="BE103" s="8"/>
-      <c r="BF103" s="8"/>
-      <c r="BG103" s="8"/>
-      <c r="BH103" s="8"/>
-      <c r="BI103" s="8"/>
-      <c r="BJ103" s="8"/>
-      <c r="BK103" s="8"/>
-      <c r="BL103" s="8"/>
-      <c r="BM103" s="8"/>
-      <c r="BN103" s="8"/>
-      <c r="BO103" s="8"/>
-      <c r="BP103" s="8"/>
-      <c r="BQ103" s="8"/>
-      <c r="BR103" s="8"/>
-      <c r="BS103" s="8"/>
-      <c r="BT103" s="8"/>
-      <c r="BU103" s="8"/>
-      <c r="BV103" s="8"/>
-      <c r="BW103" s="8"/>
-      <c r="BX103" s="8"/>
-      <c r="BY103" s="8"/>
-      <c r="BZ103" s="8"/>
-      <c r="CA103" s="8"/>
-      <c r="CB103" s="8"/>
-      <c r="CC103" s="8"/>
-      <c r="CD103" s="8"/>
-      <c r="CE103" s="8"/>
-      <c r="CF103" s="8"/>
-      <c r="CG103" s="8"/>
-      <c r="CH103" s="8"/>
-      <c r="CI103" s="8"/>
-      <c r="CJ103" s="8"/>
-      <c r="CK103" s="8"/>
-      <c r="CL103" s="8"/>
-      <c r="CM103" s="8"/>
-      <c r="CN103" s="8"/>
-      <c r="CO103" s="8"/>
-      <c r="CP103" s="8"/>
-      <c r="CQ103" s="8"/>
-      <c r="CR103" s="8"/>
-      <c r="CS103" s="8"/>
-      <c r="CT103" s="8"/>
-      <c r="CU103" s="8"/>
-      <c r="CV103" s="8"/>
-      <c r="CW103" s="8"/>
-      <c r="CX103" s="8"/>
-      <c r="CY103" s="8"/>
-      <c r="CZ103" s="8"/>
-      <c r="DA103" s="8"/>
-      <c r="DB103" s="8"/>
-      <c r="DC103" s="8"/>
-      <c r="DD103" s="8"/>
-      <c r="DE103" s="8"/>
-      <c r="DF103" s="8"/>
-      <c r="DG103" s="8"/>
-      <c r="DH103" s="8"/>
-      <c r="DI103" s="8"/>
-      <c r="DJ103" s="8"/>
-      <c r="DK103" s="8"/>
-      <c r="DL103" s="8"/>
-      <c r="DM103" s="8"/>
-      <c r="DN103" s="8"/>
-      <c r="DO103" s="8"/>
-      <c r="DP103" s="8"/>
-      <c r="DQ103" s="8"/>
-      <c r="DR103" s="8"/>
-      <c r="DS103" s="8"/>
-      <c r="DT103" s="8"/>
-      <c r="DU103" s="8"/>
-      <c r="DV103" s="8"/>
-      <c r="DW103" s="8"/>
-      <c r="DX103" s="8"/>
-      <c r="DY103" s="8"/>
-      <c r="DZ103" s="8"/>
-      <c r="EA103" s="8"/>
-      <c r="EB103" s="8"/>
-      <c r="EC103" s="8"/>
-      <c r="ED103" s="8"/>
-      <c r="EE103" s="8"/>
-      <c r="EF103" s="8"/>
-      <c r="EG103" s="8"/>
-      <c r="EH103" s="8"/>
-      <c r="EI103" s="8"/>
-      <c r="EJ103" s="8"/>
-      <c r="EK103" s="8"/>
-      <c r="EL103" s="8"/>
-      <c r="EM103" s="8"/>
-      <c r="EN103" s="8"/>
-      <c r="EO103" s="8"/>
-      <c r="EP103" s="8"/>
-      <c r="EQ103" s="8"/>
-      <c r="ER103" s="8"/>
-      <c r="ES103" s="8"/>
-      <c r="ET103" s="8"/>
-      <c r="EU103" s="8"/>
-      <c r="EV103" s="8"/>
-      <c r="EW103" s="8"/>
-      <c r="EX103" s="8"/>
-      <c r="EY103" s="8"/>
-      <c r="EZ103" s="8"/>
-      <c r="FA103" s="8"/>
-      <c r="FB103" s="8"/>
-      <c r="FC103" s="8"/>
-      <c r="FD103" s="8"/>
-      <c r="FE103" s="8"/>
-      <c r="FF103" s="8"/>
-      <c r="FG103" s="8"/>
-      <c r="FH103" s="8"/>
-      <c r="FI103" s="8"/>
-      <c r="FJ103" s="8"/>
-      <c r="FK103" s="8"/>
-      <c r="FL103" s="8"/>
-      <c r="FM103" s="8"/>
-      <c r="FN103" s="8"/>
-      <c r="FO103" s="8"/>
-      <c r="FP103" s="8"/>
-      <c r="FQ103" s="8"/>
-      <c r="FR103" s="8"/>
-      <c r="FS103" s="8"/>
-      <c r="FT103" s="8"/>
-      <c r="FU103" s="8"/>
-      <c r="FV103" s="8"/>
-      <c r="FW103" s="8"/>
-      <c r="FX103" s="8"/>
-      <c r="FY103" s="8"/>
-      <c r="FZ103" s="8"/>
-      <c r="GA103" s="8"/>
-      <c r="GB103" s="8"/>
-      <c r="GC103" s="8"/>
-      <c r="GD103" s="8"/>
-      <c r="GE103" s="8"/>
-      <c r="GF103" s="8"/>
-      <c r="GG103" s="8"/>
-      <c r="GH103" s="8"/>
-      <c r="GI103" s="8"/>
-      <c r="GJ103" s="8"/>
-      <c r="GK103" s="8"/>
-      <c r="GL103" s="8"/>
-      <c r="GM103" s="8"/>
-      <c r="GN103" s="8"/>
-      <c r="GO103" s="8"/>
-      <c r="GP103" s="8"/>
-      <c r="GQ103" s="8"/>
-      <c r="GR103" s="8"/>
-      <c r="GS103" s="8"/>
-      <c r="GT103" s="8"/>
-      <c r="GU103" s="8"/>
-      <c r="GV103" s="8"/>
-      <c r="GW103" s="8"/>
-      <c r="GX103" s="8"/>
-      <c r="GY103" s="8"/>
-      <c r="GZ103" s="8"/>
-      <c r="HA103" s="8"/>
-      <c r="HB103" s="8"/>
-      <c r="HC103" s="8"/>
-      <c r="HD103" s="8"/>
-      <c r="HE103" s="8"/>
-      <c r="HF103" s="8"/>
-      <c r="HG103" s="8"/>
-      <c r="HH103" s="8"/>
-      <c r="HI103" s="8"/>
-      <c r="HJ103" s="8"/>
-      <c r="HK103" s="8"/>
-      <c r="HL103" s="8"/>
-      <c r="HM103" s="8"/>
-      <c r="HN103" s="8"/>
-      <c r="HO103" s="8"/>
-      <c r="HP103" s="8"/>
-      <c r="HQ103" s="8"/>
-      <c r="HR103" s="8"/>
-      <c r="HS103" s="8"/>
-      <c r="HT103" s="8"/>
-      <c r="HU103" s="8"/>
-      <c r="HV103" s="8"/>
-      <c r="HW103" s="8"/>
-      <c r="HX103" s="8"/>
-      <c r="HY103" s="8"/>
-      <c r="HZ103" s="8"/>
-      <c r="IA103" s="8"/>
-      <c r="IB103" s="8"/>
-      <c r="IC103" s="8"/>
-      <c r="ID103" s="8"/>
-      <c r="IE103" s="8"/>
-      <c r="IF103" s="8"/>
-      <c r="IG103" s="8"/>
-      <c r="IH103" s="8"/>
-      <c r="II103" s="8"/>
-      <c r="IJ103" s="8"/>
-      <c r="IK103" s="8"/>
-      <c r="IL103" s="8"/>
-      <c r="IM103" s="8"/>
-      <c r="IN103" s="8"/>
-      <c r="IO103" s="8"/>
-      <c r="IP103" s="8"/>
-      <c r="IQ103" s="8"/>
-      <c r="IR103" s="8"/>
-      <c r="IS103" s="8"/>
-      <c r="IT103" s="8"/>
-      <c r="IU103" s="8"/>
-      <c r="IV103" s="8"/>
-    </row>
-    <row r="104" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B104" s="43">
-        <v>2019</v>
-      </c>
-      <c r="C104" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D104" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F104" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G104" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H104" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I104" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J104" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K104" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L104" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M104" s="29" t="s">
+      <c r="M104" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N104" s="8"/>
@@ -27737,34 +27743,44 @@
       <c r="IV104" s="8"/>
     </row>
     <row r="105" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="50"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="52"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H105" s="24" t="s">
+      <c r="A105" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B105" s="43">
+        <v>2019</v>
+      </c>
+      <c r="C105" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G105" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H105" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I105" s="24">
-        <v>1</v>
-      </c>
-      <c r="J105" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="K105" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="L105" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M105" s="24" t="s">
-        <v>17</v>
+      <c r="I105" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K105" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
@@ -28011,44 +28027,34 @@
       <c r="IV105" s="8"/>
     </row>
     <row r="106" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="19">
-        <v>2019</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F106" s="19" t="s">
+      <c r="A106" s="47"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G106" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H106" s="19" t="s">
+      <c r="G106" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H106" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I106" s="19">
-        <v>4</v>
-      </c>
-      <c r="J106" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="K106" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L106" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="M106" s="19" t="s">
-        <v>16</v>
+      <c r="I106" s="24">
+        <v>1</v>
+      </c>
+      <c r="J106" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K106" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="L106" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="M106" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
@@ -28294,44 +28300,44 @@
       <c r="IU106" s="8"/>
       <c r="IV106" s="8"/>
     </row>
-    <row r="107" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="22">
+    <row r="107" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="19">
         <v>2019</v>
       </c>
-      <c r="C107" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D107" s="22" t="s">
+      <c r="C107" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F107" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H107" s="22" t="s">
+      <c r="F107" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H107" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I107" s="22">
-        <v>30</v>
-      </c>
-      <c r="J107" s="22" t="s">
+      <c r="I107" s="19">
+        <v>4</v>
+      </c>
+      <c r="J107" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="K107" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="L107" s="21" t="s">
+      <c r="K107" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L107" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="M107" s="22" t="s">
+      <c r="M107" s="19" t="s">
         <v>16</v>
       </c>
       <c r="N107" s="8"/>
@@ -28578,44 +28584,44 @@
       <c r="IU107" s="8"/>
       <c r="IV107" s="8"/>
     </row>
-    <row r="108" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="19">
+    <row r="108" spans="1:256" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B108" s="22">
         <v>2019</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D108" s="19" t="s">
+      <c r="D108" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E108" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F108" s="19" t="s">
+      <c r="F108" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="20" t="s">
+      <c r="G108" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H108" s="19" t="s">
+      <c r="H108" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I108" s="19">
-        <v>10</v>
-      </c>
-      <c r="J108" s="19" t="s">
+      <c r="I108" s="22">
+        <v>30</v>
+      </c>
+      <c r="J108" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="K108" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="L108" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M108" s="19" t="s">
+      <c r="K108" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="L108" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M108" s="22" t="s">
         <v>16</v>
       </c>
       <c r="N108" s="8"/>
@@ -28864,13 +28870,13 @@
     </row>
     <row r="109" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B109" s="19">
         <v>2019</v>
       </c>
-      <c r="C109" s="19" t="s">
-        <v>56</v>
+      <c r="C109" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="D109" s="19" t="s">
         <v>8</v>
@@ -28882,22 +28888,22 @@
         <v>8</v>
       </c>
       <c r="G109" s="20" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H109" s="19" t="s">
         <v>16</v>
       </c>
       <c r="I109" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J109" s="19" t="s">
         <v>126</v>
       </c>
       <c r="K109" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L109" s="20" t="s">
-        <v>111</v>
+        <v>7</v>
+      </c>
+      <c r="L109" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="M109" s="19" t="s">
         <v>16</v>
@@ -29146,7 +29152,46 @@
       <c r="IU109" s="8"/>
       <c r="IV109" s="8"/>
     </row>
-    <row r="110" spans="1:256" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:256" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="19">
+        <v>2019</v>
+      </c>
+      <c r="C110" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H110" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="19">
+        <v>5</v>
+      </c>
+      <c r="J110" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="K110" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M110" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
@@ -30616,115 +30661,253 @@
       <c r="IU115" s="8"/>
       <c r="IV115" s="8"/>
     </row>
+    <row r="116" spans="14:256" x14ac:dyDescent="0.35">
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8"/>
+      <c r="Q116" s="8"/>
+      <c r="R116" s="8"/>
+      <c r="S116" s="8"/>
+      <c r="T116" s="8"/>
+      <c r="U116" s="8"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="8"/>
+      <c r="X116" s="8"/>
+      <c r="Y116" s="8"/>
+      <c r="Z116" s="8"/>
+      <c r="AA116" s="8"/>
+      <c r="AB116" s="8"/>
+      <c r="AC116" s="8"/>
+      <c r="AD116" s="8"/>
+      <c r="AE116" s="8"/>
+      <c r="AF116" s="8"/>
+      <c r="AG116" s="8"/>
+      <c r="AH116" s="8"/>
+      <c r="AI116" s="8"/>
+      <c r="AJ116" s="8"/>
+      <c r="AK116" s="8"/>
+      <c r="AL116" s="8"/>
+      <c r="AM116" s="8"/>
+      <c r="AN116" s="8"/>
+      <c r="AO116" s="8"/>
+      <c r="AP116" s="8"/>
+      <c r="AQ116" s="8"/>
+      <c r="AR116" s="8"/>
+      <c r="AS116" s="8"/>
+      <c r="AT116" s="8"/>
+      <c r="AU116" s="8"/>
+      <c r="AV116" s="8"/>
+      <c r="AW116" s="8"/>
+      <c r="AX116" s="8"/>
+      <c r="AY116" s="8"/>
+      <c r="AZ116" s="8"/>
+      <c r="BA116" s="8"/>
+      <c r="BB116" s="8"/>
+      <c r="BC116" s="8"/>
+      <c r="BD116" s="8"/>
+      <c r="BE116" s="8"/>
+      <c r="BF116" s="8"/>
+      <c r="BG116" s="8"/>
+      <c r="BH116" s="8"/>
+      <c r="BI116" s="8"/>
+      <c r="BJ116" s="8"/>
+      <c r="BK116" s="8"/>
+      <c r="BL116" s="8"/>
+      <c r="BM116" s="8"/>
+      <c r="BN116" s="8"/>
+      <c r="BO116" s="8"/>
+      <c r="BP116" s="8"/>
+      <c r="BQ116" s="8"/>
+      <c r="BR116" s="8"/>
+      <c r="BS116" s="8"/>
+      <c r="BT116" s="8"/>
+      <c r="BU116" s="8"/>
+      <c r="BV116" s="8"/>
+      <c r="BW116" s="8"/>
+      <c r="BX116" s="8"/>
+      <c r="BY116" s="8"/>
+      <c r="BZ116" s="8"/>
+      <c r="CA116" s="8"/>
+      <c r="CB116" s="8"/>
+      <c r="CC116" s="8"/>
+      <c r="CD116" s="8"/>
+      <c r="CE116" s="8"/>
+      <c r="CF116" s="8"/>
+      <c r="CG116" s="8"/>
+      <c r="CH116" s="8"/>
+      <c r="CI116" s="8"/>
+      <c r="CJ116" s="8"/>
+      <c r="CK116" s="8"/>
+      <c r="CL116" s="8"/>
+      <c r="CM116" s="8"/>
+      <c r="CN116" s="8"/>
+      <c r="CO116" s="8"/>
+      <c r="CP116" s="8"/>
+      <c r="CQ116" s="8"/>
+      <c r="CR116" s="8"/>
+      <c r="CS116" s="8"/>
+      <c r="CT116" s="8"/>
+      <c r="CU116" s="8"/>
+      <c r="CV116" s="8"/>
+      <c r="CW116" s="8"/>
+      <c r="CX116" s="8"/>
+      <c r="CY116" s="8"/>
+      <c r="CZ116" s="8"/>
+      <c r="DA116" s="8"/>
+      <c r="DB116" s="8"/>
+      <c r="DC116" s="8"/>
+      <c r="DD116" s="8"/>
+      <c r="DE116" s="8"/>
+      <c r="DF116" s="8"/>
+      <c r="DG116" s="8"/>
+      <c r="DH116" s="8"/>
+      <c r="DI116" s="8"/>
+      <c r="DJ116" s="8"/>
+      <c r="DK116" s="8"/>
+      <c r="DL116" s="8"/>
+      <c r="DM116" s="8"/>
+      <c r="DN116" s="8"/>
+      <c r="DO116" s="8"/>
+      <c r="DP116" s="8"/>
+      <c r="DQ116" s="8"/>
+      <c r="DR116" s="8"/>
+      <c r="DS116" s="8"/>
+      <c r="DT116" s="8"/>
+      <c r="DU116" s="8"/>
+      <c r="DV116" s="8"/>
+      <c r="DW116" s="8"/>
+      <c r="DX116" s="8"/>
+      <c r="DY116" s="8"/>
+      <c r="DZ116" s="8"/>
+      <c r="EA116" s="8"/>
+      <c r="EB116" s="8"/>
+      <c r="EC116" s="8"/>
+      <c r="ED116" s="8"/>
+      <c r="EE116" s="8"/>
+      <c r="EF116" s="8"/>
+      <c r="EG116" s="8"/>
+      <c r="EH116" s="8"/>
+      <c r="EI116" s="8"/>
+      <c r="EJ116" s="8"/>
+      <c r="EK116" s="8"/>
+      <c r="EL116" s="8"/>
+      <c r="EM116" s="8"/>
+      <c r="EN116" s="8"/>
+      <c r="EO116" s="8"/>
+      <c r="EP116" s="8"/>
+      <c r="EQ116" s="8"/>
+      <c r="ER116" s="8"/>
+      <c r="ES116" s="8"/>
+      <c r="ET116" s="8"/>
+      <c r="EU116" s="8"/>
+      <c r="EV116" s="8"/>
+      <c r="EW116" s="8"/>
+      <c r="EX116" s="8"/>
+      <c r="EY116" s="8"/>
+      <c r="EZ116" s="8"/>
+      <c r="FA116" s="8"/>
+      <c r="FB116" s="8"/>
+      <c r="FC116" s="8"/>
+      <c r="FD116" s="8"/>
+      <c r="FE116" s="8"/>
+      <c r="FF116" s="8"/>
+      <c r="FG116" s="8"/>
+      <c r="FH116" s="8"/>
+      <c r="FI116" s="8"/>
+      <c r="FJ116" s="8"/>
+      <c r="FK116" s="8"/>
+      <c r="FL116" s="8"/>
+      <c r="FM116" s="8"/>
+      <c r="FN116" s="8"/>
+      <c r="FO116" s="8"/>
+      <c r="FP116" s="8"/>
+      <c r="FQ116" s="8"/>
+      <c r="FR116" s="8"/>
+      <c r="FS116" s="8"/>
+      <c r="FT116" s="8"/>
+      <c r="FU116" s="8"/>
+      <c r="FV116" s="8"/>
+      <c r="FW116" s="8"/>
+      <c r="FX116" s="8"/>
+      <c r="FY116" s="8"/>
+      <c r="FZ116" s="8"/>
+      <c r="GA116" s="8"/>
+      <c r="GB116" s="8"/>
+      <c r="GC116" s="8"/>
+      <c r="GD116" s="8"/>
+      <c r="GE116" s="8"/>
+      <c r="GF116" s="8"/>
+      <c r="GG116" s="8"/>
+      <c r="GH116" s="8"/>
+      <c r="GI116" s="8"/>
+      <c r="GJ116" s="8"/>
+      <c r="GK116" s="8"/>
+      <c r="GL116" s="8"/>
+      <c r="GM116" s="8"/>
+      <c r="GN116" s="8"/>
+      <c r="GO116" s="8"/>
+      <c r="GP116" s="8"/>
+      <c r="GQ116" s="8"/>
+      <c r="GR116" s="8"/>
+      <c r="GS116" s="8"/>
+      <c r="GT116" s="8"/>
+      <c r="GU116" s="8"/>
+      <c r="GV116" s="8"/>
+      <c r="GW116" s="8"/>
+      <c r="GX116" s="8"/>
+      <c r="GY116" s="8"/>
+      <c r="GZ116" s="8"/>
+      <c r="HA116" s="8"/>
+      <c r="HB116" s="8"/>
+      <c r="HC116" s="8"/>
+      <c r="HD116" s="8"/>
+      <c r="HE116" s="8"/>
+      <c r="HF116" s="8"/>
+      <c r="HG116" s="8"/>
+      <c r="HH116" s="8"/>
+      <c r="HI116" s="8"/>
+      <c r="HJ116" s="8"/>
+      <c r="HK116" s="8"/>
+      <c r="HL116" s="8"/>
+      <c r="HM116" s="8"/>
+      <c r="HN116" s="8"/>
+      <c r="HO116" s="8"/>
+      <c r="HP116" s="8"/>
+      <c r="HQ116" s="8"/>
+      <c r="HR116" s="8"/>
+      <c r="HS116" s="8"/>
+      <c r="HT116" s="8"/>
+      <c r="HU116" s="8"/>
+      <c r="HV116" s="8"/>
+      <c r="HW116" s="8"/>
+      <c r="HX116" s="8"/>
+      <c r="HY116" s="8"/>
+      <c r="HZ116" s="8"/>
+      <c r="IA116" s="8"/>
+      <c r="IB116" s="8"/>
+      <c r="IC116" s="8"/>
+      <c r="ID116" s="8"/>
+      <c r="IE116" s="8"/>
+      <c r="IF116" s="8"/>
+      <c r="IG116" s="8"/>
+      <c r="IH116" s="8"/>
+      <c r="II116" s="8"/>
+      <c r="IJ116" s="8"/>
+      <c r="IK116" s="8"/>
+      <c r="IL116" s="8"/>
+      <c r="IM116" s="8"/>
+      <c r="IN116" s="8"/>
+      <c r="IO116" s="8"/>
+      <c r="IP116" s="8"/>
+      <c r="IQ116" s="8"/>
+      <c r="IR116" s="8"/>
+      <c r="IS116" s="8"/>
+      <c r="IT116" s="8"/>
+      <c r="IU116" s="8"/>
+      <c r="IV116" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="D99:D103"/>
-    <mergeCell ref="C99:C103"/>
-    <mergeCell ref="E99:E103"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -30749,6 +30932,113 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
